--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -1,39 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="795" activeTab="19"/>
   </bookViews>
   <sheets>
-    <sheet name="B1" r:id="rId3" sheetId="1"/>
-    <sheet name="D1" r:id="rId4" sheetId="2"/>
-    <sheet name="D2" r:id="rId5" sheetId="3"/>
-    <sheet name="E0" r:id="rId6" sheetId="4"/>
-    <sheet name="E1" r:id="rId7" sheetId="5"/>
-    <sheet name="E2" r:id="rId8" sheetId="6"/>
-    <sheet name="E3" r:id="rId9" sheetId="7"/>
-    <sheet name="EC" r:id="rId10" sheetId="8"/>
-    <sheet name="F1" r:id="rId11" sheetId="9"/>
-    <sheet name="F2" r:id="rId12" sheetId="10"/>
-    <sheet name="G1" r:id="rId13" sheetId="11"/>
-    <sheet name="I1" r:id="rId14" sheetId="12"/>
-    <sheet name="I2" r:id="rId15" sheetId="13"/>
-    <sheet name="N1" r:id="rId16" sheetId="14"/>
-    <sheet name="P1" r:id="rId17" sheetId="15"/>
-    <sheet name="SC0" r:id="rId18" sheetId="16"/>
-    <sheet name="SC1" r:id="rId19" sheetId="17"/>
-    <sheet name="SC2" r:id="rId20" sheetId="18"/>
-    <sheet name="SC3" r:id="rId21" sheetId="19"/>
-    <sheet name="SP1" r:id="rId22" sheetId="20"/>
-    <sheet name="SP2" r:id="rId23" sheetId="21"/>
-    <sheet name="T1" r:id="rId24" sheetId="22"/>
+    <sheet name="B1" sheetId="1" r:id="rId1"/>
+    <sheet name="D1" sheetId="2" r:id="rId2"/>
+    <sheet name="D2" sheetId="3" r:id="rId3"/>
+    <sheet name="E0" sheetId="4" r:id="rId4"/>
+    <sheet name="E1" sheetId="5" r:id="rId5"/>
+    <sheet name="E2" sheetId="6" r:id="rId6"/>
+    <sheet name="E3" sheetId="7" r:id="rId7"/>
+    <sheet name="EC" sheetId="8" r:id="rId8"/>
+    <sheet name="F1" sheetId="9" r:id="rId9"/>
+    <sheet name="F2" sheetId="10" r:id="rId10"/>
+    <sheet name="G1" sheetId="11" r:id="rId11"/>
+    <sheet name="I1" sheetId="12" r:id="rId12"/>
+    <sheet name="I2" sheetId="13" r:id="rId13"/>
+    <sheet name="N1" sheetId="14" r:id="rId14"/>
+    <sheet name="P1" sheetId="15" r:id="rId15"/>
+    <sheet name="SC0" sheetId="16" r:id="rId16"/>
+    <sheet name="SC1" sheetId="17" r:id="rId17"/>
+    <sheet name="SC2" sheetId="18" r:id="rId18"/>
+    <sheet name="SC3" sheetId="19" r:id="rId19"/>
+    <sheet name="SP1" sheetId="20" r:id="rId20"/>
+    <sheet name="SP2" sheetId="21" r:id="rId21"/>
+    <sheet name="T1" sheetId="22" r:id="rId22"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10758" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10330" uniqueCount="1041">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -2910,27 +2917,6 @@
   </si>
   <si>
     <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>2.3438</t>
-  </si>
-  <si>
-    <t>3.2812</t>
-  </si>
-  <si>
-    <t>2.0909</t>
-  </si>
-  <si>
-    <t>1.9697</t>
-  </si>
-  <si>
-    <t>2.5455</t>
-  </si>
-  <si>
-    <t>2.4242</t>
-  </si>
-  <si>
-    <t>2.697</t>
   </si>
   <si>
     <t>Albacete</t>
@@ -3182,11 +3168,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3198,7 +3183,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -3213,22 +3198,296 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3299,7 +3558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3373,7 +3632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3447,7 +3706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3521,7 +3780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3595,7 +3854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3743,7 +4002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3817,7 +4076,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3891,7 +4150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3965,7 +4224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4039,7 +4298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4113,7 +4372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4187,7 +4446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4261,7 +4520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4335,7 +4594,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4409,7 +4668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4483,7 +4742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -4557,7 +4816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4632,20 +4891,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>531</v>
       </c>
@@ -4722,7 +4980,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>531</v>
       </c>
@@ -4802,7 +5060,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>532</v>
       </c>
@@ -4882,7 +5140,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>533</v>
       </c>
@@ -4962,7 +5220,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>534</v>
       </c>
@@ -5042,7 +5300,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>535</v>
       </c>
@@ -5122,7 +5380,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>536</v>
       </c>
@@ -5202,7 +5460,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -5282,7 +5540,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>538</v>
       </c>
@@ -5362,7 +5620,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>539</v>
       </c>
@@ -5442,7 +5700,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>540</v>
       </c>
@@ -5522,7 +5780,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>556</v>
       </c>
@@ -5602,7 +5860,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>542</v>
       </c>
@@ -5682,7 +5940,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>543</v>
       </c>
@@ -5762,7 +6020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>557</v>
       </c>
@@ -5842,7 +6100,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>558</v>
       </c>
@@ -5922,7 +6180,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>546</v>
       </c>
@@ -6002,7 +6260,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>547</v>
       </c>
@@ -6082,7 +6340,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>548</v>
       </c>
@@ -6162,7 +6420,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>549</v>
       </c>
@@ -6242,7 +6500,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>550</v>
       </c>
@@ -6323,20 +6581,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>572</v>
       </c>
@@ -6395,7 +6652,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>572</v>
       </c>
@@ -6457,7 +6714,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>573</v>
       </c>
@@ -6519,7 +6776,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>574</v>
       </c>
@@ -6581,7 +6838,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>591</v>
       </c>
@@ -6643,7 +6900,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>576</v>
       </c>
@@ -6705,7 +6962,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>577</v>
       </c>
@@ -6767,7 +7024,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>578</v>
       </c>
@@ -6829,7 +7086,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>579</v>
       </c>
@@ -6891,7 +7148,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>592</v>
       </c>
@@ -6953,7 +7210,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>581</v>
       </c>
@@ -7015,7 +7272,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>582</v>
       </c>
@@ -7077,7 +7334,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>583</v>
       </c>
@@ -7139,7 +7396,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>584</v>
       </c>
@@ -7201,7 +7458,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>593</v>
       </c>
@@ -7264,20 +7521,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>625</v>
       </c>
@@ -7354,7 +7610,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>625</v>
       </c>
@@ -7434,7 +7690,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>626</v>
       </c>
@@ -7514,7 +7770,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>627</v>
       </c>
@@ -7594,7 +7850,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>628</v>
       </c>
@@ -7674,7 +7930,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>629</v>
       </c>
@@ -7754,7 +8010,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>630</v>
       </c>
@@ -7834,7 +8090,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>631</v>
       </c>
@@ -7914,7 +8170,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>632</v>
       </c>
@@ -7994,7 +8250,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>633</v>
       </c>
@@ -8074,7 +8330,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>634</v>
       </c>
@@ -8154,7 +8410,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>635</v>
       </c>
@@ -8234,7 +8490,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>636</v>
       </c>
@@ -8314,7 +8570,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>637</v>
       </c>
@@ -8394,7 +8650,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>638</v>
       </c>
@@ -8474,7 +8730,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>639</v>
       </c>
@@ -8554,7 +8810,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>640</v>
       </c>
@@ -8634,7 +8890,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>641</v>
       </c>
@@ -8714,7 +8970,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>642</v>
       </c>
@@ -8794,7 +9050,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>643</v>
       </c>
@@ -8874,7 +9130,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>644</v>
       </c>
@@ -8955,20 +9211,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>663</v>
       </c>
@@ -9045,7 +9300,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>663</v>
       </c>
@@ -9125,7 +9380,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -9205,7 +9460,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>665</v>
       </c>
@@ -9285,7 +9540,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>666</v>
       </c>
@@ -9365,7 +9620,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>667</v>
       </c>
@@ -9445,7 +9700,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>668</v>
       </c>
@@ -9525,7 +9780,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>669</v>
       </c>
@@ -9605,7 +9860,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>670</v>
       </c>
@@ -9685,7 +9940,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>671</v>
       </c>
@@ -9765,7 +10020,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>672</v>
       </c>
@@ -9845,7 +10100,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>673</v>
       </c>
@@ -9925,7 +10180,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>674</v>
       </c>
@@ -10005,7 +10260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>675</v>
       </c>
@@ -10085,7 +10340,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>676</v>
       </c>
@@ -10165,7 +10420,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>677</v>
       </c>
@@ -10245,7 +10500,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>678</v>
       </c>
@@ -10325,7 +10580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>679</v>
       </c>
@@ -10405,7 +10660,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>680</v>
       </c>
@@ -10485,7 +10740,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>681</v>
       </c>
@@ -10565,7 +10820,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>688</v>
       </c>
@@ -10646,20 +10901,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>696</v>
       </c>
@@ -10730,7 +10984,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>696</v>
       </c>
@@ -10804,7 +11058,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>719</v>
       </c>
@@ -10878,7 +11132,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>720</v>
       </c>
@@ -10952,7 +11206,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>721</v>
       </c>
@@ -11026,7 +11280,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>700</v>
       </c>
@@ -11100,7 +11354,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>722</v>
       </c>
@@ -11174,7 +11428,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>702</v>
       </c>
@@ -11248,7 +11502,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>703</v>
       </c>
@@ -11322,7 +11576,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>704</v>
       </c>
@@ -11396,7 +11650,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>723</v>
       </c>
@@ -11470,7 +11724,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>724</v>
       </c>
@@ -11544,7 +11798,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>707</v>
       </c>
@@ -11618,7 +11872,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>708</v>
       </c>
@@ -11692,7 +11946,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>709</v>
       </c>
@@ -11766,7 +12020,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>725</v>
       </c>
@@ -11840,7 +12094,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>711</v>
       </c>
@@ -11914,7 +12168,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>726</v>
       </c>
@@ -11988,7 +12242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>713</v>
       </c>
@@ -12063,20 +12317,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>741</v>
       </c>
@@ -12147,7 +12400,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -12221,7 +12474,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>742</v>
       </c>
@@ -12295,7 +12548,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>743</v>
       </c>
@@ -12369,7 +12622,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>744</v>
       </c>
@@ -12443,7 +12696,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>745</v>
       </c>
@@ -12517,7 +12770,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>764</v>
       </c>
@@ -12591,7 +12844,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>747</v>
       </c>
@@ -12665,7 +12918,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>748</v>
       </c>
@@ -12739,7 +12992,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>749</v>
       </c>
@@ -12813,7 +13066,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>750</v>
       </c>
@@ -12887,7 +13140,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>765</v>
       </c>
@@ -12961,7 +13214,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>752</v>
       </c>
@@ -13035,7 +13288,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>753</v>
       </c>
@@ -13109,7 +13362,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>766</v>
       </c>
@@ -13183,7 +13436,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>767</v>
       </c>
@@ -13257,7 +13510,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>768</v>
       </c>
@@ -13331,7 +13584,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>769</v>
       </c>
@@ -13405,7 +13658,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>758</v>
       </c>
@@ -13480,20 +13733,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>787</v>
       </c>
@@ -13546,7 +13798,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>787</v>
       </c>
@@ -13602,7 +13854,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>788</v>
       </c>
@@ -13658,7 +13910,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>804</v>
       </c>
@@ -13714,7 +13966,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>790</v>
       </c>
@@ -13770,7 +14022,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>791</v>
       </c>
@@ -13826,7 +14078,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>792</v>
       </c>
@@ -13882,7 +14134,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>793</v>
       </c>
@@ -13938,7 +14190,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>794</v>
       </c>
@@ -13994,7 +14246,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>795</v>
       </c>
@@ -14050,7 +14302,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>805</v>
       </c>
@@ -14106,7 +14358,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>806</v>
       </c>
@@ -14162,7 +14414,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>807</v>
       </c>
@@ -14219,20 +14471,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>841</v>
       </c>
@@ -14279,7 +14530,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>841</v>
       </c>
@@ -14329,7 +14580,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>842</v>
       </c>
@@ -14379,7 +14630,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>843</v>
       </c>
@@ -14429,7 +14680,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>844</v>
       </c>
@@ -14479,7 +14730,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>845</v>
       </c>
@@ -14529,7 +14780,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>846</v>
       </c>
@@ -14579,7 +14830,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>856</v>
       </c>
@@ -14629,7 +14880,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>848</v>
       </c>
@@ -14679,7 +14930,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>857</v>
       </c>
@@ -14729,7 +14980,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>858</v>
       </c>
@@ -14780,20 +15031,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>878</v>
       </c>
@@ -14834,7 +15084,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>891</v>
       </c>
@@ -14878,7 +15128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>879</v>
       </c>
@@ -14922,7 +15172,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>892</v>
       </c>
@@ -14966,7 +15216,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>881</v>
       </c>
@@ -15010,7 +15260,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>893</v>
       </c>
@@ -15054,7 +15304,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>883</v>
       </c>
@@ -15098,7 +15348,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>884</v>
       </c>
@@ -15142,7 +15392,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>885</v>
       </c>
@@ -15186,7 +15436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>886</v>
       </c>
@@ -15230,7 +15480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>887</v>
       </c>
@@ -15275,20 +15525,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>899</v>
       </c>
@@ -15335,7 +15584,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>914</v>
       </c>
@@ -15385,7 +15634,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>915</v>
       </c>
@@ -15435,7 +15684,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>901</v>
       </c>
@@ -15485,7 +15734,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>902</v>
       </c>
@@ -15535,7 +15784,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>916</v>
       </c>
@@ -15585,7 +15834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>904</v>
       </c>
@@ -15635,7 +15884,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>917</v>
       </c>
@@ -15685,7 +15934,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>906</v>
       </c>
@@ -15735,7 +15984,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>907</v>
       </c>
@@ -15785,7 +16034,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>908</v>
       </c>
@@ -15836,20 +16085,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>89</v>
       </c>
@@ -15920,7 +16168,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -15994,7 +16242,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -16068,7 +16316,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -16142,7 +16390,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -16216,7 +16464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -16290,7 +16538,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -16364,7 +16612,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -16438,7 +16686,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -16512,7 +16760,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -16586,7 +16834,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -16660,7 +16908,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -16734,7 +16982,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -16808,7 +17056,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -16882,7 +17130,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -16956,7 +17204,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -17030,7 +17278,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -17104,7 +17352,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -17178,7 +17426,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -17253,20 +17501,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>931</v>
       </c>
@@ -17343,1207 +17596,1207 @@
         <v>955</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>58</v>
+      </c>
+      <c r="W2" s="1">
+        <v>47</v>
+      </c>
+      <c r="X2" s="1">
+        <v>105</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3.2812000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3</v>
+      </c>
+      <c r="V3" s="1">
+        <v>44</v>
+      </c>
+      <c r="W3" s="1">
+        <v>50</v>
+      </c>
+      <c r="X3" s="1">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>7</v>
+      </c>
+      <c r="R4" s="1">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>52</v>
+      </c>
+      <c r="W4" s="1">
+        <v>43</v>
+      </c>
+      <c r="X4" s="1">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.8788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>44</v>
+      </c>
+      <c r="W5" s="1">
+        <v>45</v>
+      </c>
+      <c r="X5" s="1">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2.6970000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="1">
+        <v>41</v>
+      </c>
+      <c r="W6" s="1">
+        <v>47</v>
+      </c>
+      <c r="X6" s="1">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2.6667000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>44</v>
+      </c>
+      <c r="W7" s="1">
+        <v>43</v>
+      </c>
+      <c r="X7" s="1">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2.6364000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>947</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>48</v>
+      </c>
+      <c r="W8" s="1">
+        <v>37</v>
+      </c>
+      <c r="X8" s="1">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2.5758000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>943</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>6</v>
+      </c>
+      <c r="V9" s="1">
+        <v>47</v>
+      </c>
+      <c r="W9" s="1">
+        <v>37</v>
+      </c>
+      <c r="X9" s="1">
+        <v>84</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2.5455000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>957</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>46</v>
+      </c>
+      <c r="W10" s="1">
+        <v>36</v>
+      </c>
+      <c r="X10" s="1">
+        <v>82</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2.4847999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>942</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="1">
+        <v>4</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>36</v>
+      </c>
+      <c r="W11" s="1">
+        <v>45</v>
+      </c>
+      <c r="X11" s="1">
+        <v>81</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>2.4544999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="1">
+        <v>37</v>
+      </c>
+      <c r="W12" s="1">
+        <v>43</v>
+      </c>
+      <c r="X12" s="1">
+        <v>80</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>2.4241999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>36</v>
+      </c>
+      <c r="W13" s="1">
+        <v>42</v>
+      </c>
+      <c r="X13" s="1">
+        <v>78</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>2.3635999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>956</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2</v>
+      </c>
+      <c r="V14" s="1">
+        <v>39</v>
+      </c>
+      <c r="W14" s="1">
+        <v>36</v>
+      </c>
+      <c r="X14" s="1">
+        <v>75</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.3437999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>931</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3</v>
+      </c>
+      <c r="V15" s="1">
+        <v>36</v>
+      </c>
+      <c r="W15" s="1">
+        <v>41</v>
+      </c>
+      <c r="X15" s="1">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>2.3332999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>936</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>4</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
-        <v>187</v>
-      </c>
-      <c r="X2" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>956</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>957</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>934</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" t="s">
-        <v>47</v>
-      </c>
-      <c r="W5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>935</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" t="s">
-        <v>120</v>
-      </c>
-      <c r="W6" t="s">
-        <v>125</v>
-      </c>
-      <c r="X6" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>936</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" t="s">
-        <v>185</v>
-      </c>
-      <c r="X7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>937</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" t="s">
-        <v>122</v>
-      </c>
-      <c r="W8" t="s">
-        <v>125</v>
-      </c>
-      <c r="X8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>938</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" t="s">
-        <v>189</v>
-      </c>
-      <c r="W9" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" t="s">
-        <v>650</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>939</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>940</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" t="s">
-        <v>559</v>
-      </c>
-      <c r="W11" t="s">
-        <v>187</v>
-      </c>
-      <c r="X11" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>941</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" t="s">
-        <v>120</v>
-      </c>
-      <c r="W12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X12" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>942</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S13" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U13" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" t="s">
-        <v>54</v>
-      </c>
-      <c r="X13" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>943</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W14" t="s">
-        <v>185</v>
-      </c>
-      <c r="X14" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>944</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" t="s">
-        <v>124</v>
-      </c>
-      <c r="W15" t="s">
-        <v>126</v>
-      </c>
-      <c r="X15" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>958</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" t="s">
-        <v>29</v>
-      </c>
-      <c r="V16" t="s">
-        <v>185</v>
-      </c>
-      <c r="W16" t="s">
-        <v>125</v>
-      </c>
-      <c r="X16" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="W16" s="1">
+        <v>37</v>
+      </c>
+      <c r="X16" s="1">
+        <v>77</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>2.3332999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>946</v>
       </c>
@@ -18553,496 +18806,522 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" t="s">
-        <v>33</v>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
       </c>
       <c r="Q17" t="s">
         <v>29</v>
       </c>
-      <c r="R17" t="s">
-        <v>30</v>
+      <c r="R17" s="1">
+        <v>5</v>
       </c>
       <c r="S17" t="s">
         <v>29</v>
       </c>
-      <c r="T17" t="s">
-        <v>34</v>
-      </c>
-      <c r="U17" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" t="s">
-        <v>188</v>
-      </c>
-      <c r="W17" t="s">
-        <v>52</v>
-      </c>
-      <c r="X17" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="T17" s="1">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>35</v>
+      </c>
+      <c r="W17" s="1">
+        <v>40</v>
+      </c>
+      <c r="X17" s="1">
+        <v>75</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2.2726999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>947</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
+        <v>949</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="1">
+        <v>42</v>
+      </c>
+      <c r="W18" s="1">
+        <v>30</v>
+      </c>
+      <c r="X18" s="1">
+        <v>72</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>944</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="1">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" t="s">
-        <v>34</v>
-      </c>
-      <c r="V18" t="s">
-        <v>123</v>
-      </c>
-      <c r="W18" t="s">
-        <v>185</v>
-      </c>
-      <c r="X18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>948</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" t="s">
-        <v>120</v>
-      </c>
-      <c r="W19" t="s">
-        <v>54</v>
-      </c>
-      <c r="X19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="W19" s="1">
+        <v>32</v>
+      </c>
+      <c r="X19" s="1">
+        <v>70</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2.1212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" t="s">
-        <v>138</v>
-      </c>
-      <c r="X20" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>29</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+      <c r="V20" s="1">
+        <v>27</v>
+      </c>
+      <c r="W20" s="1">
+        <v>42</v>
+      </c>
+      <c r="X20" s="1">
+        <v>69</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.0909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>950</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
+        <v>940</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>29</v>
       </c>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" t="s">
-        <v>34</v>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" t="s">
-        <v>34</v>
-      </c>
-      <c r="S21" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" t="s">
-        <v>34</v>
-      </c>
-      <c r="U21" t="s">
-        <v>29</v>
-      </c>
-      <c r="V21" t="s">
-        <v>187</v>
-      </c>
-      <c r="W21" t="s">
-        <v>51</v>
-      </c>
-      <c r="X21" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>488</v>
+        <v>29</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>3</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>24</v>
+      </c>
+      <c r="W21" s="1">
+        <v>41</v>
+      </c>
+      <c r="X21" s="1">
+        <v>65</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1.9697</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sortState ref="A2:Z21">
+    <sortCondition descending="1" ref="Z2:Z21"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:U20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F1" t="s">
+        <v>963</v>
+      </c>
+      <c r="G1" t="s">
+        <v>964</v>
+      </c>
+      <c r="H1" t="s">
+        <v>965</v>
+      </c>
+      <c r="I1" t="s">
         <v>966</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>967</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>968</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>969</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>970</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>971</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>972</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>973</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>974</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>975</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>976</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>977</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>978</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>979</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>980</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>981</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>982</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>983</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>984</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>985</v>
       </c>
-      <c r="V1" t="s">
-        <v>986</v>
-      </c>
-      <c r="W1" t="s">
-        <v>987</v>
-      </c>
-      <c r="X1" t="s">
-        <v>988</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>989</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>990</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>991</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -19123,12 +19402,12 @@
         <v>40</v>
       </c>
       <c r="AB2" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -19209,12 +19488,12 @@
         <v>40</v>
       </c>
       <c r="AB3" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -19298,9 +19577,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -19381,12 +19660,12 @@
         <v>40</v>
       </c>
       <c r="AB5" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -19467,12 +19746,12 @@
         <v>40</v>
       </c>
       <c r="AB6" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -19556,9 +19835,9 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -19639,12 +19918,12 @@
         <v>40</v>
       </c>
       <c r="AB8" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -19728,9 +20007,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19811,12 +20090,12 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -19900,9 +20179,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -19983,12 +20262,12 @@
         <v>40</v>
       </c>
       <c r="AB12" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -20069,12 +20348,12 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -20155,12 +20434,12 @@
         <v>40</v>
       </c>
       <c r="AB14" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -20241,12 +20520,12 @@
         <v>40</v>
       </c>
       <c r="AB15" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -20327,12 +20606,12 @@
         <v>40</v>
       </c>
       <c r="AB16" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -20416,9 +20695,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -20499,12 +20778,12 @@
         <v>40</v>
       </c>
       <c r="AB18" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -20585,12 +20864,12 @@
         <v>40</v>
       </c>
       <c r="AB19" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -20671,12 +20950,12 @@
         <v>40</v>
       </c>
       <c r="AB20" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -20757,12 +21036,12 @@
         <v>40</v>
       </c>
       <c r="AB21" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -20843,12 +21122,12 @@
         <v>40</v>
       </c>
       <c r="AB22" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -20929,106 +21208,105 @@
         <v>40</v>
       </c>
       <c r="AB23" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I1" t="s">
         <v>1009</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>1010</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>1011</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>1012</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>1013</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>1014</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>1015</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>1016</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>1017</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>1018</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>1019</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>1020</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>1021</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>1022</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>1023</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>1024</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>1025</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>1026</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>1027</v>
       </c>
-      <c r="U1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -21106,12 +21384,12 @@
         <v>40</v>
       </c>
       <c r="AA2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -21189,12 +21467,12 @@
         <v>188</v>
       </c>
       <c r="AA3" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -21275,9 +21553,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -21355,12 +21633,12 @@
         <v>188</v>
       </c>
       <c r="AA5" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -21441,9 +21719,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -21521,12 +21799,12 @@
         <v>188</v>
       </c>
       <c r="AA7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -21607,9 +21885,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -21690,9 +21968,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -21773,9 +22051,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -21856,9 +22134,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -21936,12 +22214,12 @@
         <v>188</v>
       </c>
       <c r="AA12" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -22019,12 +22297,12 @@
         <v>188</v>
       </c>
       <c r="AA13" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -22105,9 +22383,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -22185,12 +22463,12 @@
         <v>188</v>
       </c>
       <c r="AA15" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -22268,12 +22546,12 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -22351,12 +22629,12 @@
         <v>188</v>
       </c>
       <c r="AA17" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -22434,12 +22712,12 @@
         <v>188</v>
       </c>
       <c r="AA18" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -22517,12 +22795,12 @@
         <v>188</v>
       </c>
       <c r="AA19" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -22600,12 +22878,12 @@
         <v>188</v>
       </c>
       <c r="AA20" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -22683,12 +22961,12 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -22766,24 +23044,23 @@
         <v>188</v>
       </c>
       <c r="AA22" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>156</v>
       </c>
@@ -22854,7 +23131,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -22928,7 +23205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -23002,7 +23279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -23076,7 +23353,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -23150,7 +23427,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -23224,7 +23501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -23298,7 +23575,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -23372,7 +23649,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -23446,7 +23723,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -23520,7 +23797,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -23594,7 +23871,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -23668,7 +23945,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -23742,7 +24019,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -23816,7 +24093,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -23890,7 +24167,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -23964,7 +24241,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -24038,7 +24315,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -24112,7 +24389,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -24187,20 +24464,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>211</v>
       </c>
@@ -24277,7 +24553,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -24357,7 +24633,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -24437,7 +24713,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -24517,7 +24793,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -24597,7 +24873,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -24677,7 +24953,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>237</v>
       </c>
@@ -24757,7 +25033,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -24837,7 +25113,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>218</v>
       </c>
@@ -24917,7 +25193,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -24997,7 +25273,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -25077,7 +25353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -25157,7 +25433,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -25237,7 +25513,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>239</v>
       </c>
@@ -25317,7 +25593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -25397,7 +25673,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -25477,7 +25753,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -25557,7 +25833,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -25637,7 +25913,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -25717,7 +25993,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>242</v>
       </c>
@@ -25797,7 +26073,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>230</v>
       </c>
@@ -25878,20 +26154,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>265</v>
       </c>
@@ -25980,7 +26255,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -26072,7 +26347,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -26164,7 +26439,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -26256,7 +26531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -26348,7 +26623,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>269</v>
       </c>
@@ -26440,7 +26715,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -26532,7 +26807,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -26624,7 +26899,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>272</v>
       </c>
@@ -26716,7 +26991,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -26808,7 +27083,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -26900,7 +27175,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>275</v>
       </c>
@@ -26992,7 +27267,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -27084,7 +27359,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -27176,7 +27451,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>278</v>
       </c>
@@ -27268,7 +27543,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -27360,7 +27635,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -27452,7 +27727,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -27544,7 +27819,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>282</v>
       </c>
@@ -27636,7 +27911,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>283</v>
       </c>
@@ -27728,7 +28003,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -27820,7 +28095,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -27912,7 +28187,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -28004,7 +28279,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -28096,7 +28371,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>288</v>
       </c>
@@ -28189,20 +28464,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>326</v>
       </c>
@@ -28291,7 +28565,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>326</v>
       </c>
@@ -28383,7 +28657,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>355</v>
       </c>
@@ -28475,7 +28749,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>328</v>
       </c>
@@ -28567,7 +28841,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>356</v>
       </c>
@@ -28659,7 +28933,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>330</v>
       </c>
@@ -28751,7 +29025,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -28843,7 +29117,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -28935,7 +29209,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>333</v>
       </c>
@@ -29027,7 +29301,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>357</v>
       </c>
@@ -29119,7 +29393,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -29211,7 +29485,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -29303,7 +29577,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -29395,7 +29669,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>338</v>
       </c>
@@ -29487,7 +29761,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -29579,7 +29853,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>340</v>
       </c>
@@ -29671,7 +29945,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>341</v>
       </c>
@@ -29763,7 +30037,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>342</v>
       </c>
@@ -29855,7 +30129,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>343</v>
       </c>
@@ -29947,7 +30221,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>344</v>
       </c>
@@ -30039,7 +30313,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>345</v>
       </c>
@@ -30131,7 +30405,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>346</v>
       </c>
@@ -30223,7 +30497,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -30315,7 +30589,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>348</v>
       </c>
@@ -30407,7 +30681,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>349</v>
       </c>
@@ -30500,20 +30774,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>382</v>
       </c>
@@ -30602,7 +30875,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -30694,7 +30967,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>383</v>
       </c>
@@ -30786,7 +31059,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -30878,7 +31151,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>385</v>
       </c>
@@ -30970,7 +31243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>386</v>
       </c>
@@ -31062,7 +31335,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>387</v>
       </c>
@@ -31154,7 +31427,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>388</v>
       </c>
@@ -31246,7 +31519,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>411</v>
       </c>
@@ -31338,7 +31611,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>390</v>
       </c>
@@ -31430,7 +31703,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>412</v>
       </c>
@@ -31522,7 +31795,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>392</v>
       </c>
@@ -31614,7 +31887,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>393</v>
       </c>
@@ -31706,7 +31979,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>413</v>
       </c>
@@ -31798,7 +32071,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>395</v>
       </c>
@@ -31890,7 +32163,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -31982,7 +32255,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>414</v>
       </c>
@@ -32074,7 +32347,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>398</v>
       </c>
@@ -32166,7 +32439,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>415</v>
       </c>
@@ -32258,7 +32531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>400</v>
       </c>
@@ -32350,7 +32623,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>401</v>
       </c>
@@ -32442,7 +32715,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>402</v>
       </c>
@@ -32534,7 +32807,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>403</v>
       </c>
@@ -32626,7 +32899,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>404</v>
       </c>
@@ -32718,7 +32991,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>405</v>
       </c>
@@ -32811,20 +33084,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>435</v>
       </c>
@@ -32910,7 +33182,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -32999,7 +33271,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -33088,7 +33360,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>437</v>
       </c>
@@ -33177,7 +33449,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>463</v>
       </c>
@@ -33266,7 +33538,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -33355,7 +33627,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>440</v>
       </c>
@@ -33444,7 +33716,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>464</v>
       </c>
@@ -33533,7 +33805,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>465</v>
       </c>
@@ -33622,7 +33894,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>443</v>
       </c>
@@ -33711,7 +33983,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>444</v>
       </c>
@@ -33800,7 +34072,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>445</v>
       </c>
@@ -33889,7 +34161,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>466</v>
       </c>
@@ -33978,7 +34250,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>447</v>
       </c>
@@ -34067,7 +34339,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -34156,7 +34428,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>449</v>
       </c>
@@ -34245,7 +34517,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>450</v>
       </c>
@@ -34334,7 +34606,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>451</v>
       </c>
@@ -34423,7 +34695,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>452</v>
       </c>
@@ -34512,7 +34784,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -34601,7 +34873,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>454</v>
       </c>
@@ -34690,7 +34962,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -34779,7 +35051,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>456</v>
       </c>
@@ -34868,7 +35140,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>457</v>
       </c>
@@ -34958,20 +35230,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>491</v>
       </c>
@@ -35048,7 +35319,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>491</v>
       </c>
@@ -35128,7 +35399,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>492</v>
       </c>
@@ -35208,7 +35479,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -35288,7 +35559,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>494</v>
       </c>
@@ -35368,7 +35639,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>495</v>
       </c>
@@ -35448,7 +35719,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>496</v>
       </c>
@@ -35528,7 +35799,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>497</v>
       </c>
@@ -35608,7 +35879,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -35688,7 +35959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>499</v>
       </c>
@@ -35768,7 +36039,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>500</v>
       </c>
@@ -35848,7 +36119,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>501</v>
       </c>
@@ -35928,7 +36199,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>502</v>
       </c>
@@ -36008,7 +36279,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>503</v>
       </c>
@@ -36088,7 +36359,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>504</v>
       </c>
@@ -36168,7 +36439,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>505</v>
       </c>
@@ -36248,7 +36519,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>516</v>
       </c>
@@ -36328,7 +36599,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>507</v>
       </c>
@@ -36408,7 +36679,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>508</v>
       </c>
@@ -36488,7 +36759,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>517</v>
       </c>
@@ -36568,7 +36839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>510</v>
       </c>
@@ -36649,6 +36920,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" tabRatio="783" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="B1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9964" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9535" uniqueCount="1016">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -1911,37 +1911,10 @@
     <t>69</t>
   </si>
   <si>
-    <t>3.5455</t>
-  </si>
-  <si>
-    <t>3.1212</t>
-  </si>
-  <si>
     <t>2.9394</t>
   </si>
   <si>
-    <t>3.7879</t>
-  </si>
-  <si>
     <t>2.5758</t>
-  </si>
-  <si>
-    <t>3.0606</t>
-  </si>
-  <si>
-    <t>3.1875</t>
-  </si>
-  <si>
-    <t>3.3333</t>
-  </si>
-  <si>
-    <t>3.2121</t>
-  </si>
-  <si>
-    <t>3.1818</t>
-  </si>
-  <si>
-    <t>3.1515</t>
   </si>
   <si>
     <t>Ascoli</t>
@@ -7481,9 +7454,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -7564,1575 +7542,1575 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
+        <v>601</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
-        <v>622</v>
-      </c>
-      <c r="W2" t="s">
-        <v>123</v>
-      </c>
-      <c r="X2" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>623</v>
+        <v>29</v>
+      </c>
+      <c r="V2" s="1">
+        <v>53</v>
+      </c>
+      <c r="W2" s="1">
+        <v>72</v>
+      </c>
+      <c r="X2" s="1">
+        <v>125</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3.7879</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" t="s">
-        <v>122</v>
-      </c>
-      <c r="W3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>624</v>
+        <v>29</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>6</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>69</v>
+      </c>
+      <c r="W3" s="1">
+        <v>48</v>
+      </c>
+      <c r="X3" s="1">
+        <v>117</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>3.5455000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
+        <v>608</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" t="s">
-        <v>120</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>625</v>
+        <v>29</v>
+      </c>
+      <c r="V4" s="1">
+        <v>60</v>
+      </c>
+      <c r="W4" s="1">
+        <v>50</v>
+      </c>
+      <c r="X4" s="1">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>3.3332999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>452</v>
+        <v>29</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>44</v>
+      </c>
+      <c r="W5" s="1">
+        <v>62</v>
+      </c>
+      <c r="X5" s="1">
+        <v>106</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3.2121</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
+        <v>610</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" t="s">
-        <v>58</v>
-      </c>
-      <c r="W6" t="s">
-        <v>121</v>
-      </c>
-      <c r="X6" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>626</v>
+        <v>29</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>7</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>53</v>
+      </c>
+      <c r="W6" s="1">
+        <v>53</v>
+      </c>
+      <c r="X6" s="1">
+        <v>106</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3.2121</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>602</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
+        <v>606</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>242</v>
+        <v>29</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>51</v>
+      </c>
+      <c r="W7" s="1">
+        <v>51</v>
+      </c>
+      <c r="X7" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>3.1875</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
+        <v>614</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>627</v>
+        <v>29</v>
+      </c>
+      <c r="T8" s="1">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>51</v>
+      </c>
+      <c r="W8" s="1">
+        <v>51</v>
+      </c>
+      <c r="X8" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>3.1875</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s">
-        <v>29</v>
+        <v>29</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" t="s">
-        <v>53</v>
-      </c>
-      <c r="X9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>628</v>
+        <v>29</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1">
+        <v>6</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5</v>
+      </c>
+      <c r="V9" s="1">
+        <v>50</v>
+      </c>
+      <c r="W9" s="1">
+        <v>55</v>
+      </c>
+      <c r="X9" s="1">
+        <v>105</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3.1818</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
+        <v>613</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>452</v>
+        <v>29</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>47</v>
+      </c>
+      <c r="W10" s="1">
+        <v>57</v>
+      </c>
+      <c r="X10" s="1">
+        <v>104</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>3.1515</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>606</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
+        <v>598</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" t="s">
-        <v>43</v>
-      </c>
-      <c r="X11" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>629</v>
+        <v>29</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>6</v>
+      </c>
+      <c r="U11" s="1">
+        <v>3</v>
+      </c>
+      <c r="V11" s="1">
+        <v>52</v>
+      </c>
+      <c r="W11" s="1">
+        <v>51</v>
+      </c>
+      <c r="X11" s="1">
+        <v>103</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>3.1212</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>607</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
+        <v>604</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1">
+        <v>6</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>628</v>
+        <v>29</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>55</v>
+      </c>
+      <c r="W12" s="1">
+        <v>46</v>
+      </c>
+      <c r="X12" s="1">
+        <v>101</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>3.0606</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>608</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
+        <v>607</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U13" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" t="s">
-        <v>277</v>
-      </c>
-      <c r="W13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>6</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>53</v>
+      </c>
+      <c r="W13" s="1">
         <v>48</v>
       </c>
-      <c r="X13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>630</v>
+      <c r="X13" s="1">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>3.0606</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>609</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
+        <v>599</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" t="s">
-        <v>120</v>
-      </c>
-      <c r="W14" t="s">
-        <v>276</v>
-      </c>
-      <c r="X14" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>631</v>
+        <v>29</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>7</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>53</v>
+      </c>
+      <c r="W14" s="1">
+        <v>44</v>
+      </c>
+      <c r="X14" s="1">
+        <v>97</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.9394</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>610</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
+        <v>602</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
       </c>
       <c r="K15" t="s">
         <v>29</v>
       </c>
-      <c r="L15" t="s">
-        <v>31</v>
+      <c r="L15" s="1">
+        <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>631</v>
+        <v>29</v>
+      </c>
+      <c r="N15" s="1">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>5</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2</v>
+      </c>
+      <c r="V15" s="1">
+        <v>46</v>
+      </c>
+      <c r="W15" s="1">
+        <v>50</v>
+      </c>
+      <c r="X15" s="1">
+        <v>96</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>2.9091</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>611</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
+        <v>600</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W16" t="s">
-        <v>177</v>
-      </c>
-      <c r="X16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>241</v>
+        <v>29</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1">
+        <v>53</v>
+      </c>
+      <c r="W16" s="1">
+        <v>42</v>
+      </c>
+      <c r="X16" s="1">
+        <v>95</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>2.8788</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>612</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
+        <v>605</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
         <v>29</v>
       </c>
-      <c r="K17" t="s">
-        <v>29</v>
+      <c r="K17" s="1">
+        <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" t="s">
-        <v>48</v>
-      </c>
-      <c r="W17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>632</v>
+        <v>29</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>5</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>50</v>
+      </c>
+      <c r="W17" s="1">
+        <v>45</v>
+      </c>
+      <c r="X17" s="1">
+        <v>95</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2.8788</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>613</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" t="s">
-        <v>29</v>
+        <v>611</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O18" t="s">
         <v>29</v>
       </c>
       <c r="P18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5</v>
       </c>
       <c r="R18" t="s">
         <v>29</v>
       </c>
-      <c r="S18" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V18" t="s">
-        <v>51</v>
-      </c>
-      <c r="W18" t="s">
-        <v>55</v>
-      </c>
-      <c r="X18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>633</v>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>49</v>
+      </c>
+      <c r="W18" s="1">
+        <v>41</v>
+      </c>
+      <c r="X18" s="1">
+        <v>90</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2.7273000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="1">
+        <v>49</v>
+      </c>
+      <c r="W19" s="1">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" t="s">
-        <v>34</v>
-      </c>
-      <c r="V19" t="s">
-        <v>43</v>
-      </c>
-      <c r="W19" t="s">
-        <v>43</v>
-      </c>
-      <c r="X19" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>629</v>
+      <c r="X19" s="1">
+        <v>85</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2.5758000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>615</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>29</v>
       </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" t="s">
-        <v>33</v>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" t="s">
-        <v>33</v>
+      <c r="Q20" s="1">
+        <v>2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
       </c>
       <c r="T20" t="s">
         <v>29</v>
       </c>
-      <c r="U20" t="s">
-        <v>34</v>
-      </c>
-      <c r="V20" t="s">
-        <v>178</v>
-      </c>
-      <c r="W20" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>237</v>
+      <c r="U20" s="1">
+        <v>2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>27</v>
+      </c>
+      <c r="W20" s="1">
+        <v>55</v>
+      </c>
+      <c r="X20" s="1">
+        <v>82</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.4847999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>616</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>34</v>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2</v>
       </c>
       <c r="R21" t="s">
         <v>29</v>
@@ -9140,29 +9118,56 @@
       <c r="S21" t="s">
         <v>29</v>
       </c>
-      <c r="T21" t="s">
-        <v>33</v>
+      <c r="T21" s="1">
+        <v>1</v>
       </c>
       <c r="U21" t="s">
         <v>29</v>
       </c>
-      <c r="V21" t="s">
-        <v>227</v>
-      </c>
-      <c r="W21" t="s">
-        <v>125</v>
-      </c>
-      <c r="X21" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>303</v>
+      <c r="V21" s="1">
+        <v>35</v>
+      </c>
+      <c r="W21" s="1">
+        <v>43</v>
+      </c>
+      <c r="X21" s="1">
+        <v>78</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>2.3635999999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Z21">
+    <sortCondition descending="1" ref="Z2:Z21"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:U21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9177,84 +9182,84 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J1" t="s">
+        <v>633</v>
+      </c>
+      <c r="K1" t="s">
         <v>634</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>635</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>636</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>637</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>638</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>639</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>640</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>641</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>642</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>643</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>644</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>645</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>646</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>647</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>648</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>649</v>
-      </c>
-      <c r="R1" t="s">
-        <v>650</v>
-      </c>
-      <c r="S1" t="s">
-        <v>651</v>
-      </c>
-      <c r="T1" t="s">
-        <v>652</v>
-      </c>
-      <c r="U1" t="s">
-        <v>653</v>
-      </c>
-      <c r="V1" t="s">
-        <v>654</v>
-      </c>
-      <c r="W1" t="s">
-        <v>655</v>
-      </c>
-      <c r="X1" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>657</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9329,12 +9334,12 @@
         <v>44</v>
       </c>
       <c r="Z2" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -9409,12 +9414,12 @@
         <v>44</v>
       </c>
       <c r="Z3" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9489,12 +9494,12 @@
         <v>44</v>
       </c>
       <c r="Z4" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -9569,12 +9574,12 @@
         <v>44</v>
       </c>
       <c r="Z5" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -9649,12 +9654,12 @@
         <v>44</v>
       </c>
       <c r="Z6" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9729,12 +9734,12 @@
         <v>44</v>
       </c>
       <c r="Z7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -9803,18 +9808,18 @@
         <v>53</v>
       </c>
       <c r="X8" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="Y8" t="s">
         <v>44</v>
       </c>
       <c r="Z8" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -9889,12 +9894,12 @@
         <v>44</v>
       </c>
       <c r="Z9" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -9974,7 +9979,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -10049,12 +10054,12 @@
         <v>44</v>
       </c>
       <c r="Z11" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -10134,7 +10139,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -10214,7 +10219,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -10289,12 +10294,12 @@
         <v>44</v>
       </c>
       <c r="Z14" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -10374,7 +10379,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10449,12 +10454,12 @@
         <v>44</v>
       </c>
       <c r="Z16" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -10534,7 +10539,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -10609,12 +10614,12 @@
         <v>44</v>
       </c>
       <c r="Z18" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -10689,12 +10694,12 @@
         <v>44</v>
       </c>
       <c r="Z19" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -10774,7 +10779,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -10849,7 +10854,7 @@
         <v>44</v>
       </c>
       <c r="Z21" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -10867,78 +10872,78 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J1" t="s">
+        <v>669</v>
+      </c>
+      <c r="K1" t="s">
         <v>670</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>671</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>672</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>673</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>674</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>675</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>676</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>677</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>678</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>679</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>680</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>681</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>682</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>683</v>
-      </c>
-      <c r="P1" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>685</v>
-      </c>
-      <c r="R1" t="s">
-        <v>686</v>
-      </c>
-      <c r="S1" t="s">
-        <v>687</v>
-      </c>
-      <c r="T1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V1" t="s">
-        <v>690</v>
-      </c>
-      <c r="W1" t="s">
-        <v>691</v>
-      </c>
-      <c r="X1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11007,12 +11012,12 @@
         <v>137</v>
       </c>
       <c r="X2" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -11081,12 +11086,12 @@
         <v>137</v>
       </c>
       <c r="X3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -11155,12 +11160,12 @@
         <v>137</v>
       </c>
       <c r="X4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -11223,18 +11228,18 @@
         <v>176</v>
       </c>
       <c r="V5" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="W5" t="s">
         <v>137</v>
       </c>
       <c r="X5" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11303,12 +11308,12 @@
         <v>137</v>
       </c>
       <c r="X6" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -11377,12 +11382,12 @@
         <v>137</v>
       </c>
       <c r="X7" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -11451,12 +11456,12 @@
         <v>137</v>
       </c>
       <c r="X8" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -11525,12 +11530,12 @@
         <v>137</v>
       </c>
       <c r="X9" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -11604,7 +11609,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -11673,12 +11678,12 @@
         <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -11752,7 +11757,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -11821,12 +11826,12 @@
         <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -11895,12 +11900,12 @@
         <v>137</v>
       </c>
       <c r="X14" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11969,15 +11974,15 @@
         <v>137</v>
       </c>
       <c r="X15" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B16" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -12043,12 +12048,12 @@
         <v>137</v>
       </c>
       <c r="X16" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -12122,7 +12127,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -12191,12 +12196,12 @@
         <v>137</v>
       </c>
       <c r="X18" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -12265,7 +12270,7 @@
         <v>137</v>
       </c>
       <c r="X19" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -12283,78 +12288,78 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1" t="s">
+        <v>711</v>
+      </c>
+      <c r="H1" t="s">
+        <v>712</v>
+      </c>
+      <c r="I1" t="s">
+        <v>713</v>
+      </c>
+      <c r="J1" t="s">
+        <v>714</v>
+      </c>
+      <c r="K1" t="s">
         <v>715</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>716</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>717</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>718</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>719</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>720</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>721</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>722</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>723</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>724</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>725</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>726</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>727</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>728</v>
-      </c>
-      <c r="P1" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>730</v>
-      </c>
-      <c r="R1" t="s">
-        <v>731</v>
-      </c>
-      <c r="S1" t="s">
-        <v>732</v>
-      </c>
-      <c r="T1" t="s">
-        <v>733</v>
-      </c>
-      <c r="U1" t="s">
-        <v>734</v>
-      </c>
-      <c r="V1" t="s">
-        <v>735</v>
-      </c>
-      <c r="W1" t="s">
-        <v>736</v>
-      </c>
-      <c r="X1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12414,7 +12419,7 @@
         <v>137</v>
       </c>
       <c r="U2" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="V2" t="s">
         <v>123</v>
@@ -12423,12 +12428,12 @@
         <v>489</v>
       </c>
       <c r="X2" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -12497,12 +12502,12 @@
         <v>489</v>
       </c>
       <c r="X3" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -12571,12 +12576,12 @@
         <v>489</v>
       </c>
       <c r="X4" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -12645,12 +12650,12 @@
         <v>489</v>
       </c>
       <c r="X5" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -12719,12 +12724,12 @@
         <v>489</v>
       </c>
       <c r="X6" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -12793,12 +12798,12 @@
         <v>489</v>
       </c>
       <c r="X7" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -12867,12 +12872,12 @@
         <v>489</v>
       </c>
       <c r="X8" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -12941,12 +12946,12 @@
         <v>137</v>
       </c>
       <c r="X9" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -13015,12 +13020,12 @@
         <v>489</v>
       </c>
       <c r="X10" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -13089,12 +13094,12 @@
         <v>489</v>
       </c>
       <c r="X11" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13163,12 +13168,12 @@
         <v>489</v>
       </c>
       <c r="X12" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -13237,12 +13242,12 @@
         <v>489</v>
       </c>
       <c r="X13" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -13311,12 +13316,12 @@
         <v>489</v>
       </c>
       <c r="X14" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -13385,12 +13390,12 @@
         <v>489</v>
       </c>
       <c r="X15" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -13459,12 +13464,12 @@
         <v>489</v>
       </c>
       <c r="X16" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -13533,12 +13538,12 @@
         <v>137</v>
       </c>
       <c r="X17" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -13607,12 +13612,12 @@
         <v>489</v>
       </c>
       <c r="X18" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -13681,7 +13686,7 @@
         <v>489</v>
       </c>
       <c r="X19" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -13699,60 +13704,60 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K1" t="s">
         <v>761</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>762</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>763</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>764</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>765</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>766</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>767</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>768</v>
-      </c>
-      <c r="J1" t="s">
-        <v>769</v>
-      </c>
-      <c r="K1" t="s">
-        <v>770</v>
-      </c>
-      <c r="L1" t="s">
-        <v>771</v>
-      </c>
-      <c r="M1" t="s">
-        <v>772</v>
-      </c>
-      <c r="N1" t="s">
-        <v>773</v>
-      </c>
-      <c r="O1" t="s">
-        <v>774</v>
-      </c>
-      <c r="P1" t="s">
-        <v>775</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>776</v>
-      </c>
-      <c r="R1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13794,21 +13799,21 @@
         <v>570</v>
       </c>
       <c r="O2" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="P2" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="Q2" t="s">
         <v>227</v>
       </c>
       <c r="R2" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -13829,7 +13834,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -13847,24 +13852,24 @@
         <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="O3" t="s">
         <v>578</v>
       </c>
       <c r="P3" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="Q3" t="s">
         <v>227</v>
       </c>
       <c r="R3" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B4" t="s">
         <v>567</v>
@@ -13900,10 +13905,10 @@
         <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="N4" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="O4" t="s">
         <v>438</v>
@@ -13915,12 +13920,12 @@
         <v>227</v>
       </c>
       <c r="R4" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -13965,18 +13970,18 @@
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="Q5" t="s">
         <v>227</v>
       </c>
       <c r="R5" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B6" t="s">
         <v>566</v>
@@ -13988,7 +13993,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -14027,12 +14032,12 @@
         <v>227</v>
       </c>
       <c r="R6" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -14083,12 +14088,12 @@
         <v>227</v>
       </c>
       <c r="R7" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -14103,7 +14108,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -14130,21 +14135,21 @@
         <v>531</v>
       </c>
       <c r="O8" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="P8" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="Q8" t="s">
         <v>227</v>
       </c>
       <c r="R8" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -14186,21 +14191,21 @@
         <v>137</v>
       </c>
       <c r="O9" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="P9" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="Q9" t="s">
         <v>227</v>
       </c>
       <c r="R9" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -14209,7 +14214,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E10" t="s">
         <v>119</v>
@@ -14230,7 +14235,7 @@
         <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
@@ -14239,7 +14244,7 @@
         <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="O10" t="s">
         <v>572</v>
@@ -14251,12 +14256,12 @@
         <v>227</v>
       </c>
       <c r="R10" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -14274,7 +14279,7 @@
         <v>566</v>
       </c>
       <c r="G11" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -14295,7 +14300,7 @@
         <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="O11" t="s">
         <v>573</v>
@@ -14307,15 +14312,15 @@
         <v>227</v>
       </c>
       <c r="R11" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B12" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -14351,30 +14356,30 @@
         <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="O12" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="P12" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="Q12" t="s">
         <v>227</v>
       </c>
       <c r="R12" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -14410,16 +14415,16 @@
         <v>571</v>
       </c>
       <c r="O13" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="P13" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="Q13" t="s">
         <v>227</v>
       </c>
       <c r="R13" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -14437,54 +14442,54 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1" t="s">
+        <v>813</v>
+      </c>
+      <c r="J1" t="s">
+        <v>814</v>
+      </c>
+      <c r="K1" t="s">
         <v>815</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>816</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>817</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>818</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>819</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>820</v>
-      </c>
-      <c r="H1" t="s">
-        <v>821</v>
-      </c>
-      <c r="I1" t="s">
-        <v>822</v>
-      </c>
-      <c r="J1" t="s">
-        <v>823</v>
-      </c>
-      <c r="K1" t="s">
-        <v>824</v>
-      </c>
-      <c r="L1" t="s">
-        <v>825</v>
-      </c>
-      <c r="M1" t="s">
-        <v>826</v>
-      </c>
-      <c r="N1" t="s">
-        <v>827</v>
-      </c>
-      <c r="O1" t="s">
-        <v>828</v>
-      </c>
-      <c r="P1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14496,7 +14501,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -14523,18 +14528,18 @@
         <v>579</v>
       </c>
       <c r="N2" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="O2" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P2" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -14543,7 +14548,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -14567,24 +14572,24 @@
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="M3" t="s">
         <v>570</v>
       </c>
       <c r="N3" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="O3" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P3" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -14617,24 +14622,24 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="M4" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="N4" t="s">
         <v>125</v>
       </c>
       <c r="O4" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P4" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -14649,7 +14654,7 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -14670,21 +14675,21 @@
         <v>136</v>
       </c>
       <c r="M5" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="N5" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="O5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P5" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -14711,33 +14716,33 @@
         <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="M6" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="N6" t="s">
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P6" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B7" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -14746,7 +14751,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -14776,15 +14781,15 @@
         <v>127</v>
       </c>
       <c r="O7" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P7" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -14817,24 +14822,24 @@
         <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="M8" t="s">
         <v>571</v>
       </c>
       <c r="N8" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="O8" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P8" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B9" t="s">
         <v>566</v>
@@ -14843,7 +14848,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -14855,7 +14860,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -14867,27 +14872,27 @@
         <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="M9" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="N9" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="O9" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P9" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B10" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -14920,13 +14925,13 @@
         <v>489</v>
       </c>
       <c r="M10" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="N10" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P10" t="s">
         <v>397</v>
@@ -14934,13 +14939,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -14976,7 +14981,7 @@
         <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="P11" t="s">
         <v>34</v>
@@ -14997,48 +15002,48 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G1" t="s">
+        <v>848</v>
+      </c>
+      <c r="H1" t="s">
+        <v>849</v>
+      </c>
+      <c r="I1" t="s">
+        <v>850</v>
+      </c>
+      <c r="J1" t="s">
+        <v>851</v>
+      </c>
+      <c r="K1" t="s">
         <v>852</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>853</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>854</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>855</v>
-      </c>
-      <c r="F1" t="s">
-        <v>856</v>
-      </c>
-      <c r="G1" t="s">
-        <v>857</v>
-      </c>
-      <c r="H1" t="s">
-        <v>858</v>
-      </c>
-      <c r="I1" t="s">
-        <v>859</v>
-      </c>
-      <c r="J1" t="s">
-        <v>860</v>
-      </c>
-      <c r="K1" t="s">
-        <v>861</v>
-      </c>
-      <c r="L1" t="s">
-        <v>862</v>
-      </c>
-      <c r="M1" t="s">
-        <v>863</v>
-      </c>
-      <c r="N1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -15082,7 +15087,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -15126,7 +15131,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -15162,7 +15167,7 @@
         <v>570</v>
       </c>
       <c r="M4" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="N4" t="s">
         <v>568</v>
@@ -15170,7 +15175,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -15203,10 +15208,10 @@
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M5" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="N5" t="s">
         <v>178</v>
@@ -15214,7 +15219,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -15244,21 +15249,21 @@
         <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="L6" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="M6" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="N6" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -15291,7 +15296,7 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="M7" t="s">
         <v>572</v>
@@ -15302,13 +15307,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -15335,18 +15340,18 @@
         <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="M8" t="s">
         <v>438</v>
       </c>
       <c r="N8" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -15385,12 +15390,12 @@
         <v>138</v>
       </c>
       <c r="N9" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -15408,7 +15413,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
@@ -15423,10 +15428,10 @@
         <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="M10" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="N10" t="s">
         <v>120</v>
@@ -15434,7 +15439,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -15467,10 +15472,10 @@
         <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="M11" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="N11" t="s">
         <v>175</v>
@@ -15491,54 +15496,54 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H1" t="s">
+        <v>871</v>
+      </c>
+      <c r="I1" t="s">
+        <v>872</v>
+      </c>
+      <c r="J1" t="s">
+        <v>873</v>
+      </c>
+      <c r="K1" t="s">
         <v>874</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>875</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>876</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>877</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>878</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>879</v>
-      </c>
-      <c r="H1" t="s">
-        <v>880</v>
-      </c>
-      <c r="I1" t="s">
-        <v>881</v>
-      </c>
-      <c r="J1" t="s">
-        <v>882</v>
-      </c>
-      <c r="K1" t="s">
-        <v>883</v>
-      </c>
-      <c r="L1" t="s">
-        <v>884</v>
-      </c>
-      <c r="M1" t="s">
-        <v>885</v>
-      </c>
-      <c r="N1" t="s">
-        <v>886</v>
-      </c>
-      <c r="O1" t="s">
-        <v>887</v>
-      </c>
-      <c r="P1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -15571,10 +15576,10 @@
         <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="M2" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="N2" t="s">
         <v>127</v>
@@ -15588,7 +15593,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -15624,21 +15629,21 @@
         <v>178</v>
       </c>
       <c r="M3" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="N3" t="s">
         <v>125</v>
       </c>
       <c r="O3" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="P3" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -15671,13 +15676,13 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="M4" t="s">
         <v>575</v>
       </c>
       <c r="N4" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="O4" t="s">
         <v>438</v>
@@ -15688,7 +15693,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -15724,7 +15729,7 @@
         <v>531</v>
       </c>
       <c r="M5" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="N5" t="s">
         <v>574</v>
@@ -15733,12 +15738,12 @@
         <v>438</v>
       </c>
       <c r="P5" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -15788,7 +15793,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -15838,7 +15843,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -15877,18 +15882,18 @@
         <v>570</v>
       </c>
       <c r="N8" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="O8" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="P8" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="B9" t="s">
         <v>566</v>
@@ -15930,15 +15935,15 @@
         <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="P9" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -15971,24 +15976,24 @@
         <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="M10" t="s">
         <v>137</v>
       </c>
       <c r="N10" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="O10" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="P10" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -16033,7 +16038,7 @@
         <v>438</v>
       </c>
       <c r="P11" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -17499,84 +17504,84 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1" t="s">
+        <v>902</v>
+      </c>
+      <c r="I1" t="s">
+        <v>903</v>
+      </c>
+      <c r="J1" t="s">
+        <v>904</v>
+      </c>
+      <c r="K1" t="s">
         <v>905</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>906</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>907</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>908</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>909</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>910</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>911</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>912</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>913</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>914</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>915</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>916</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>917</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>918</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>919</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>920</v>
-      </c>
-      <c r="R1" t="s">
-        <v>921</v>
-      </c>
-      <c r="S1" t="s">
-        <v>922</v>
-      </c>
-      <c r="T1" t="s">
-        <v>923</v>
-      </c>
-      <c r="U1" t="s">
-        <v>924</v>
-      </c>
-      <c r="V1" t="s">
-        <v>925</v>
-      </c>
-      <c r="W1" t="s">
-        <v>926</v>
-      </c>
-      <c r="X1" t="s">
-        <v>927</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>928</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -17656,7 +17661,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -17731,12 +17736,12 @@
         <v>176</v>
       </c>
       <c r="Z3" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -17816,7 +17821,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -17891,12 +17896,12 @@
         <v>176</v>
       </c>
       <c r="Z5" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -17976,7 +17981,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -18056,7 +18061,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -18136,7 +18141,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -18211,12 +18216,12 @@
         <v>176</v>
       </c>
       <c r="Z9" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -18296,7 +18301,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -18371,12 +18376,12 @@
         <v>176</v>
       </c>
       <c r="Z11" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -18451,12 +18456,12 @@
         <v>176</v>
       </c>
       <c r="Z12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -18536,7 +18541,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -18611,12 +18616,12 @@
         <v>176</v>
       </c>
       <c r="Z14" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -18691,12 +18696,12 @@
         <v>176</v>
       </c>
       <c r="Z15" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -18771,12 +18776,12 @@
         <v>176</v>
       </c>
       <c r="Z16" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -18856,7 +18861,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -18931,12 +18936,12 @@
         <v>176</v>
       </c>
       <c r="Z18" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -19011,12 +19016,12 @@
         <v>176</v>
       </c>
       <c r="Z19" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -19091,12 +19096,12 @@
         <v>176</v>
       </c>
       <c r="Z20" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -19171,7 +19176,7 @@
         <v>176</v>
       </c>
       <c r="Z21" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -19189,90 +19194,90 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F1" t="s">
+        <v>938</v>
+      </c>
+      <c r="G1" t="s">
+        <v>939</v>
+      </c>
+      <c r="H1" t="s">
+        <v>940</v>
+      </c>
+      <c r="I1" t="s">
+        <v>941</v>
+      </c>
+      <c r="J1" t="s">
+        <v>942</v>
+      </c>
+      <c r="K1" t="s">
         <v>943</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>944</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>945</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>946</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>947</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>948</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>949</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>950</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>951</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>952</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>953</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>954</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>955</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>956</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>957</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>958</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>959</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>960</v>
-      </c>
-      <c r="T1" t="s">
-        <v>961</v>
-      </c>
-      <c r="U1" t="s">
-        <v>962</v>
-      </c>
-      <c r="V1" t="s">
-        <v>963</v>
-      </c>
-      <c r="W1" t="s">
-        <v>964</v>
-      </c>
-      <c r="X1" t="s">
-        <v>965</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>966</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>967</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>968</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -19353,12 +19358,12 @@
         <v>40</v>
       </c>
       <c r="AB2" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -19439,12 +19444,12 @@
         <v>40</v>
       </c>
       <c r="AB3" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -19530,7 +19535,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -19611,12 +19616,12 @@
         <v>40</v>
       </c>
       <c r="AB5" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -19697,12 +19702,12 @@
         <v>40</v>
       </c>
       <c r="AB6" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -19788,7 +19793,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -19869,12 +19874,12 @@
         <v>40</v>
       </c>
       <c r="AB8" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -19960,7 +19965,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20041,12 +20046,12 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -20132,7 +20137,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -20213,12 +20218,12 @@
         <v>40</v>
       </c>
       <c r="AB12" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -20287,7 +20292,7 @@
         <v>29</v>
       </c>
       <c r="X13" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="Y13" t="s">
         <v>43</v>
@@ -20299,12 +20304,12 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -20385,12 +20390,12 @@
         <v>40</v>
       </c>
       <c r="AB14" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -20471,12 +20476,12 @@
         <v>40</v>
       </c>
       <c r="AB15" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -20557,12 +20562,12 @@
         <v>40</v>
       </c>
       <c r="AB16" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -20648,7 +20653,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -20729,12 +20734,12 @@
         <v>40</v>
       </c>
       <c r="AB18" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -20815,12 +20820,12 @@
         <v>40</v>
       </c>
       <c r="AB19" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -20901,12 +20906,12 @@
         <v>40</v>
       </c>
       <c r="AB20" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -20987,12 +20992,12 @@
         <v>40</v>
       </c>
       <c r="AB21" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -21073,12 +21078,12 @@
         <v>40</v>
       </c>
       <c r="AB22" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -21159,7 +21164,7 @@
         <v>40</v>
       </c>
       <c r="AB23" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -21177,87 +21182,87 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F1" t="s">
+        <v>980</v>
+      </c>
+      <c r="G1" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1" t="s">
+        <v>982</v>
+      </c>
+      <c r="I1" t="s">
+        <v>983</v>
+      </c>
+      <c r="J1" t="s">
+        <v>984</v>
+      </c>
+      <c r="K1" t="s">
         <v>985</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>986</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>987</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>988</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>989</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>990</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>991</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>992</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>993</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>994</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>995</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>996</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>997</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>998</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>999</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>1000</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>1001</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -21335,12 +21340,12 @@
         <v>175</v>
       </c>
       <c r="AA2" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -21418,12 +21423,12 @@
         <v>40</v>
       </c>
       <c r="AA3" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -21501,12 +21506,12 @@
         <v>175</v>
       </c>
       <c r="AA4" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -21584,12 +21589,12 @@
         <v>40</v>
       </c>
       <c r="AA5" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -21667,12 +21672,12 @@
         <v>40</v>
       </c>
       <c r="AA6" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -21750,12 +21755,12 @@
         <v>40</v>
       </c>
       <c r="AA7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -21833,12 +21838,12 @@
         <v>175</v>
       </c>
       <c r="AA8" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -21916,12 +21921,12 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -21999,12 +22004,12 @@
         <v>40</v>
       </c>
       <c r="AA10" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -22087,7 +22092,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -22165,12 +22170,12 @@
         <v>40</v>
       </c>
       <c r="AA12" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -22248,12 +22253,12 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -22331,12 +22336,12 @@
         <v>40</v>
       </c>
       <c r="AA14" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -22414,12 +22419,12 @@
         <v>40</v>
       </c>
       <c r="AA15" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -22497,12 +22502,12 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -22580,12 +22585,12 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -22663,12 +22668,12 @@
         <v>40</v>
       </c>
       <c r="AA18" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -22746,12 +22751,12 @@
         <v>40</v>
       </c>
       <c r="AA19" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -22834,7 +22839,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -22912,12 +22917,12 @@
         <v>175</v>
       </c>
       <c r="AA21" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -24423,7 +24428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>

--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10780" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10780" uniqueCount="1027">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -1376,1726 +1376,1735 @@
     <t>20</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2.9048</t>
+  </si>
+  <si>
+    <t>2.5476</t>
+  </si>
+  <si>
+    <t>3.0238</t>
+  </si>
+  <si>
+    <t>2.3095</t>
+  </si>
+  <si>
+    <t>2.8571</t>
+  </si>
+  <si>
+    <t>2.439</t>
+  </si>
+  <si>
+    <t>2.381</t>
+  </si>
+  <si>
+    <t>3.1333</t>
+  </si>
+  <si>
+    <t>2.1905</t>
+  </si>
+  <si>
+    <t>2.7805</t>
+  </si>
+  <si>
+    <t>2.561</t>
+  </si>
+  <si>
+    <t>3.381</t>
+  </si>
+  <si>
+    <t>2.8537</t>
+  </si>
+  <si>
+    <t>2.4524</t>
+  </si>
+  <si>
+    <t>2.5238</t>
+  </si>
+  <si>
+    <t>2.5854</t>
+  </si>
+  <si>
+    <t>2.5952</t>
+  </si>
+  <si>
+    <t>3.4634</t>
+  </si>
+  <si>
+    <t>2.7317</t>
+  </si>
+  <si>
+    <t>2.6429</t>
+  </si>
+  <si>
+    <t>3.0714</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>f1_hgtotals</t>
+  </si>
+  <si>
+    <t>f1_agtotals</t>
+  </si>
+  <si>
+    <t>f1_totalgoals</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>2.5789</t>
+  </si>
+  <si>
+    <t>2.2895</t>
+  </si>
+  <si>
+    <t>3.2632</t>
+  </si>
+  <si>
+    <t>2.4211</t>
+  </si>
+  <si>
+    <t>3.2105</t>
+  </si>
+  <si>
+    <t>2.6842</t>
+  </si>
+  <si>
+    <t>2.7105</t>
+  </si>
+  <si>
+    <t>2.5263</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Chambly</t>
+  </si>
+  <si>
+    <t>Chateauroux</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hgtotals</t>
+  </si>
+  <si>
+    <t>f2_agtotals</t>
+  </si>
+  <si>
+    <t>f2_totalgoals</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>2.0263</t>
+  </si>
+  <si>
+    <t>1.9474</t>
+  </si>
+  <si>
+    <t>2.7632</t>
+  </si>
+  <si>
+    <t>2.3684</t>
+  </si>
+  <si>
+    <t>2.1316</t>
+  </si>
+  <si>
+    <t>2.2105</t>
+  </si>
+  <si>
+    <t>2.7895</t>
+  </si>
+  <si>
+    <t>2.3947</t>
+  </si>
+  <si>
+    <t>2.1579</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Larisa</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hgtotals</t>
+  </si>
+  <si>
+    <t>g1_agtotals</t>
+  </si>
+  <si>
+    <t>g1_totalgoals</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>39.5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>55.5</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>51.5</t>
+  </si>
+  <si>
+    <t>1.9722</t>
+  </si>
+  <si>
+    <t>1.6667</t>
+  </si>
+  <si>
+    <t>1.3611</t>
+  </si>
+  <si>
+    <t>1.4167</t>
+  </si>
+  <si>
+    <t>1.6818</t>
+  </si>
+  <si>
+    <t>1.5152</t>
+  </si>
+  <si>
+    <t>1.8485</t>
+  </si>
+  <si>
+    <t>1.8333</t>
+  </si>
+  <si>
+    <t>2.1111</t>
+  </si>
+  <si>
+    <t>1.4722</t>
+  </si>
+  <si>
+    <t>1.5606</t>
+  </si>
+  <si>
+    <t>1.6364</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hgtotals</t>
+  </si>
+  <si>
+    <t>i1_agtotals</t>
+  </si>
+  <si>
+    <t>i1_totalgoals</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>3.6053</t>
+  </si>
+  <si>
+    <t>3.3421</t>
+  </si>
+  <si>
+    <t>3.2368</t>
+  </si>
+  <si>
+    <t>3.1579</t>
+  </si>
+  <si>
+    <t>3.1316</t>
+  </si>
+  <si>
+    <t>2.6316</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Chievo</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Pescara</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggiana</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>Virtus.Entella</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Virtus Entella</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2.2368</t>
+  </si>
+  <si>
+    <t>2.3421</t>
+  </si>
+  <si>
+    <t>2.0789</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Den.Haag</t>
+  </si>
+  <si>
+    <t>FC.Emmen</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>VVV.Venlo</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hgtotals</t>
+  </si>
+  <si>
+    <t>n1_agtotals</t>
+  </si>
+  <si>
+    <t>n1_totalgoals</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
+  </si>
+  <si>
+    <t>FC Emmen</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>VVV Venlo</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>125</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2.9048</t>
-  </si>
-  <si>
-    <t>2.561</t>
-  </si>
-  <si>
-    <t>3.0488</t>
-  </si>
-  <si>
-    <t>2.3095</t>
-  </si>
-  <si>
-    <t>2.8571</t>
-  </si>
-  <si>
-    <t>2.439</t>
-  </si>
-  <si>
-    <t>2.381</t>
-  </si>
-  <si>
-    <t>3.1333</t>
+    <t>3.6765</t>
+  </si>
+  <si>
+    <t>3.4118</t>
+  </si>
+  <si>
+    <t>2.9412</t>
+  </si>
+  <si>
+    <t>2.2647</t>
+  </si>
+  <si>
+    <t>3.2059</t>
+  </si>
+  <si>
+    <t>3.9412</t>
+  </si>
+  <si>
+    <t>2.5882</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Rio.Ave</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>p1_hgtotals</t>
+  </si>
+  <si>
+    <t>p1_agtotals</t>
+  </si>
+  <si>
+    <t>p1_totalgoals</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1.7647</t>
+  </si>
+  <si>
+    <t>2.8235</t>
+  </si>
+  <si>
+    <t>2.3235</t>
+  </si>
+  <si>
+    <t>2.2059</t>
+  </si>
+  <si>
+    <t>2.3824</t>
+  </si>
+  <si>
+    <t>2.1765</t>
+  </si>
+  <si>
+    <t>2.3529</t>
+  </si>
+  <si>
+    <t>3.0294</t>
+  </si>
+  <si>
+    <t>1.9118</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hgtotals</t>
+  </si>
+  <si>
+    <t>sc0_agtotals</t>
+  </si>
+  <si>
+    <t>sc0_totalgoals</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>0.666666666666667</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.66666666666667</t>
+  </si>
+  <si>
+    <t>1.33333333333333</t>
+  </si>
+  <si>
+    <t>29.1666666666667</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>26.3333333333333</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>13.1666666666667</t>
+  </si>
+  <si>
+    <t>19.1666666666667</t>
+  </si>
+  <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>28.1666666666667</t>
+  </si>
+  <si>
+    <t>42.1666666666667</t>
+  </si>
+  <si>
+    <t>62.6666666666667</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>63.8333333333333</t>
+  </si>
+  <si>
+    <t>57.5</t>
+  </si>
+  <si>
+    <t>47.1666666666667</t>
+  </si>
+  <si>
+    <t>1.1096</t>
+  </si>
+  <si>
+    <t>1.6491</t>
+  </si>
+  <si>
+    <t>1.2237</t>
+  </si>
+  <si>
+    <t>1.6053</t>
+  </si>
+  <si>
+    <t>1.2632</t>
+  </si>
+  <si>
+    <t>1.3947</t>
+  </si>
+  <si>
+    <t>1.4342</t>
+  </si>
+  <si>
+    <t>1.4474</t>
+  </si>
+  <si>
+    <t>1.6798</t>
+  </si>
+  <si>
+    <t>1.5132</t>
+  </si>
+  <si>
+    <t>1.2412</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hgtotals</t>
+  </si>
+  <si>
+    <t>sc1_agtotals</t>
+  </si>
+  <si>
+    <t>sc1_totalgoals</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>40.5</t>
+  </si>
+  <si>
+    <t>59.5</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>2.2407</t>
+  </si>
+  <si>
+    <t>1.6296</t>
+  </si>
+  <si>
+    <t>2.2037</t>
+  </si>
+  <si>
+    <t>1.5926</t>
+  </si>
+  <si>
+    <t>2.0741</t>
+  </si>
+  <si>
+    <t>1.5741</t>
+  </si>
+  <si>
+    <t>1.3148</t>
+  </si>
+  <si>
+    <t>2.1296</t>
+  </si>
+  <si>
+    <t>1.9259</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>44.5</t>
+  </si>
+  <si>
+    <t>2.2955</t>
+  </si>
+  <si>
+    <t>2.4545</t>
+  </si>
+  <si>
+    <t>1.7045</t>
+  </si>
+  <si>
+    <t>1.3409</t>
+  </si>
+  <si>
+    <t>2.2273</t>
+  </si>
+  <si>
+    <t>1.9545</t>
+  </si>
+  <si>
+    <t>2.0227</t>
+  </si>
+  <si>
+    <t>2.5909</t>
+  </si>
+  <si>
+    <t>2.0909</t>
+  </si>
+  <si>
+    <t>1.8182</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Brechin</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>2.5682</t>
+  </si>
+  <si>
+    <t>2.3636</t>
+  </si>
+  <si>
+    <t>1.8636</t>
+  </si>
+  <si>
+    <t>2.4773</t>
+  </si>
+  <si>
+    <t>2.0682</t>
+  </si>
+  <si>
+    <t>2.3409</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Ath.Bilbao</t>
+  </si>
+  <si>
+    <t>Ath.Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Real.Madrid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>sp1_hgtotals</t>
+  </si>
+  <si>
+    <t>sp1_agtotals</t>
+  </si>
+  <si>
+    <t>sp1_totalgoals</t>
+  </si>
+  <si>
+    <t>sp1_games_played</t>
+  </si>
+  <si>
+    <t>sp1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>2.4474</t>
+  </si>
+  <si>
+    <t>2.9474</t>
+  </si>
+  <si>
+    <t>1.8684</t>
+  </si>
+  <si>
+    <t>2.5526</t>
+  </si>
+  <si>
+    <t>2.7368</t>
+  </si>
+  <si>
+    <t>Albacete</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Castellon</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Las.Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Logrones</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>Sabadell</t>
+  </si>
+  <si>
+    <t>Sp.Gijon</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>sp2_hgtotals</t>
+  </si>
+  <si>
+    <t>sp2_agtotals</t>
+  </si>
+  <si>
+    <t>sp2_totalgoals</t>
+  </si>
+  <si>
+    <t>sp2_games_played</t>
+  </si>
+  <si>
+    <t>sp2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>1.9512</t>
+  </si>
+  <si>
+    <t>1.7073</t>
+  </si>
+  <si>
+    <t>2.4146</t>
+  </si>
+  <si>
+    <t>2.2927</t>
+  </si>
+  <si>
+    <t>2.0976</t>
+  </si>
+  <si>
+    <t>2.3902</t>
+  </si>
+  <si>
+    <t>2.1463</t>
+  </si>
+  <si>
+    <t>1.9756</t>
+  </si>
+  <si>
+    <t>1.9024</t>
   </si>
   <si>
     <t>2.1951</t>
   </si>
   <si>
-    <t>2.7805</t>
-  </si>
-  <si>
-    <t>3.4146</t>
+    <t>1.878</t>
+  </si>
+  <si>
+    <t>2.122</t>
+  </si>
+  <si>
+    <t>2.2195</t>
+  </si>
+  <si>
+    <t>1.5366</t>
+  </si>
+  <si>
+    <t>1.6585</t>
+  </si>
+  <si>
+    <t>1.7561</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Ankaragucu</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>Besiktas</t>
+  </si>
+  <si>
+    <t>Buyuksehyr</t>
+  </si>
+  <si>
+    <t>Denizlispor</t>
+  </si>
+  <si>
+    <t>Erzurum.BB</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
+    <t>Genclerbirligi</t>
+  </si>
+  <si>
+    <t>Goztep</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Karagumruk</t>
+  </si>
+  <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Yeni.Malatyaspor</t>
+  </si>
+  <si>
+    <t>t1_hgtotals</t>
+  </si>
+  <si>
+    <t>t1_agtotals</t>
+  </si>
+  <si>
+    <t>t1_totalgoals</t>
+  </si>
+  <si>
+    <t>t1_games_played</t>
+  </si>
+  <si>
+    <t>t1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Erzurum BB</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor</t>
+  </si>
+  <si>
+    <t>2.575</t>
+  </si>
+  <si>
+    <t>2.775</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.325</t>
+  </si>
+  <si>
+    <t>2.45</t>
   </si>
   <si>
     <t>2.875</t>
   </si>
   <si>
-    <t>2.4524</t>
-  </si>
-  <si>
-    <t>2.5366</t>
-  </si>
-  <si>
-    <t>2.5854</t>
-  </si>
-  <si>
-    <t>2.5952</t>
-  </si>
-  <si>
-    <t>3.4634</t>
-  </si>
-  <si>
-    <t>2.7317</t>
-  </si>
-  <si>
-    <t>2.6429</t>
-  </si>
-  <si>
-    <t>3.0714</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>f1_hgtotals</t>
-  </si>
-  <si>
-    <t>f1_agtotals</t>
-  </si>
-  <si>
-    <t>f1_totalgoals</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>2.5789</t>
-  </si>
-  <si>
-    <t>2.2895</t>
-  </si>
-  <si>
-    <t>3.2632</t>
-  </si>
-  <si>
-    <t>2.4211</t>
-  </si>
-  <si>
-    <t>3.2105</t>
-  </si>
-  <si>
-    <t>2.6842</t>
-  </si>
-  <si>
-    <t>2.7105</t>
-  </si>
-  <si>
-    <t>2.5263</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Chambly</t>
-  </si>
-  <si>
-    <t>Chateauroux</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hgtotals</t>
-  </si>
-  <si>
-    <t>f2_agtotals</t>
-  </si>
-  <si>
-    <t>f2_totalgoals</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>2.0263</t>
-  </si>
-  <si>
-    <t>1.9474</t>
-  </si>
-  <si>
-    <t>2.7632</t>
-  </si>
-  <si>
-    <t>2.3684</t>
-  </si>
-  <si>
-    <t>2.1316</t>
-  </si>
-  <si>
-    <t>2.2105</t>
-  </si>
-  <si>
-    <t>2.7895</t>
-  </si>
-  <si>
-    <t>2.3947</t>
-  </si>
-  <si>
-    <t>2.1579</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>Larisa</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hgtotals</t>
-  </si>
-  <si>
-    <t>g1_agtotals</t>
-  </si>
-  <si>
-    <t>g1_totalgoals</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>39.5</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>55.5</t>
-  </si>
-  <si>
-    <t>49.5</t>
-  </si>
-  <si>
-    <t>60.5</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>51.5</t>
-  </si>
-  <si>
-    <t>1.9722</t>
-  </si>
-  <si>
-    <t>1.6667</t>
-  </si>
-  <si>
-    <t>1.3611</t>
-  </si>
-  <si>
-    <t>1.4167</t>
-  </si>
-  <si>
-    <t>1.6818</t>
-  </si>
-  <si>
-    <t>1.5152</t>
-  </si>
-  <si>
-    <t>1.8485</t>
-  </si>
-  <si>
-    <t>1.8333</t>
-  </si>
-  <si>
-    <t>2.1111</t>
-  </si>
-  <si>
-    <t>1.4722</t>
-  </si>
-  <si>
-    <t>1.5606</t>
-  </si>
-  <si>
-    <t>1.6364</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hgtotals</t>
-  </si>
-  <si>
-    <t>i1_agtotals</t>
-  </si>
-  <si>
-    <t>i1_totalgoals</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>3.6053</t>
-  </si>
-  <si>
-    <t>3.3421</t>
-  </si>
-  <si>
-    <t>3.2368</t>
-  </si>
-  <si>
-    <t>3.1579</t>
-  </si>
-  <si>
-    <t>3.1316</t>
-  </si>
-  <si>
-    <t>2.6316</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Chievo</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Pescara</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggiana</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>Virtus.Entella</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Virtus Entella</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2.2368</t>
-  </si>
-  <si>
-    <t>2.3421</t>
-  </si>
-  <si>
-    <t>2.0789</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Den.Haag</t>
-  </si>
-  <si>
-    <t>FC.Emmen</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>VVV.Venlo</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hgtotals</t>
-  </si>
-  <si>
-    <t>n1_agtotals</t>
-  </si>
-  <si>
-    <t>n1_totalgoals</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>Den Haag</t>
-  </si>
-  <si>
-    <t>FC Emmen</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>VVV Venlo</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.6765</t>
-  </si>
-  <si>
-    <t>3.4118</t>
-  </si>
-  <si>
-    <t>2.9412</t>
-  </si>
-  <si>
-    <t>2.2647</t>
-  </si>
-  <si>
-    <t>3.2059</t>
-  </si>
-  <si>
-    <t>3.9412</t>
-  </si>
-  <si>
-    <t>2.5882</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Farense</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Nacional</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Rio.Ave</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>p1_hgtotals</t>
-  </si>
-  <si>
-    <t>p1_agtotals</t>
-  </si>
-  <si>
-    <t>p1_totalgoals</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Rio Ave</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>1.7647</t>
-  </si>
-  <si>
-    <t>2.8235</t>
-  </si>
-  <si>
-    <t>2.3235</t>
-  </si>
-  <si>
-    <t>2.2059</t>
-  </si>
-  <si>
-    <t>2.3824</t>
-  </si>
-  <si>
-    <t>2.1765</t>
-  </si>
-  <si>
-    <t>2.3529</t>
-  </si>
-  <si>
-    <t>3.0294</t>
-  </si>
-  <si>
-    <t>1.9118</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hgtotals</t>
-  </si>
-  <si>
-    <t>sc0_agtotals</t>
-  </si>
-  <si>
-    <t>sc0_totalgoals</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>0.666666666666667</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>3.66666666666667</t>
-  </si>
-  <si>
-    <t>1.33333333333333</t>
-  </si>
-  <si>
-    <t>29.1666666666667</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>26.3333333333333</t>
-  </si>
-  <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>13.1666666666667</t>
-  </si>
-  <si>
-    <t>19.1666666666667</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>28.1666666666667</t>
-  </si>
-  <si>
-    <t>42.1666666666667</t>
-  </si>
-  <si>
-    <t>62.6666666666667</t>
-  </si>
-  <si>
-    <t>46.5</t>
-  </si>
-  <si>
-    <t>54.5</t>
-  </si>
-  <si>
-    <t>63.8333333333333</t>
-  </si>
-  <si>
-    <t>57.5</t>
-  </si>
-  <si>
-    <t>47.1666666666667</t>
-  </si>
-  <si>
-    <t>1.1096</t>
-  </si>
-  <si>
-    <t>1.6491</t>
-  </si>
-  <si>
-    <t>1.2237</t>
-  </si>
-  <si>
-    <t>1.6053</t>
-  </si>
-  <si>
-    <t>1.2632</t>
-  </si>
-  <si>
-    <t>1.3947</t>
-  </si>
-  <si>
-    <t>1.4342</t>
-  </si>
-  <si>
-    <t>1.4474</t>
-  </si>
-  <si>
-    <t>1.6798</t>
-  </si>
-  <si>
-    <t>1.5132</t>
-  </si>
-  <si>
-    <t>1.2412</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Ayr</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hgtotals</t>
-  </si>
-  <si>
-    <t>sc1_agtotals</t>
-  </si>
-  <si>
-    <t>sc1_totalgoals</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Inverness C</t>
-  </si>
-  <si>
-    <t>Queen of Sth</t>
-  </si>
-  <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>40.5</t>
-  </si>
-  <si>
-    <t>59.5</t>
-  </si>
-  <si>
-    <t>42.5</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>2.2407</t>
-  </si>
-  <si>
-    <t>1.6296</t>
-  </si>
-  <si>
-    <t>2.2037</t>
-  </si>
-  <si>
-    <t>1.5926</t>
-  </si>
-  <si>
-    <t>2.0741</t>
-  </si>
-  <si>
-    <t>1.5741</t>
-  </si>
-  <si>
-    <t>1.3148</t>
-  </si>
-  <si>
-    <t>2.1296</t>
-  </si>
-  <si>
-    <t>1.9259</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Partick</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>50.5</t>
-  </si>
-  <si>
-    <t>44.5</t>
-  </si>
-  <si>
-    <t>2.2955</t>
-  </si>
-  <si>
-    <t>2.4545</t>
-  </si>
-  <si>
-    <t>1.7045</t>
-  </si>
-  <si>
-    <t>1.3409</t>
-  </si>
-  <si>
-    <t>2.2273</t>
-  </si>
-  <si>
-    <t>1.9545</t>
-  </si>
-  <si>
-    <t>2.0227</t>
-  </si>
-  <si>
-    <t>2.5909</t>
-  </si>
-  <si>
-    <t>2.0909</t>
-  </si>
-  <si>
-    <t>1.8182</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Brechin</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>56.5</t>
-  </si>
-  <si>
-    <t>45.5</t>
-  </si>
-  <si>
-    <t>2.5682</t>
-  </si>
-  <si>
-    <t>2.3636</t>
-  </si>
-  <si>
-    <t>1.8636</t>
-  </si>
-  <si>
-    <t>2.4773</t>
-  </si>
-  <si>
-    <t>2.0682</t>
-  </si>
-  <si>
-    <t>2.3409</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Ath.Bilbao</t>
-  </si>
-  <si>
-    <t>Ath.Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>Elche</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real.Madrid</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>sp1_hgtotals</t>
-  </si>
-  <si>
-    <t>sp1_agtotals</t>
-  </si>
-  <si>
-    <t>sp1_totalgoals</t>
-  </si>
-  <si>
-    <t>sp1_games_played</t>
-  </si>
-  <si>
-    <t>sp1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>2.4474</t>
-  </si>
-  <si>
-    <t>2.9474</t>
-  </si>
-  <si>
-    <t>1.8684</t>
-  </si>
-  <si>
-    <t>2.5526</t>
-  </si>
-  <si>
-    <t>2.7368</t>
-  </si>
-  <si>
-    <t>Albacete</t>
-  </si>
-  <si>
-    <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Castellon</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Las.Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Logrones</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Sabadell</t>
-  </si>
-  <si>
-    <t>Sp.Gijon</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>sp2_hgtotals</t>
-  </si>
-  <si>
-    <t>sp2_agtotals</t>
-  </si>
-  <si>
-    <t>sp2_totalgoals</t>
-  </si>
-  <si>
-    <t>sp2_games_played</t>
-  </si>
-  <si>
-    <t>sp2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
-  </si>
-  <si>
-    <t>1.875</t>
-  </si>
-  <si>
-    <t>1.725</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.275</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.3902</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.325</t>
-  </si>
-  <si>
-    <t>1.925</t>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.825</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.6</t>
   </si>
   <si>
     <t>2.175</t>
-  </si>
-  <si>
-    <t>1.9024</t>
-  </si>
-  <si>
-    <t>2.125</t>
-  </si>
-  <si>
-    <t>2.225</t>
-  </si>
-  <si>
-    <t>1.575</t>
-  </si>
-  <si>
-    <t>1.6585</t>
-  </si>
-  <si>
-    <t>1.7561</t>
-  </si>
-  <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Ankaragucu</t>
-  </si>
-  <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
-    <t>Besiktas</t>
-  </si>
-  <si>
-    <t>Buyuksehyr</t>
-  </si>
-  <si>
-    <t>Denizlispor</t>
-  </si>
-  <si>
-    <t>Erzurum.BB</t>
-  </si>
-  <si>
-    <t>Fenerbahce</t>
-  </si>
-  <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
-    <t>Gaziantep</t>
-  </si>
-  <si>
-    <t>Genclerbirligi</t>
-  </si>
-  <si>
-    <t>Goztep</t>
-  </si>
-  <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>Karagumruk</t>
-  </si>
-  <si>
-    <t>Kasimpasa</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Yeni.Malatyaspor</t>
-  </si>
-  <si>
-    <t>t1_hgtotals</t>
-  </si>
-  <si>
-    <t>t1_agtotals</t>
-  </si>
-  <si>
-    <t>t1_totalgoals</t>
-  </si>
-  <si>
-    <t>t1_games_played</t>
-  </si>
-  <si>
-    <t>t1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Erzurum BB</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor</t>
-  </si>
-  <si>
-    <t>2.575</t>
-  </si>
-  <si>
-    <t>2.775</t>
-  </si>
-  <si>
-    <t>3.325</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.825</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>2.6</t>
   </si>
   <si>
     <t>2.425</t>
@@ -4575,84 +4584,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" t="s">
         <v>508</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>509</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>510</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>511</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>512</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>513</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>514</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>515</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>516</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>517</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>518</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>519</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>520</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>521</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>522</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>523</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>524</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>525</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>526</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>527</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>528</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>529</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>530</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>531</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -4721,18 +4730,18 @@
         <v>50</v>
       </c>
       <c r="X2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y2" t="s">
         <v>231</v>
       </c>
       <c r="Z2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -4807,12 +4816,12 @@
         <v>231</v>
       </c>
       <c r="Z3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -4892,7 +4901,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -4972,7 +4981,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -5047,12 +5056,12 @@
         <v>231</v>
       </c>
       <c r="Z6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -5127,12 +5136,12 @@
         <v>231</v>
       </c>
       <c r="Z7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -5212,7 +5221,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -5287,12 +5296,12 @@
         <v>231</v>
       </c>
       <c r="Z9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -5372,7 +5381,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -5441,18 +5450,18 @@
         <v>56</v>
       </c>
       <c r="X11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Y11" t="s">
         <v>231</v>
       </c>
       <c r="Z11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -5532,7 +5541,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -5607,12 +5616,12 @@
         <v>231</v>
       </c>
       <c r="Z13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -5687,12 +5696,12 @@
         <v>231</v>
       </c>
       <c r="Z14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -5767,12 +5776,12 @@
         <v>231</v>
       </c>
       <c r="Z15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -5847,12 +5856,12 @@
         <v>231</v>
       </c>
       <c r="Z16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -5927,12 +5936,12 @@
         <v>231</v>
       </c>
       <c r="Z17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -6007,12 +6016,12 @@
         <v>231</v>
       </c>
       <c r="Z18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -6092,7 +6101,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -6161,18 +6170,18 @@
         <v>45</v>
       </c>
       <c r="X20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y20" t="s">
         <v>231</v>
       </c>
       <c r="Z20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -6266,66 +6275,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" t="s">
         <v>547</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>548</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>549</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>550</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>551</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>552</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>553</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>554</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>555</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>556</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>557</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>558</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>559</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>560</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>561</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>562</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>563</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>564</v>
-      </c>
-      <c r="T1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6382,12 +6391,12 @@
         <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -6411,10 +6420,10 @@
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
@@ -6432,24 +6441,24 @@
         <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R3" t="s">
         <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -6461,7 +6470,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -6482,7 +6491,7 @@
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -6494,10 +6503,10 @@
         <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R4" t="s">
         <v>45</v>
@@ -6506,12 +6515,12 @@
         <v>40</v>
       </c>
       <c r="T4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -6556,10 +6565,10 @@
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>
@@ -6568,12 +6577,12 @@
         <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -6594,10 +6603,10 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -6615,27 +6624,27 @@
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -6671,7 +6680,7 @@
         <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N7" t="s">
         <v>34</v>
@@ -6680,24 +6689,24 @@
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -6721,7 +6730,7 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -6742,24 +6751,24 @@
         <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R8" t="s">
         <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -6795,7 +6804,7 @@
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -6804,24 +6813,24 @@
         <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R9" t="s">
         <v>42</v>
       </c>
       <c r="S9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -6869,21 +6878,21 @@
         <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -6892,7 +6901,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -6928,27 +6937,27 @@
         <v>30</v>
       </c>
       <c r="P11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S11" t="s">
         <v>40</v>
       </c>
       <c r="T11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -6990,10 +6999,10 @@
         <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R12" t="s">
         <v>58</v>
@@ -7002,12 +7011,12 @@
         <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -7028,7 +7037,7 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I13" t="s">
         <v>31</v>
@@ -7052,24 +7061,24 @@
         <v>33</v>
       </c>
       <c r="P13" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q13" t="s">
         <v>580</v>
       </c>
-      <c r="Q13" t="s">
-        <v>581</v>
-      </c>
       <c r="R13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -7081,7 +7090,7 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -7102,7 +7111,7 @@
         <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M14" t="s">
         <v>30</v>
@@ -7117,7 +7126,7 @@
         <v>231</v>
       </c>
       <c r="Q14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R14" t="s">
         <v>336</v>
@@ -7126,12 +7135,12 @@
         <v>40</v>
       </c>
       <c r="T14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -7176,19 +7185,19 @@
         <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R15" t="s">
         <v>46</v>
       </c>
       <c r="S15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -7207,84 +7216,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" t="s">
         <v>607</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>608</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>609</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>610</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>611</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>612</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>613</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>614</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>615</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>616</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>617</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>618</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>619</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>620</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>621</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>622</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>623</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>624</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>625</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>626</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>627</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>628</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>629</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>630</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -7353,18 +7362,18 @@
         <v>221</v>
       </c>
       <c r="X2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y2" t="s">
         <v>231</v>
       </c>
       <c r="Z2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -7444,7 +7453,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -7524,7 +7533,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -7599,12 +7608,12 @@
         <v>231</v>
       </c>
       <c r="Z5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -7670,21 +7679,21 @@
         <v>47</v>
       </c>
       <c r="W6" t="s">
+        <v>631</v>
+      </c>
+      <c r="X6" t="s">
         <v>632</v>
-      </c>
-      <c r="X6" t="s">
-        <v>633</v>
       </c>
       <c r="Y6" t="s">
         <v>231</v>
       </c>
       <c r="Z6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -7759,12 +7768,12 @@
         <v>231</v>
       </c>
       <c r="Z7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -7839,12 +7848,12 @@
         <v>231</v>
       </c>
       <c r="Z8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -7919,12 +7928,12 @@
         <v>231</v>
       </c>
       <c r="Z9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -8004,7 +8013,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -8084,7 +8093,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -8164,7 +8173,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -8239,12 +8248,12 @@
         <v>231</v>
       </c>
       <c r="Z13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -8319,12 +8328,12 @@
         <v>231</v>
       </c>
       <c r="Z14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -8399,12 +8408,12 @@
         <v>231</v>
       </c>
       <c r="Z15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -8479,12 +8488,12 @@
         <v>231</v>
       </c>
       <c r="Z16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -8559,12 +8568,12 @@
         <v>231</v>
       </c>
       <c r="Z17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -8639,12 +8648,12 @@
         <v>231</v>
       </c>
       <c r="Z18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -8719,12 +8728,12 @@
         <v>231</v>
       </c>
       <c r="Z19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -8787,7 +8796,7 @@
         <v>34</v>
       </c>
       <c r="V20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="W20" t="s">
         <v>222</v>
@@ -8799,12 +8808,12 @@
         <v>231</v>
       </c>
       <c r="Z20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -8879,7 +8888,7 @@
         <v>231</v>
       </c>
       <c r="Z21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -8898,84 +8907,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1" t="s">
         <v>640</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>641</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>642</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>643</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>644</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>645</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>646</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>647</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>648</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>649</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>650</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>651</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>652</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>653</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>654</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>655</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>656</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>657</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>658</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>659</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>660</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>661</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>662</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>663</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9050,12 +9059,12 @@
         <v>231</v>
       </c>
       <c r="Z2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -9135,7 +9144,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -9210,12 +9219,12 @@
         <v>231</v>
       </c>
       <c r="Z4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -9295,7 +9304,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -9358,13 +9367,13 @@
         <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W6" t="s">
         <v>220</v>
       </c>
       <c r="X6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y6" t="s">
         <v>231</v>
@@ -9375,7 +9384,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9450,12 +9459,12 @@
         <v>231</v>
       </c>
       <c r="Z7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -9524,18 +9533,18 @@
         <v>48</v>
       </c>
       <c r="X8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y8" t="s">
         <v>231</v>
       </c>
       <c r="Z8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -9615,7 +9624,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -9695,7 +9704,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -9764,18 +9773,18 @@
         <v>220</v>
       </c>
       <c r="X11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Y11" t="s">
         <v>231</v>
       </c>
       <c r="Z11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -9850,12 +9859,12 @@
         <v>231</v>
       </c>
       <c r="Z12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -9935,7 +9944,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -10001,21 +10010,21 @@
         <v>53</v>
       </c>
       <c r="W14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="X14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y14" t="s">
         <v>231</v>
       </c>
       <c r="Z14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -10095,7 +10104,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -10170,12 +10179,12 @@
         <v>231</v>
       </c>
       <c r="Z16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -10255,7 +10264,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -10335,7 +10344,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -10410,12 +10419,12 @@
         <v>231</v>
       </c>
       <c r="Z19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -10495,7 +10504,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -10589,78 +10598,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C1" t="s">
         <v>670</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>671</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>672</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>673</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>674</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>675</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>676</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>677</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>678</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>679</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>680</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>681</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>682</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>683</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>684</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>685</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>686</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>687</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>688</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>689</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>690</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>691</v>
-      </c>
-      <c r="X1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10723,7 +10732,7 @@
         <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>447</v>
+        <v>701</v>
       </c>
       <c r="W2" t="s">
         <v>44</v>
@@ -10734,7 +10743,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -10808,7 +10817,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -10882,7 +10891,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -10956,7 +10965,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -11030,7 +11039,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -11104,7 +11113,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -11161,13 +11170,13 @@
         <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="U8" t="s">
         <v>51</v>
       </c>
       <c r="V8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W8" t="s">
         <v>44</v>
@@ -11178,7 +11187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -11252,7 +11261,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -11326,7 +11335,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -11400,7 +11409,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -11474,7 +11483,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -11548,7 +11557,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -11622,7 +11631,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -11696,10 +11705,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -11770,7 +11779,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -11844,7 +11853,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -11918,7 +11927,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -12134,7 +12143,7 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U2" t="s">
         <v>445</v>
@@ -12214,7 +12223,7 @@
         <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W3" t="s">
         <v>44</v>
@@ -12436,7 +12445,7 @@
         <v>52</v>
       </c>
       <c r="V6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="W6" t="s">
         <v>44</v>
@@ -12504,7 +12513,7 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U7" t="s">
         <v>56</v>
@@ -12581,7 +12590,7 @@
         <v>122</v>
       </c>
       <c r="U8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V8" t="s">
         <v>341</v>
@@ -12652,7 +12661,7 @@
         <v>31</v>
       </c>
       <c r="T9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U9" t="s">
         <v>125</v>
@@ -12729,7 +12738,7 @@
         <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V10" t="s">
         <v>225</v>
@@ -13028,7 +13037,7 @@
         <v>122</v>
       </c>
       <c r="V14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -13096,10 +13105,10 @@
         <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="U15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V15" t="s">
         <v>124</v>
@@ -13491,7 +13500,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -13512,10 +13521,10 @@
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O2" t="s">
         <v>780</v>
@@ -13591,10 +13600,10 @@
         <v>765</v>
       </c>
       <c r="B4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -13603,7 +13612,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -13627,7 +13636,7 @@
         <v>771</v>
       </c>
       <c r="N4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O4" t="s">
         <v>446</v>
@@ -13662,7 +13671,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -13680,13 +13689,13 @@
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -13703,7 +13712,7 @@
         <v>752</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -13742,7 +13751,7 @@
         <v>775</v>
       </c>
       <c r="O6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P6" t="s">
         <v>122</v>
@@ -13815,7 +13824,7 @@
         <v>754</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -13907,10 +13916,10 @@
         <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P9" t="s">
         <v>41</v>
@@ -13942,7 +13951,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -13995,7 +14004,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G11" t="s">
         <v>771</v>
@@ -14019,10 +14028,10 @@
         <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P11" t="s">
         <v>789</v>
@@ -14057,7 +14066,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -14110,10 +14119,10 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I13" t="s">
         <v>33</v>
@@ -14122,7 +14131,7 @@
         <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L13" t="s">
         <v>30</v>
@@ -14134,7 +14143,7 @@
         <v>775</v>
       </c>
       <c r="O13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P13" t="s">
         <v>122</v>
@@ -14248,7 +14257,7 @@
         <v>826</v>
       </c>
       <c r="N2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O2" t="s">
         <v>445</v>
@@ -14277,7 +14286,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -14304,7 +14313,7 @@
         <v>445</v>
       </c>
       <c r="P3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4">
@@ -14336,7 +14345,7 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
@@ -14365,7 +14374,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -14383,7 +14392,7 @@
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -14392,10 +14401,10 @@
         <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N5" t="s">
         <v>830</v>
@@ -14427,7 +14436,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H6" t="s">
         <v>74</v>
@@ -14545,7 +14554,7 @@
         <v>823</v>
       </c>
       <c r="M8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N8" t="s">
         <v>831</v>
@@ -14562,7 +14571,7 @@
         <v>809</v>
       </c>
       <c r="B9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -14645,7 +14654,7 @@
         <v>825</v>
       </c>
       <c r="M10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N10" t="s">
         <v>789</v>
@@ -14692,10 +14701,10 @@
         <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N11" t="s">
         <v>178</v>
@@ -14803,16 +14812,16 @@
         <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N2" t="s">
         <v>864</v>
       </c>
       <c r="O2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P2" t="s">
         <v>866</v>
@@ -14832,7 +14841,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F3" t="s">
         <v>770</v>
@@ -14862,7 +14871,7 @@
         <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P3" t="s">
         <v>867</v>
@@ -14912,7 +14921,7 @@
         <v>778</v>
       </c>
       <c r="O4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P4" t="s">
         <v>868</v>
@@ -14953,16 +14962,16 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M5" t="s">
         <v>863</v>
       </c>
       <c r="N5" t="s">
+        <v>573</v>
+      </c>
+      <c r="O5" t="s">
         <v>574</v>
-      </c>
-      <c r="O5" t="s">
-        <v>575</v>
       </c>
       <c r="P5" t="s">
         <v>869</v>
@@ -15006,13 +15015,13 @@
         <v>782</v>
       </c>
       <c r="M6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P6" t="s">
         <v>870</v>
@@ -15056,13 +15065,13 @@
         <v>860</v>
       </c>
       <c r="M7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N7" t="s">
         <v>125</v>
       </c>
       <c r="O7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P7" t="s">
         <v>871</v>
@@ -15106,13 +15115,13 @@
         <v>775</v>
       </c>
       <c r="M8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N8" t="s">
         <v>865</v>
       </c>
       <c r="O8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P8" t="s">
         <v>872</v>
@@ -15129,7 +15138,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -15153,16 +15162,16 @@
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N9" t="s">
         <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P9" t="s">
         <v>873</v>
@@ -15212,7 +15221,7 @@
         <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P10" t="s">
         <v>874</v>
@@ -15262,7 +15271,7 @@
         <v>52</v>
       </c>
       <c r="O11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P11" t="s">
         <v>875</v>
@@ -15337,7 +15346,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -15373,7 +15382,7 @@
         <v>896</v>
       </c>
       <c r="O2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P2" t="s">
         <v>898</v>
@@ -15423,7 +15432,7 @@
         <v>123</v>
       </c>
       <c r="O3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P3" t="s">
         <v>34</v>
@@ -15437,7 +15446,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -15455,7 +15464,7 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -15464,16 +15473,16 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N4" t="s">
         <v>178</v>
       </c>
       <c r="O4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P4" t="s">
         <v>899</v>
@@ -15484,7 +15493,7 @@
         <v>879</v>
       </c>
       <c r="B5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -15514,7 +15523,7 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M5" t="s">
         <v>828</v>
@@ -15523,7 +15532,7 @@
         <v>220</v>
       </c>
       <c r="O5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P5" t="s">
         <v>900</v>
@@ -15549,7 +15558,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -15564,7 +15573,7 @@
         <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M6" t="s">
         <v>821</v>
@@ -15573,7 +15582,7 @@
         <v>896</v>
       </c>
       <c r="O6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P6" t="s">
         <v>898</v>
@@ -15614,7 +15623,7 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M7" t="s">
         <v>782</v>
@@ -15623,7 +15632,7 @@
         <v>787</v>
       </c>
       <c r="O7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P7" t="s">
         <v>901</v>
@@ -15667,13 +15676,13 @@
         <v>446</v>
       </c>
       <c r="M8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N8" t="s">
         <v>897</v>
       </c>
       <c r="O8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P8" t="s">
         <v>902</v>
@@ -15684,7 +15693,7 @@
         <v>883</v>
       </c>
       <c r="B9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -15693,7 +15702,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -15714,16 +15723,16 @@
         <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P9" t="s">
         <v>903</v>
@@ -15752,7 +15761,7 @@
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I10" t="s">
         <v>33</v>
@@ -15767,13 +15776,13 @@
         <v>862</v>
       </c>
       <c r="M10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N10" t="s">
         <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P10" t="s">
         <v>34</v>
@@ -15814,16 +15823,16 @@
         <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M11" t="s">
         <v>775</v>
       </c>
       <c r="N11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P11" t="s">
         <v>904</v>
@@ -17574,7 +17583,7 @@
         <v>231</v>
       </c>
       <c r="Z4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5">
@@ -17654,7 +17663,7 @@
         <v>231</v>
       </c>
       <c r="Z5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6">
@@ -17734,7 +17743,7 @@
         <v>231</v>
       </c>
       <c r="Z6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7">
@@ -17962,7 +17971,7 @@
         <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="W9" t="s">
         <v>122</v>
@@ -17974,7 +17983,7 @@
         <v>231</v>
       </c>
       <c r="Z9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10">
@@ -18054,7 +18063,7 @@
         <v>231</v>
       </c>
       <c r="Z10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11">
@@ -18294,7 +18303,7 @@
         <v>231</v>
       </c>
       <c r="Z13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -18368,13 +18377,13 @@
         <v>53</v>
       </c>
       <c r="X14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y14" t="s">
         <v>231</v>
       </c>
       <c r="Z14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15">
@@ -18454,7 +18463,7 @@
         <v>231</v>
       </c>
       <c r="Z15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16">
@@ -18768,13 +18777,13 @@
         <v>53</v>
       </c>
       <c r="X19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y19" t="s">
         <v>231</v>
       </c>
       <c r="Z19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20">
@@ -18854,7 +18863,7 @@
         <v>231</v>
       </c>
       <c r="Z20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21">
@@ -19108,13 +19117,13 @@
         <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="Z2" t="s">
-        <v>738</v>
+        <v>225</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="s">
         <v>967</v>
@@ -19194,13 +19203,13 @@
         <v>50</v>
       </c>
       <c r="Y3" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="Z3" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="s">
         <v>968</v>
@@ -19241,7 +19250,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -19277,16 +19286,16 @@
         <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="Y4" t="s">
         <v>51</v>
       </c>
       <c r="Z4" t="s">
-        <v>499</v>
+        <v>64</v>
       </c>
       <c r="AA4" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="s">
         <v>969</v>
@@ -19366,13 +19375,13 @@
         <v>122</v>
       </c>
       <c r="Y5" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="Z5" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="AA5" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB5" t="s">
         <v>970</v>
@@ -19443,22 +19452,22 @@
         <v>33</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W6" t="s">
         <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="Y6" t="s">
         <v>54</v>
       </c>
       <c r="Z6" t="s">
-        <v>537</v>
+        <v>69</v>
       </c>
       <c r="AA6" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB6" t="s">
         <v>971</v>
@@ -19609,7 +19618,7 @@
         <v>35</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
         <v>34</v>
@@ -19630,7 +19639,7 @@
         <v>224</v>
       </c>
       <c r="AA8" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB8" t="s">
         <v>973</v>
@@ -19644,7 +19653,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -19707,19 +19716,19 @@
         <v>31</v>
       </c>
       <c r="X9" t="s">
-        <v>588</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="s">
         <v>51</v>
       </c>
       <c r="Z9" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="AA9" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB9" t="s">
-        <v>34</v>
+        <v>974</v>
       </c>
     </row>
     <row r="10">
@@ -19727,7 +19736,7 @@
         <v>965</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -19793,19 +19802,19 @@
         <v>34</v>
       </c>
       <c r="X10" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
         <v>220</v>
       </c>
       <c r="Z10" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="AA10" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11">
@@ -19849,7 +19858,7 @@
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s">
         <v>33</v>
@@ -19879,16 +19888,16 @@
         <v>33</v>
       </c>
       <c r="X11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y11" t="s">
         <v>231</v>
       </c>
       <c r="Z11" t="s">
-        <v>536</v>
+        <v>129</v>
       </c>
       <c r="AA11" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB11" t="s">
         <v>975</v>
@@ -19968,16 +19977,16 @@
         <v>231</v>
       </c>
       <c r="Y12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Z12" t="s">
-        <v>536</v>
+        <v>225</v>
       </c>
       <c r="AA12" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB12" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="13">
@@ -19994,7 +20003,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -20051,16 +20060,16 @@
         <v>35</v>
       </c>
       <c r="X13" t="s">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s">
         <v>46</v>
       </c>
       <c r="Z13" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="AA13" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="s">
         <v>976</v>
@@ -20140,16 +20149,16 @@
         <v>50</v>
       </c>
       <c r="Y14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA14" t="s">
         <v>220</v>
       </c>
-      <c r="Z14" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>52</v>
-      </c>
       <c r="AB14" t="s">
-        <v>34</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15">
@@ -20226,7 +20235,7 @@
         <v>54</v>
       </c>
       <c r="Y15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z15" t="s">
         <v>129</v>
@@ -20235,7 +20244,7 @@
         <v>220</v>
       </c>
       <c r="AB15" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16">
@@ -20309,19 +20318,19 @@
         <v>33</v>
       </c>
       <c r="X16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Y16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Z16" t="s">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="AA16" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB16" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
     </row>
     <row r="17">
@@ -20371,7 +20380,7 @@
         <v>35</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="s">
         <v>29</v>
@@ -20395,16 +20404,16 @@
         <v>33</v>
       </c>
       <c r="X17" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="Y17" t="s">
         <v>50</v>
       </c>
       <c r="Z17" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="AA17" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB17" t="s">
         <v>978</v>
@@ -20484,13 +20493,13 @@
         <v>51</v>
       </c>
       <c r="Y18" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="Z18" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="AA18" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB18" t="s">
         <v>979</v>
@@ -20549,7 +20558,7 @@
         <v>33</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s">
         <v>29</v>
@@ -20567,16 +20576,16 @@
         <v>34</v>
       </c>
       <c r="X19" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
         <v>54</v>
       </c>
       <c r="Z19" t="s">
-        <v>537</v>
+        <v>69</v>
       </c>
       <c r="AA19" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB19" t="s">
         <v>971</v>
@@ -20653,16 +20662,16 @@
         <v>33</v>
       </c>
       <c r="X20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Z20" t="s">
         <v>127</v>
       </c>
       <c r="AA20" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB20" t="s">
         <v>980</v>
@@ -20828,13 +20837,13 @@
         <v>48</v>
       </c>
       <c r="Y22" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="Z22" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="AA22" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AB22" t="s">
         <v>979</v>
@@ -20911,7 +20920,7 @@
         <v>29</v>
       </c>
       <c r="X23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y23" t="s">
         <v>52</v>
@@ -21094,7 +21103,7 @@
         <v>52</v>
       </c>
       <c r="Y2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Z2" t="s">
         <v>52</v>
@@ -21260,13 +21269,13 @@
         <v>123</v>
       </c>
       <c r="Y4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z4" t="s">
         <v>52</v>
       </c>
       <c r="AA4" t="s">
-        <v>969</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5">
@@ -21349,7 +21358,7 @@
         <v>52</v>
       </c>
       <c r="AA5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6">
@@ -21432,7 +21441,7 @@
         <v>52</v>
       </c>
       <c r="AA6" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7">
@@ -21515,7 +21524,7 @@
         <v>52</v>
       </c>
       <c r="AA7" t="s">
-        <v>463</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="8">
@@ -21598,7 +21607,7 @@
         <v>52</v>
       </c>
       <c r="AA8" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="9">
@@ -21681,7 +21690,7 @@
         <v>52</v>
       </c>
       <c r="AA9" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10">
@@ -21764,7 +21773,7 @@
         <v>52</v>
       </c>
       <c r="AA10" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="11">
@@ -21847,7 +21856,7 @@
         <v>52</v>
       </c>
       <c r="AA11" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12">
@@ -22013,7 +22022,7 @@
         <v>52</v>
       </c>
       <c r="AA13" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="14">
@@ -22096,7 +22105,7 @@
         <v>52</v>
       </c>
       <c r="AA14" t="s">
-        <v>463</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15">
@@ -22179,7 +22188,7 @@
         <v>52</v>
       </c>
       <c r="AA15" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="16">
@@ -22262,7 +22271,7 @@
         <v>52</v>
       </c>
       <c r="AA16" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="17">
@@ -22345,7 +22354,7 @@
         <v>52</v>
       </c>
       <c r="AA17" t="s">
-        <v>976</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="18">
@@ -22428,7 +22437,7 @@
         <v>52</v>
       </c>
       <c r="AA18" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="19">
@@ -22511,7 +22520,7 @@
         <v>52</v>
       </c>
       <c r="AA19" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20">
@@ -22594,7 +22603,7 @@
         <v>52</v>
       </c>
       <c r="AA20" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="21">
@@ -22668,7 +22677,7 @@
         <v>46</v>
       </c>
       <c r="X21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Y21" t="s">
         <v>182</v>
@@ -22677,7 +22686,7 @@
         <v>52</v>
       </c>
       <c r="AA21" t="s">
-        <v>976</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="22">
@@ -22760,7 +22769,7 @@
         <v>52</v>
       </c>
       <c r="AA22" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -32990,7 +32999,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
@@ -33022,7 +33031,7 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
@@ -33067,19 +33076,19 @@
         <v>38</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
         <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="AB3" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
@@ -33123,7 +33132,7 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
@@ -33156,19 +33165,19 @@
         <v>30</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="Z4" t="s">
         <v>337</v>
       </c>
       <c r="AA4" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="AB4" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5">
@@ -33257,7 +33266,7 @@
         <v>56</v>
       </c>
       <c r="AC5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
@@ -33346,7 +33355,7 @@
         <v>56</v>
       </c>
       <c r="AC6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7">
@@ -33435,7 +33444,7 @@
         <v>220</v>
       </c>
       <c r="AC7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8">
@@ -33524,7 +33533,7 @@
         <v>56</v>
       </c>
       <c r="AC8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9">
@@ -33610,10 +33619,10 @@
         <v>51</v>
       </c>
       <c r="AB9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AC9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10">
@@ -33693,16 +33702,16 @@
         <v>179</v>
       </c>
       <c r="Z10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AB10" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="AC10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11">
@@ -33791,7 +33800,7 @@
         <v>220</v>
       </c>
       <c r="AC11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
@@ -33880,7 +33889,7 @@
         <v>220</v>
       </c>
       <c r="AC12" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
@@ -33930,7 +33939,7 @@
         <v>33</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
         <v>35</v>
@@ -33957,19 +33966,19 @@
         <v>35</v>
       </c>
       <c r="Y13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s">
         <v>341</v>
       </c>
       <c r="AA13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AB13" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="AC13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14">
@@ -34049,16 +34058,16 @@
         <v>221</v>
       </c>
       <c r="Z14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="AA14" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="AB14" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="AC14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15">
@@ -34141,13 +34150,13 @@
         <v>48</v>
       </c>
       <c r="AA15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB15" t="s">
         <v>56</v>
       </c>
       <c r="AC15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16">
@@ -34227,16 +34236,16 @@
         <v>43</v>
       </c>
       <c r="Z16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB16" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="AC16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17">
@@ -34319,13 +34328,13 @@
         <v>58</v>
       </c>
       <c r="AA17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB17" t="s">
         <v>56</v>
       </c>
       <c r="AC17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18">
@@ -34414,7 +34423,7 @@
         <v>220</v>
       </c>
       <c r="AC18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19">
@@ -34503,7 +34512,7 @@
         <v>56</v>
       </c>
       <c r="AC19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20">
@@ -34586,13 +34595,13 @@
         <v>49</v>
       </c>
       <c r="AA20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AB20" t="s">
         <v>220</v>
       </c>
       <c r="AC20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21">
@@ -34681,7 +34690,7 @@
         <v>220</v>
       </c>
       <c r="AC21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22">
@@ -34770,7 +34779,7 @@
         <v>56</v>
       </c>
       <c r="AC22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23">
@@ -34859,7 +34868,7 @@
         <v>56</v>
       </c>
       <c r="AC23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24">
@@ -34948,7 +34957,7 @@
         <v>56</v>
       </c>
       <c r="AC24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -34967,84 +34976,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" t="s">
         <v>472</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>473</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>474</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>475</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>476</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>477</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>478</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>479</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>480</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>481</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>482</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>483</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>484</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>485</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>486</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>487</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>488</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>489</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>490</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>491</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>492</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>493</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>494</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>495</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -35119,12 +35128,12 @@
         <v>231</v>
       </c>
       <c r="Z2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -35199,12 +35208,12 @@
         <v>231</v>
       </c>
       <c r="Z3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -35284,7 +35293,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -35359,12 +35368,12 @@
         <v>231</v>
       </c>
       <c r="Z5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -35444,7 +35453,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -35519,12 +35528,12 @@
         <v>231</v>
       </c>
       <c r="Z7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -35604,7 +35613,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -35679,12 +35688,12 @@
         <v>231</v>
       </c>
       <c r="Z9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -35764,7 +35773,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -35839,12 +35848,12 @@
         <v>231</v>
       </c>
       <c r="Z11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -35924,7 +35933,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -35999,12 +36008,12 @@
         <v>231</v>
       </c>
       <c r="Z13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -36079,12 +36088,12 @@
         <v>231</v>
       </c>
       <c r="Z14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -36153,18 +36162,18 @@
         <v>122</v>
       </c>
       <c r="X15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y15" t="s">
         <v>231</v>
       </c>
       <c r="Z15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -36244,7 +36253,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -36324,7 +36333,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -36399,12 +36408,12 @@
         <v>231</v>
       </c>
       <c r="Z18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -36479,12 +36488,12 @@
         <v>231</v>
       </c>
       <c r="Z19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -36553,18 +36562,18 @@
         <v>51</v>
       </c>
       <c r="X20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y20" t="s">
         <v>231</v>
       </c>
       <c r="Z20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>

--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="734">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -857,1291 +857,1303 @@
     <t>Sheffield Weds</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2.0833</t>
+  </si>
+  <si>
     <t>2.4</t>
   </si>
   <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>1.9</t>
+    <t>2.3333</t>
+  </si>
+  <si>
+    <t>3.6364</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.8182</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hgtotals</t>
+  </si>
+  <si>
+    <t>e3_agtotals</t>
+  </si>
+  <si>
+    <t>e3_totalgoals</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.0909</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hgtotals</t>
+  </si>
+  <si>
+    <t>ec_agtotals</t>
+  </si>
+  <si>
+    <t>ec_totalgoals</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
   </si>
   <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hgtotals</t>
-  </si>
-  <si>
-    <t>e3_agtotals</t>
-  </si>
-  <si>
-    <t>e3_totalgoals</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>2.5</t>
+    <t>2.9091</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.5556</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hgtotals</t>
+  </si>
+  <si>
+    <t>f1_agtotals</t>
+  </si>
+  <si>
+    <t>f1_totalgoals</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>3.4444</t>
+  </si>
+  <si>
+    <t>3.5556</t>
+  </si>
+  <si>
+    <t>2.625</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hgtotals</t>
+  </si>
+  <si>
+    <t>f2_agtotals</t>
+  </si>
+  <si>
+    <t>f2_totalgoals</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>1.7273</t>
+  </si>
+  <si>
+    <t>1.4545</t>
+  </si>
+  <si>
+    <t>1.6364</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hgtotals</t>
+  </si>
+  <si>
+    <t>g1_agtotals</t>
+  </si>
+  <si>
+    <t>g1_totalgoals</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hgtotals</t>
+  </si>
+  <si>
+    <t>i1_agtotals</t>
+  </si>
+  <si>
+    <t>i1_totalgoals</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>3.7143</t>
+  </si>
+  <si>
+    <t>4.2857</t>
+  </si>
+  <si>
+    <t>4.1429</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hgtotals</t>
+  </si>
+  <si>
+    <t>n1_agtotals</t>
+  </si>
+  <si>
+    <t>n1_totalgoals</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>4.625</t>
+  </si>
+  <si>
+    <t>2.875</t>
+  </si>
+  <si>
+    <t>3.125</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hgtotals</t>
+  </si>
+  <si>
+    <t>p1_agtotals</t>
+  </si>
+  <si>
+    <t>p1_totalgoals</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>2.125</t>
+  </si>
+  <si>
+    <t>2.375</t>
+  </si>
+  <si>
+    <t>1.875</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hgtotals</t>
+  </si>
+  <si>
+    <t>sc0_agtotals</t>
+  </si>
+  <si>
+    <t>sc0_totalgoals</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hgtotals</t>
+  </si>
+  <si>
+    <t>sc1_agtotals</t>
+  </si>
+  <si>
+    <t>sc1_totalgoals</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.625</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Ath.Bilbao</t>
+  </si>
+  <si>
+    <t>Ath.Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Real.Madrid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>sp1_hgtotals</t>
+  </si>
+  <si>
+    <t>sp1_agtotals</t>
+  </si>
+  <si>
+    <t>sp1_totalgoals</t>
+  </si>
+  <si>
+    <t>sp1_games_played</t>
+  </si>
+  <si>
+    <t>sp1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>1.375</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Las.Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>Sociedad.B</t>
+  </si>
+  <si>
+    <t>Sp.Gijon</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>sp2_hgtotals</t>
+  </si>
+  <si>
+    <t>sp2_agtotals</t>
+  </si>
+  <si>
+    <t>sp2_totalgoals</t>
+  </si>
+  <si>
+    <t>sp2_games_played</t>
+  </si>
+  <si>
+    <t>sp2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>1.4444</t>
   </si>
   <si>
     <t>1.7778</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.3</t>
+    <t>1.6667</t>
   </si>
   <si>
     <t>2.2222</t>
   </si>
   <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hgtotals</t>
-  </si>
-  <si>
-    <t>ec_agtotals</t>
-  </si>
-  <si>
-    <t>ec_totalgoals</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>4.1111</t>
-  </si>
-  <si>
-    <t>3.375</t>
-  </si>
-  <si>
-    <t>2.5556</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.4444</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.625</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hgtotals</t>
-  </si>
-  <si>
-    <t>f1_agtotals</t>
-  </si>
-  <si>
-    <t>f1_totalgoals</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>3.5556</t>
-  </si>
-  <si>
-    <t>2.3333</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hgtotals</t>
-  </si>
-  <si>
-    <t>f2_agtotals</t>
-  </si>
-  <si>
-    <t>f2_totalgoals</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>1.7273</t>
-  </si>
-  <si>
-    <t>1.4545</t>
-  </si>
-  <si>
-    <t>1.8182</t>
-  </si>
-  <si>
-    <t>1.6364</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hgtotals</t>
-  </si>
-  <si>
-    <t>g1_agtotals</t>
-  </si>
-  <si>
-    <t>g1_totalgoals</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hgtotals</t>
-  </si>
-  <si>
-    <t>i1_agtotals</t>
-  </si>
-  <si>
-    <t>i1_totalgoals</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>3.7143</t>
-  </si>
-  <si>
-    <t>4.2857</t>
-  </si>
-  <si>
-    <t>4.1429</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hgtotals</t>
-  </si>
-  <si>
-    <t>n1_agtotals</t>
-  </si>
-  <si>
-    <t>n1_totalgoals</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>4.625</t>
-  </si>
-  <si>
-    <t>2.875</t>
-  </si>
-  <si>
-    <t>3.125</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hgtotals</t>
-  </si>
-  <si>
-    <t>p1_agtotals</t>
-  </si>
-  <si>
-    <t>p1_totalgoals</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>2.125</t>
-  </si>
-  <si>
-    <t>2.375</t>
-  </si>
-  <si>
-    <t>1.875</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hgtotals</t>
-  </si>
-  <si>
-    <t>sc0_agtotals</t>
-  </si>
-  <si>
-    <t>sc0_totalgoals</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Ayr</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Partick</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hgtotals</t>
-  </si>
-  <si>
-    <t>sc1_agtotals</t>
-  </si>
-  <si>
-    <t>sc1_totalgoals</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Inverness C</t>
-  </si>
-  <si>
-    <t>Queen of Sth</t>
-  </si>
-  <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>1.625</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Ath.Bilbao</t>
-  </si>
-  <si>
-    <t>Ath.Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Elche</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real.Madrid</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>sp1_hgtotals</t>
-  </si>
-  <si>
-    <t>sp1_agtotals</t>
-  </si>
-  <si>
-    <t>sp1_totalgoals</t>
-  </si>
-  <si>
-    <t>sp1_games_played</t>
-  </si>
-  <si>
-    <t>sp1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>1.375</t>
-  </si>
-  <si>
-    <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Amorebieta</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>Las.Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Sociedad.B</t>
-  </si>
-  <si>
-    <t>Sp.Gijon</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>sp2_hgtotals</t>
-  </si>
-  <si>
-    <t>sp2_agtotals</t>
-  </si>
-  <si>
-    <t>sp2_totalgoals</t>
-  </si>
-  <si>
-    <t>sp2_games_played</t>
-  </si>
-  <si>
-    <t>sp2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Sociedad B</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
+    <t>1.3333</t>
   </si>
   <si>
     <t>Ad..Demirspor</t>
@@ -3693,84 +3705,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" t="s">
         <v>388</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>389</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>390</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>391</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>393</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>394</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>395</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>396</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>397</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>398</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>399</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>400</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>401</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>402</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>403</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>404</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>405</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>406</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>409</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>410</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>411</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -3845,12 +3857,12 @@
         <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3930,7 +3942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -4010,7 +4022,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -4090,7 +4102,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4170,7 +4182,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4250,7 +4262,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4330,7 +4342,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4410,7 +4422,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -4490,7 +4502,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4565,12 +4577,12 @@
         <v>48</v>
       </c>
       <c r="Z11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4650,7 +4662,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -4730,7 +4742,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4805,12 +4817,12 @@
         <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>419</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -4890,7 +4902,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -4970,7 +4982,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -5050,7 +5062,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -5130,7 +5142,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5205,12 +5217,12 @@
         <v>48</v>
       </c>
       <c r="Z19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -5290,7 +5302,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5384,66 +5396,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" t="s">
         <v>421</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>422</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>423</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>424</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>425</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>426</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>427</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>428</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>429</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>430</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>431</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>432</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>433</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>434</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>435</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>436</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>437</v>
-      </c>
-      <c r="S1" t="s">
-        <v>438</v>
-      </c>
-      <c r="T1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5505,7 +5517,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5567,7 +5579,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5624,12 +5636,12 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5686,12 +5698,12 @@
         <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5748,12 +5760,12 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5810,12 +5822,12 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -5872,12 +5884,12 @@
         <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5934,12 +5946,12 @@
         <v>34</v>
       </c>
       <c r="T9" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5996,12 +6008,12 @@
         <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6063,7 +6075,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6120,12 +6132,12 @@
         <v>34</v>
       </c>
       <c r="T12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -6182,12 +6194,12 @@
         <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -6249,7 +6261,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -6325,84 +6337,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" t="s">
         <v>445</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>446</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>447</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>448</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>449</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>450</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>451</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>452</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>453</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>454</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>455</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>456</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>457</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>458</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>459</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>460</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>461</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>462</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>463</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>464</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>465</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>466</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>467</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>468</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6482,7 +6494,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6557,12 +6569,12 @@
         <v>35</v>
       </c>
       <c r="Z3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -6642,7 +6654,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -6722,7 +6734,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6802,7 +6814,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6877,12 +6889,12 @@
         <v>35</v>
       </c>
       <c r="Z7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -6957,12 +6969,12 @@
         <v>35</v>
       </c>
       <c r="Z8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -7042,7 +7054,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7122,7 +7134,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7202,7 +7214,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -7282,7 +7294,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7362,7 +7374,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -7442,7 +7454,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -7522,7 +7534,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7602,7 +7614,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7682,7 +7694,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -7762,7 +7774,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -7842,7 +7854,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -7922,7 +7934,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -7997,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="Z21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -8016,84 +8028,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" t="s">
         <v>473</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>474</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>475</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>476</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>477</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>478</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>479</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>480</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>481</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>482</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>483</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>484</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>485</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>486</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>487</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>488</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>489</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>490</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>491</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>492</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>493</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>494</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>495</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8173,7 +8185,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8253,7 +8265,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -8333,7 +8345,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8413,7 +8425,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8493,7 +8505,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -8573,7 +8585,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8653,7 +8665,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8733,7 +8745,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8813,7 +8825,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8893,7 +8905,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -8973,7 +8985,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -9053,7 +9065,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9133,7 +9145,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -9213,7 +9225,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -9293,7 +9305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9373,7 +9385,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9453,7 +9465,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9533,7 +9545,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9613,7 +9625,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9707,78 +9719,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" t="s">
         <v>498</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>499</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>500</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>501</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>502</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>503</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>504</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>505</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>506</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>507</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>508</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>509</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>510</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>511</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>512</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>513</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>514</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>515</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>516</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>517</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>518</v>
-      </c>
-      <c r="W1" t="s">
-        <v>519</v>
-      </c>
-      <c r="X1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9852,7 +9864,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -9921,12 +9933,12 @@
         <v>35</v>
       </c>
       <c r="X3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9995,12 +10007,12 @@
         <v>50</v>
       </c>
       <c r="X4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10069,12 +10081,12 @@
         <v>35</v>
       </c>
       <c r="X5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -10148,7 +10160,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10217,12 +10229,12 @@
         <v>50</v>
       </c>
       <c r="X7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10291,12 +10303,12 @@
         <v>50</v>
       </c>
       <c r="X8" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -10365,12 +10377,12 @@
         <v>50</v>
       </c>
       <c r="X9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10444,7 +10456,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10513,12 +10525,12 @@
         <v>50</v>
       </c>
       <c r="X11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10587,12 +10599,12 @@
         <v>50</v>
       </c>
       <c r="X12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10661,12 +10673,12 @@
         <v>50</v>
       </c>
       <c r="X13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -10740,7 +10752,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10809,12 +10821,12 @@
         <v>50</v>
       </c>
       <c r="X15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10883,12 +10895,12 @@
         <v>50</v>
       </c>
       <c r="X16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -10957,12 +10969,12 @@
         <v>50</v>
       </c>
       <c r="X17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11031,12 +11043,12 @@
         <v>50</v>
       </c>
       <c r="X18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -11124,78 +11136,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1" t="s">
         <v>532</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>533</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>534</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>535</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>536</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>537</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>538</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>539</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>540</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>541</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>542</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>543</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>544</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>545</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>546</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>547</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>548</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>549</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>550</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>551</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>552</v>
-      </c>
-      <c r="W1" t="s">
-        <v>553</v>
-      </c>
-      <c r="X1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11269,7 +11281,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11338,12 +11350,12 @@
         <v>50</v>
       </c>
       <c r="X3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -11417,7 +11429,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11486,12 +11498,12 @@
         <v>50</v>
       </c>
       <c r="X5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11560,12 +11572,12 @@
         <v>50</v>
       </c>
       <c r="X6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11634,12 +11646,12 @@
         <v>50</v>
       </c>
       <c r="X7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -11708,12 +11720,12 @@
         <v>50</v>
       </c>
       <c r="X8" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11787,7 +11799,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -11856,12 +11868,12 @@
         <v>50</v>
       </c>
       <c r="X10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11930,12 +11942,12 @@
         <v>50</v>
       </c>
       <c r="X11" t="s">
-        <v>355</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -12004,12 +12016,12 @@
         <v>50</v>
       </c>
       <c r="X12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -12078,12 +12090,12 @@
         <v>50</v>
       </c>
       <c r="X13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -12152,12 +12164,12 @@
         <v>50</v>
       </c>
       <c r="X14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -12226,12 +12238,12 @@
         <v>50</v>
       </c>
       <c r="X15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12300,12 +12312,12 @@
         <v>50</v>
       </c>
       <c r="X16" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12374,12 +12386,12 @@
         <v>50</v>
       </c>
       <c r="X17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12448,12 +12460,12 @@
         <v>50</v>
       </c>
       <c r="X18" t="s">
-        <v>355</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12522,7 +12534,7 @@
         <v>50</v>
       </c>
       <c r="X19" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -12541,60 +12553,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" t="s">
         <v>564</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>565</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>566</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>567</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>568</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>569</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>570</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>571</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>572</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>573</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>574</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>575</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>576</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>577</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>578</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>579</v>
-      </c>
-      <c r="R1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12645,12 +12657,12 @@
         <v>50</v>
       </c>
       <c r="R2" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12701,12 +12713,12 @@
         <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -12757,12 +12769,12 @@
         <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12813,12 +12825,12 @@
         <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -12869,12 +12881,12 @@
         <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12925,12 +12937,12 @@
         <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12986,7 +12998,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -13037,12 +13049,12 @@
         <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -13093,12 +13105,12 @@
         <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13149,12 +13161,12 @@
         <v>50</v>
       </c>
       <c r="R11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13205,12 +13217,12 @@
         <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -13261,7 +13273,7 @@
         <v>50</v>
       </c>
       <c r="R13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -13280,54 +13292,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" t="s">
         <v>586</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>587</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>588</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>589</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>590</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>591</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>592</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>593</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>594</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>595</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>596</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>597</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>598</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>599</v>
-      </c>
-      <c r="P1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13372,12 +13384,12 @@
         <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -13422,12 +13434,12 @@
         <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13472,12 +13484,12 @@
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13522,12 +13534,12 @@
         <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -13572,12 +13584,12 @@
         <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13622,12 +13634,12 @@
         <v>50</v>
       </c>
       <c r="P7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -13672,12 +13684,12 @@
         <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13722,12 +13734,12 @@
         <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13772,12 +13784,12 @@
         <v>50</v>
       </c>
       <c r="P10" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13841,54 +13853,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1" t="s">
         <v>606</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>607</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>608</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>609</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>610</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>611</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>612</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>613</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>614</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>615</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>616</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>617</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>618</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>619</v>
-      </c>
-      <c r="P1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13938,7 +13950,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -13988,7 +14000,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14038,7 +14050,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -14088,7 +14100,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -14133,12 +14145,12 @@
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -14183,12 +14195,12 @@
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14238,7 +14250,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14283,12 +14295,12 @@
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -14338,7 +14350,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -14383,7 +14395,7 @@
         <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>387</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -14402,54 +14414,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" t="s">
         <v>625</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>626</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>627</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>628</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>629</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>630</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>631</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>632</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>633</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>634</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>635</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>636</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>637</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>638</v>
-      </c>
-      <c r="P1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14499,7 +14511,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14549,7 +14561,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14599,7 +14611,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14649,7 +14661,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14699,7 +14711,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -14744,12 +14756,12 @@
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>387</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14799,7 +14811,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14844,12 +14856,12 @@
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14899,7 +14911,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -16380,84 +16392,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C1" t="s">
         <v>644</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>645</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>646</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>647</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>648</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>649</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>650</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>651</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>652</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>653</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>654</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>655</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>656</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>657</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>658</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>659</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>660</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>661</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>662</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>663</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>664</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>665</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>666</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>667</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16537,7 +16549,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -16612,12 +16624,12 @@
         <v>50</v>
       </c>
       <c r="Z3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16692,12 +16704,12 @@
         <v>50</v>
       </c>
       <c r="Z4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -16777,7 +16789,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16852,12 +16864,12 @@
         <v>50</v>
       </c>
       <c r="Z6" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -16932,12 +16944,12 @@
         <v>50</v>
       </c>
       <c r="Z7" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17012,12 +17024,12 @@
         <v>50</v>
       </c>
       <c r="Z8" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17092,12 +17104,12 @@
         <v>50</v>
       </c>
       <c r="Z9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -17172,12 +17184,12 @@
         <v>50</v>
       </c>
       <c r="Z10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17257,7 +17269,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17332,12 +17344,12 @@
         <v>50</v>
       </c>
       <c r="Z12" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17412,12 +17424,12 @@
         <v>50</v>
       </c>
       <c r="Z13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17492,12 +17504,12 @@
         <v>50</v>
       </c>
       <c r="Z14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17572,12 +17584,12 @@
         <v>50</v>
       </c>
       <c r="Z15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17657,7 +17669,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17737,7 +17749,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17812,12 +17824,12 @@
         <v>50</v>
       </c>
       <c r="Z18" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17892,12 +17904,12 @@
         <v>50</v>
       </c>
       <c r="Z19" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -17972,12 +17984,12 @@
         <v>50</v>
       </c>
       <c r="Z20" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18071,90 +18083,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" t="s">
         <v>673</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>674</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>675</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>676</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>677</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>678</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>679</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>680</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>681</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>682</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>683</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>684</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>685</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>686</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>687</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>688</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>689</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>690</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>691</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>692</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>693</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>694</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>695</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>696</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>697</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>698</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18166,7 +18178,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -18223,24 +18235,24 @@
         <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s">
         <v>50</v>
       </c>
       <c r="Z2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s">
-        <v>531</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18273,7 +18285,7 @@
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
@@ -18309,24 +18321,24 @@
         <v>29</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
         <v>40</v>
       </c>
       <c r="Z3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18398,21 +18410,21 @@
         <v>48</v>
       </c>
       <c r="Y4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18484,21 +18496,21 @@
         <v>34</v>
       </c>
       <c r="Y5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s">
-        <v>563</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18528,7 +18540,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
@@ -18567,24 +18579,24 @@
         <v>29</v>
       </c>
       <c r="X6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Y6" t="s">
         <v>47</v>
       </c>
       <c r="Z6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AA6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s">
-        <v>358</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18656,21 +18668,21 @@
         <v>41</v>
       </c>
       <c r="Y7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s">
-        <v>531</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18706,7 +18718,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
@@ -18739,24 +18751,24 @@
         <v>31</v>
       </c>
       <c r="X8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="Y8" t="s">
         <v>30</v>
       </c>
       <c r="Z8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s">
-        <v>605</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -18828,21 +18840,21 @@
         <v>38</v>
       </c>
       <c r="Y9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s">
-        <v>604</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -18920,15 +18932,15 @@
         <v>39</v>
       </c>
       <c r="AA10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s">
-        <v>313</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19000,21 +19012,21 @@
         <v>62</v>
       </c>
       <c r="Y11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA11" t="s">
         <v>38</v>
       </c>
-      <c r="Z11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>50</v>
-      </c>
       <c r="AB11" t="s">
-        <v>561</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -19086,21 +19098,21 @@
         <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19172,21 +19184,21 @@
         <v>37</v>
       </c>
       <c r="Y13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" t="s">
         <v>38</v>
       </c>
-      <c r="Z13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>50</v>
-      </c>
       <c r="AB13" t="s">
-        <v>562</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19210,7 +19222,7 @@
         <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -19255,24 +19267,24 @@
         <v>31</v>
       </c>
       <c r="X14" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="Y14" t="s">
         <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -19344,21 +19356,21 @@
         <v>33</v>
       </c>
       <c r="Y15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s">
-        <v>560</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19376,7 +19388,7 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -19427,24 +19439,24 @@
         <v>29</v>
       </c>
       <c r="X16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s">
         <v>35</v>
       </c>
       <c r="Z16" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AA16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s">
-        <v>531</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19501,7 +19513,7 @@
         <v>29</v>
       </c>
       <c r="T17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U17" t="s">
         <v>36</v>
@@ -19513,24 +19525,24 @@
         <v>29</v>
       </c>
       <c r="X17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Y17" t="s">
         <v>50</v>
       </c>
       <c r="Z17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s">
-        <v>604</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -19602,21 +19614,21 @@
         <v>47</v>
       </c>
       <c r="Y18" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Z18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s">
-        <v>561</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19667,7 +19679,7 @@
         <v>29</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S19" t="s">
         <v>29</v>
@@ -19685,16 +19697,16 @@
         <v>29</v>
       </c>
       <c r="X19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Y19" t="s">
         <v>50</v>
       </c>
       <c r="Z19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AA19" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s">
         <v>31</v>
@@ -19702,7 +19714,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -19774,21 +19786,21 @@
         <v>62</v>
       </c>
       <c r="Y20" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AA20" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s">
-        <v>313</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19797,7 +19809,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -19857,24 +19869,24 @@
         <v>29</v>
       </c>
       <c r="X21" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Y21" t="s">
         <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AA21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s">
-        <v>560</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -19916,7 +19928,7 @@
         <v>29</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P22" t="s">
         <v>29</v>
@@ -19943,24 +19955,24 @@
         <v>31</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Y22" t="s">
         <v>41</v>
       </c>
       <c r="Z22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AA22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s">
-        <v>357</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19987,7 +19999,7 @@
         <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
         <v>36</v>
@@ -20038,10 +20050,10 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s">
-        <v>563</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -20060,84 +20072,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E1" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="H1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="I1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="J1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="L1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="M1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="N1" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="O1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="P1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="Q1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="R1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="S1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="T1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="U1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="V1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="W1" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="X1" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="Y1" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="Z1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20212,12 +20224,12 @@
         <v>50</v>
       </c>
       <c r="Z2" t="s">
-        <v>355</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20292,12 +20304,12 @@
         <v>50</v>
       </c>
       <c r="Z3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20372,12 +20384,12 @@
         <v>50</v>
       </c>
       <c r="Z4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20452,12 +20464,12 @@
         <v>50</v>
       </c>
       <c r="Z5" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -20537,7 +20549,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20612,12 +20624,12 @@
         <v>50</v>
       </c>
       <c r="Z7" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20692,12 +20704,12 @@
         <v>50</v>
       </c>
       <c r="Z8" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20772,12 +20784,12 @@
         <v>50</v>
       </c>
       <c r="Z9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20852,12 +20864,12 @@
         <v>50</v>
       </c>
       <c r="Z10" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20932,12 +20944,12 @@
         <v>50</v>
       </c>
       <c r="Z11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21012,12 +21024,12 @@
         <v>50</v>
       </c>
       <c r="Z12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21092,12 +21104,12 @@
         <v>50</v>
       </c>
       <c r="Z13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -21172,12 +21184,12 @@
         <v>50</v>
       </c>
       <c r="Z14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21252,12 +21264,12 @@
         <v>50</v>
       </c>
       <c r="Z15" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -21332,12 +21344,12 @@
         <v>50</v>
       </c>
       <c r="Z16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21412,12 +21424,12 @@
         <v>50</v>
       </c>
       <c r="Z17" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21492,12 +21504,12 @@
         <v>50</v>
       </c>
       <c r="Z18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -21572,12 +21584,12 @@
         <v>50</v>
       </c>
       <c r="Z19" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21657,7 +21669,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21732,7 +21744,7 @@
         <v>50</v>
       </c>
       <c r="Z21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -27521,16 +27533,16 @@
         <v>43</v>
       </c>
       <c r="AA4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s">
-        <v>238</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27625,16 @@
         <v>43</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB5" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="AC5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -28082,7 +28094,7 @@
         <v>62</v>
       </c>
       <c r="AD10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11">
@@ -28174,7 +28186,7 @@
         <v>62</v>
       </c>
       <c r="AD11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12">
@@ -28257,16 +28269,16 @@
         <v>43</v>
       </c>
       <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC12" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>48</v>
-      </c>
       <c r="AD12" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13">
@@ -28334,7 +28346,7 @@
         <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W13" t="s">
         <v>29</v>
@@ -28346,19 +28358,19 @@
         <v>29</v>
       </c>
       <c r="Z13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="s">
         <v>62</v>
       </c>
       <c r="AB13" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="AC13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD13" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
@@ -28743,7 +28755,7 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
@@ -28806,19 +28818,19 @@
         <v>29</v>
       </c>
       <c r="Z18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AA18" t="s">
         <v>43</v>
       </c>
       <c r="AB18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
@@ -29016,7 +29028,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -29082,19 +29094,19 @@
         <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s">
         <v>48</v>
       </c>
       <c r="AB21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AC21" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD21" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22">
@@ -29177,16 +29189,16 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="AC22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23">
@@ -29370,7 +29382,7 @@
         <v>62</v>
       </c>
       <c r="AD24" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25">
@@ -29408,7 +29420,7 @@
         <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
@@ -29450,19 +29462,19 @@
         <v>29</v>
       </c>
       <c r="Z25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA25" t="s">
         <v>43</v>
       </c>
       <c r="AB25" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="AC25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD25" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -29481,96 +29493,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="R1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="S1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="T1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="U1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="V1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="W1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="X1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Y1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Z1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AA1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AB1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AC1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AD1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29603,7 +29615,7 @@
         <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -29645,24 +29657,24 @@
         <v>29</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="s">
         <v>62</v>
       </c>
       <c r="AB2" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="AC2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD2" t="s">
-        <v>313</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -29746,15 +29758,15 @@
         <v>105</v>
       </c>
       <c r="AC3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>313</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29766,7 +29778,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -29829,24 +29841,24 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s">
         <v>43</v>
       </c>
       <c r="AB4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD4" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -29924,21 +29936,21 @@
         <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="AC5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD5" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -30016,21 +30028,21 @@
         <v>37</v>
       </c>
       <c r="AA6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
         <v>62</v>
       </c>
-      <c r="AB6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>38</v>
-      </c>
       <c r="AD6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -30108,21 +30120,21 @@
         <v>47</v>
       </c>
       <c r="AA7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -30200,21 +30212,21 @@
         <v>48</v>
       </c>
       <c r="AA8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC8" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>62</v>
-      </c>
       <c r="AD8" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -30280,7 +30292,7 @@
         <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X9" t="s">
         <v>36</v>
@@ -30289,24 +30301,24 @@
         <v>29</v>
       </c>
       <c r="Z9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="s">
         <v>47</v>
       </c>
       <c r="AB9" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD9" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -30363,7 +30375,7 @@
         <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s">
         <v>36</v>
@@ -30381,24 +30393,24 @@
         <v>29</v>
       </c>
       <c r="Z10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s">
         <v>40</v>
       </c>
       <c r="AB10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD10" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30440,7 +30452,7 @@
         <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s">
         <v>29</v>
@@ -30473,24 +30485,24 @@
         <v>31</v>
       </c>
       <c r="Z11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s">
         <v>38</v>
       </c>
       <c r="AB11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD11" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30568,21 +30580,21 @@
         <v>48</v>
       </c>
       <c r="AA12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="AC12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD12" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -30627,7 +30639,7 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
         <v>29</v>
@@ -30666,21 +30678,21 @@
         <v>105</v>
       </c>
       <c r="AC13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD13" t="s">
-        <v>313</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -30758,15 +30770,15 @@
         <v>57</v>
       </c>
       <c r="AC14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD14" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -30844,21 +30856,21 @@
         <v>48</v>
       </c>
       <c r="AA15" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AB15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD15" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -30942,15 +30954,15 @@
         <v>60</v>
       </c>
       <c r="AC16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -31028,21 +31040,21 @@
         <v>41</v>
       </c>
       <c r="AA17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB17" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AC17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD17" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -31060,7 +31072,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -31117,24 +31129,24 @@
         <v>29</v>
       </c>
       <c r="Z18" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AA18" t="s">
         <v>49</v>
       </c>
       <c r="AB18" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="AC18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD18" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31212,21 +31224,21 @@
         <v>48</v>
       </c>
       <c r="AA19" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AB19" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AC19" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD19" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31304,21 +31316,21 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC20" t="s">
         <v>48</v>
       </c>
-      <c r="AB20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>62</v>
-      </c>
       <c r="AD20" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -31339,7 +31351,7 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
         <v>33</v>
@@ -31393,24 +31405,24 @@
         <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="s">
         <v>48</v>
       </c>
       <c r="AB21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC21" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD21" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -31458,7 +31470,7 @@
         <v>30</v>
       </c>
       <c r="Q22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R22" t="s">
         <v>29</v>
@@ -31485,24 +31497,24 @@
         <v>29</v>
       </c>
       <c r="Z22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA22" t="s">
         <v>38</v>
       </c>
       <c r="AB22" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="AC22" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AD22" t="s">
-        <v>318</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31580,13 +31592,13 @@
         <v>35</v>
       </c>
       <c r="AA23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AC23" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD23" t="s">
         <v>31</v>
@@ -31594,7 +31606,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31609,7 +31621,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -31669,24 +31681,24 @@
         <v>32</v>
       </c>
       <c r="Z24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AA24" t="s">
         <v>31</v>
       </c>
       <c r="AB24" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD24" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -31740,7 +31752,7 @@
         <v>29</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T25" t="s">
         <v>31</v>
@@ -31761,19 +31773,19 @@
         <v>29</v>
       </c>
       <c r="Z25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s">
         <v>41</v>
       </c>
       <c r="AB25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AD25" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -31792,93 +31804,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AB1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AC1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -31953,21 +31965,21 @@
         <v>38</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AC2" t="s">
-        <v>30</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -31997,7 +32009,7 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
         <v>29</v>
@@ -32006,7 +32018,7 @@
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -32039,24 +32051,24 @@
         <v>29</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AA3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="AB3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AC3" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -32131,21 +32143,21 @@
         <v>47</v>
       </c>
       <c r="Z4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="AB4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC4" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -32166,7 +32178,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -32199,7 +32211,7 @@
         <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
         <v>29</v>
@@ -32217,24 +32229,24 @@
         <v>30</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s">
         <v>43</v>
       </c>
       <c r="AA5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC5" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32288,13 +32300,13 @@
         <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s">
         <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V6" t="s">
         <v>29</v>
@@ -32306,24 +32318,24 @@
         <v>29</v>
       </c>
       <c r="Y6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z6" t="s">
         <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32398,21 +32410,21 @@
         <v>42</v>
       </c>
       <c r="Z7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC7" t="s">
-        <v>155</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32487,30 +32499,30 @@
         <v>54</v>
       </c>
       <c r="Z8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AA8" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="AB8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC8" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -32573,24 +32585,24 @@
         <v>29</v>
       </c>
       <c r="Y9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Z9" t="s">
         <v>39</v>
       </c>
       <c r="AA9" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AB9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC9" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32665,21 +32677,21 @@
         <v>39</v>
       </c>
       <c r="Z10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AB10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AC10" t="s">
-        <v>353</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32754,21 +32766,21 @@
         <v>39</v>
       </c>
       <c r="Z11" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC11" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -32810,7 +32822,7 @@
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
@@ -32828,7 +32840,7 @@
         <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V12" t="s">
         <v>29</v>
@@ -32840,24 +32852,24 @@
         <v>29</v>
       </c>
       <c r="Y12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Z12" t="s">
         <v>48</v>
       </c>
       <c r="AA12" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC12" t="s">
-        <v>354</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -32866,7 +32878,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -32902,7 +32914,7 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="s">
         <v>32</v>
@@ -32929,24 +32941,24 @@
         <v>29</v>
       </c>
       <c r="Y13" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Z13" t="s">
         <v>46</v>
       </c>
       <c r="AA13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AC13" t="s">
-        <v>355</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -33021,21 +33033,21 @@
         <v>49</v>
       </c>
       <c r="Z14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AA14" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="AB14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AC14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -33110,21 +33122,21 @@
         <v>49</v>
       </c>
       <c r="Z15" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="s">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="AB15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC15" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33199,21 +33211,21 @@
         <v>60</v>
       </c>
       <c r="Z16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AA16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AB16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -33231,7 +33243,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -33240,7 +33252,7 @@
         <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
         <v>29</v>
@@ -33285,27 +33297,27 @@
         <v>29</v>
       </c>
       <c r="Y17" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s">
         <v>50</v>
       </c>
       <c r="AA17" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="AB17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AC17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -33374,24 +33386,24 @@
         <v>30</v>
       </c>
       <c r="Y18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="Z18" t="s">
         <v>38</v>
       </c>
       <c r="AA18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AB18" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AC18" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33466,21 +33478,21 @@
         <v>49</v>
       </c>
       <c r="Z19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="AB19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC19" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -33507,7 +33519,7 @@
         <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
         <v>29</v>
@@ -33525,7 +33537,7 @@
         <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
         <v>36</v>
@@ -33552,24 +33564,24 @@
         <v>29</v>
       </c>
       <c r="Y20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z20" t="s">
         <v>44</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AB20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC20" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33644,21 +33656,21 @@
         <v>47</v>
       </c>
       <c r="Z21" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="AA21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AB21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC21" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33679,7 +33691,7 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
         <v>29</v>
@@ -33688,7 +33700,7 @@
         <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s">
         <v>34</v>
@@ -33730,24 +33742,24 @@
         <v>29</v>
       </c>
       <c r="Y22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Z22" t="s">
         <v>49</v>
       </c>
       <c r="AA22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -33765,7 +33777,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -33819,30 +33831,30 @@
         <v>29</v>
       </c>
       <c r="Y23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s">
         <v>44</v>
       </c>
       <c r="AA23" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AB23" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -33875,10 +33887,10 @@
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P24" t="s">
         <v>29</v>
@@ -33908,19 +33920,19 @@
         <v>29</v>
       </c>
       <c r="Y24" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="Z24" t="s">
         <v>38</v>
       </c>
       <c r="AA24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -33939,84 +33951,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
         <v>359</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>360</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>361</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>363</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>364</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>365</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>366</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>367</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>368</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>369</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>370</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>371</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>372</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>373</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>374</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>375</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>376</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>377</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>378</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>379</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>380</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>381</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -34091,12 +34103,12 @@
         <v>38</v>
       </c>
       <c r="Z2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -34171,12 +34183,12 @@
         <v>38</v>
       </c>
       <c r="Z3" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -34256,7 +34268,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34331,12 +34343,12 @@
         <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34416,7 +34428,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -34496,7 +34508,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34576,7 +34588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34656,7 +34668,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34736,7 +34748,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34816,7 +34828,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -34896,7 +34908,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -34971,12 +34983,12 @@
         <v>38</v>
       </c>
       <c r="Z13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -35051,12 +35063,12 @@
         <v>38</v>
       </c>
       <c r="Z14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -35131,12 +35143,12 @@
         <v>50</v>
       </c>
       <c r="Z15" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -35211,12 +35223,12 @@
         <v>38</v>
       </c>
       <c r="Z16" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35291,12 +35303,12 @@
         <v>38</v>
       </c>
       <c r="Z17" t="s">
-        <v>387</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35371,12 +35383,12 @@
         <v>38</v>
       </c>
       <c r="Z18" t="s">
-        <v>387</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -35456,7 +35468,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -35536,7 +35548,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>

--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -899,1435 +899,1435 @@
     <t>3.1333</t>
   </si>
   <si>
+    <t>2.7857</t>
+  </si>
+  <si>
+    <t>2.4286</t>
+  </si>
+  <si>
+    <t>3.2308</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.6429</t>
+  </si>
+  <si>
+    <t>2.5333</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.8462</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hgtotals</t>
+  </si>
+  <si>
+    <t>e3_agtotals</t>
+  </si>
+  <si>
+    <t>e3_totalgoals</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>3.2857</t>
+  </si>
+  <si>
+    <t>1.3571</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hgtotals</t>
+  </si>
+  <si>
+    <t>ec_agtotals</t>
+  </si>
+  <si>
+    <t>ec_totalgoals</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
     <t>3.1538</t>
   </si>
   <si>
-    <t>2.7857</t>
-  </si>
-  <si>
-    <t>2.4286</t>
+    <t>2.3077</t>
+  </si>
+  <si>
+    <t>2.7692</t>
+  </si>
+  <si>
+    <t>3.3846</t>
   </si>
   <si>
     <t>2.4615</t>
   </si>
   <si>
-    <t>3.2308</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3.6429</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.8462</t>
+    <t>3.0769</t>
+  </si>
+  <si>
+    <t>2.1667</t>
+  </si>
+  <si>
+    <t>2.3846</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hgtotals</t>
+  </si>
+  <si>
+    <t>f1_agtotals</t>
+  </si>
+  <si>
+    <t>f1_totalgoals</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>3.4545</t>
+  </si>
+  <si>
+    <t>2.2727</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hgtotals</t>
+  </si>
+  <si>
+    <t>f2_agtotals</t>
+  </si>
+  <si>
+    <t>f2_totalgoals</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>1.7692</t>
   </si>
   <si>
     <t>2.5385</t>
   </si>
   <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hgtotals</t>
-  </si>
-  <si>
-    <t>e3_agtotals</t>
-  </si>
-  <si>
-    <t>e3_totalgoals</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1.8462</t>
-  </si>
-  <si>
-    <t>3.2857</t>
-  </si>
-  <si>
-    <t>2.7692</t>
-  </si>
-  <si>
-    <t>1.3571</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hgtotals</t>
-  </si>
-  <si>
-    <t>ec_agtotals</t>
-  </si>
-  <si>
-    <t>ec_totalgoals</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>3.5833</t>
+    <t>2.2308</t>
+  </si>
+  <si>
+    <t>1.6154</t>
+  </si>
+  <si>
+    <t>1.9231</t>
+  </si>
+  <si>
+    <t>2.1538</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hgtotals</t>
+  </si>
+  <si>
+    <t>g1_agtotals</t>
+  </si>
+  <si>
+    <t>g1_totalgoals</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>1.8571</t>
+  </si>
+  <si>
+    <t>1.4286</t>
+  </si>
+  <si>
+    <t>4.4286</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hgtotals</t>
+  </si>
+  <si>
+    <t>i1_agtotals</t>
+  </si>
+  <si>
+    <t>i1_totalgoals</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>3.7778</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.5556</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hgtotals</t>
+  </si>
+  <si>
+    <t>n1_agtotals</t>
+  </si>
+  <si>
+    <t>n1_totalgoals</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.2222</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hgtotals</t>
-  </si>
-  <si>
-    <t>f1_agtotals</t>
-  </si>
-  <si>
-    <t>f1_totalgoals</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>3.4545</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.2727</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hgtotals</t>
-  </si>
-  <si>
-    <t>f2_agtotals</t>
-  </si>
-  <si>
-    <t>f2_totalgoals</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>1.7692</t>
-  </si>
-  <si>
-    <t>2.3077</t>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hgtotals</t>
+  </si>
+  <si>
+    <t>p1_agtotals</t>
+  </si>
+  <si>
+    <t>p1_totalgoals</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>1.8889</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hgtotals</t>
+  </si>
+  <si>
+    <t>sc0_agtotals</t>
+  </si>
+  <si>
+    <t>sc0_totalgoals</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>1.6364</t>
+  </si>
+  <si>
+    <t>1.7273</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hgtotals</t>
+  </si>
+  <si>
+    <t>sc1_agtotals</t>
+  </si>
+  <si>
+    <t>sc1_totalgoals</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>1.9091</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>3.6364</t>
+  </si>
+  <si>
+    <t>3.8182</t>
+  </si>
+  <si>
+    <t>2.4545</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Ath.Bilbao</t>
+  </si>
+  <si>
+    <t>Ath.Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Real.Madrid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>sp1_hgtotals</t>
+  </si>
+  <si>
+    <t>sp1_agtotals</t>
+  </si>
+  <si>
+    <t>sp1_totalgoals</t>
+  </si>
+  <si>
+    <t>sp1_games_played</t>
+  </si>
+  <si>
+    <t>sp1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Las.Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>Sociedad.B</t>
+  </si>
+  <si>
+    <t>Sp.Gijon</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>sp2_hgtotals</t>
+  </si>
+  <si>
+    <t>sp2_agtotals</t>
+  </si>
+  <si>
+    <t>sp2_totalgoals</t>
+  </si>
+  <si>
+    <t>sp2_games_played</t>
+  </si>
+  <si>
+    <t>sp2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>1.9167</t>
+  </si>
+  <si>
+    <t>1.6667</t>
   </si>
   <si>
     <t>1.8333</t>
   </si>
   <si>
-    <t>2.3846</t>
-  </si>
-  <si>
-    <t>2.2308</t>
-  </si>
-  <si>
-    <t>1.6154</t>
-  </si>
-  <si>
-    <t>1.9231</t>
-  </si>
-  <si>
-    <t>2.1538</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hgtotals</t>
-  </si>
-  <si>
-    <t>g1_agtotals</t>
-  </si>
-  <si>
-    <t>g1_totalgoals</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>1.8571</t>
-  </si>
-  <si>
-    <t>1.4286</t>
-  </si>
-  <si>
-    <t>4.4286</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hgtotals</t>
-  </si>
-  <si>
-    <t>i1_agtotals</t>
-  </si>
-  <si>
-    <t>i1_totalgoals</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>3.7778</t>
-  </si>
-  <si>
-    <t>3.8889</t>
-  </si>
-  <si>
-    <t>4.3333</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>1.7778</t>
-  </si>
-  <si>
-    <t>1.5556</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hgtotals</t>
-  </si>
-  <si>
-    <t>n1_agtotals</t>
-  </si>
-  <si>
-    <t>n1_totalgoals</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.2222</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hgtotals</t>
-  </si>
-  <si>
-    <t>p1_agtotals</t>
-  </si>
-  <si>
-    <t>p1_totalgoals</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>2.125</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hgtotals</t>
-  </si>
-  <si>
-    <t>sc0_agtotals</t>
-  </si>
-  <si>
-    <t>sc0_totalgoals</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.7</t>
+    <t>2.0833</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>Ad..Demirspor</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Altay</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>Besiktas</t>
+  </si>
+  <si>
+    <t>Buyuksehyr</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
+    <t>Giresunspor</t>
+  </si>
+  <si>
+    <t>Goztep</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Karagumruk</t>
+  </si>
+  <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Yeni.Malatyaspor</t>
+  </si>
+  <si>
+    <t>t1_hgtotals</t>
+  </si>
+  <si>
+    <t>t1_agtotals</t>
+  </si>
+  <si>
+    <t>t1_totalgoals</t>
+  </si>
+  <si>
+    <t>t1_games_played</t>
+  </si>
+  <si>
+    <t>t1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Ad. Demirspor</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor</t>
   </si>
   <si>
     <t>3.1</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Ayr</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Partick</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hgtotals</t>
-  </si>
-  <si>
-    <t>sc1_agtotals</t>
-  </si>
-  <si>
-    <t>sc1_totalgoals</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Inverness C</t>
-  </si>
-  <si>
-    <t>Queen of Sth</t>
-  </si>
-  <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>3.6364</t>
-  </si>
-  <si>
-    <t>3.8182</t>
-  </si>
-  <si>
-    <t>2.4545</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Ath.Bilbao</t>
-  </si>
-  <si>
-    <t>Ath.Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Elche</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real.Madrid</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>sp1_hgtotals</t>
-  </si>
-  <si>
-    <t>sp1_agtotals</t>
-  </si>
-  <si>
-    <t>sp1_totalgoals</t>
-  </si>
-  <si>
-    <t>sp1_games_played</t>
-  </si>
-  <si>
-    <t>sp1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>1.8889</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Amorebieta</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>Las.Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Sociedad.B</t>
-  </si>
-  <si>
-    <t>Sp.Gijon</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>sp2_hgtotals</t>
-  </si>
-  <si>
-    <t>sp2_agtotals</t>
-  </si>
-  <si>
-    <t>sp2_totalgoals</t>
-  </si>
-  <si>
-    <t>sp2_games_played</t>
-  </si>
-  <si>
-    <t>sp2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Sociedad B</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
-  </si>
-  <si>
-    <t>1.9167</t>
-  </si>
-  <si>
-    <t>1.6667</t>
-  </si>
-  <si>
-    <t>2.1667</t>
-  </si>
-  <si>
-    <t>2.0833</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>1.4545</t>
-  </si>
-  <si>
-    <t>Ad..Demirspor</t>
-  </si>
-  <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Altay</t>
-  </si>
-  <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
-    <t>Besiktas</t>
-  </si>
-  <si>
-    <t>Buyuksehyr</t>
-  </si>
-  <si>
-    <t>Fenerbahce</t>
-  </si>
-  <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
-    <t>Gaziantep</t>
-  </si>
-  <si>
-    <t>Giresunspor</t>
-  </si>
-  <si>
-    <t>Goztep</t>
-  </si>
-  <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>Karagumruk</t>
-  </si>
-  <si>
-    <t>Kasimpasa</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Yeni.Malatyaspor</t>
-  </si>
-  <si>
-    <t>t1_hgtotals</t>
-  </si>
-  <si>
-    <t>t1_agtotals</t>
-  </si>
-  <si>
-    <t>t1_totalgoals</t>
-  </si>
-  <si>
-    <t>t1_games_played</t>
-  </si>
-  <si>
-    <t>t1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor</t>
   </si>
 </sst>
 </file>
@@ -3798,84 +3798,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" t="s">
         <v>405</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>406</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>407</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>408</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>409</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>410</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>411</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>412</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>413</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>414</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>415</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>416</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>417</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>418</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>419</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>420</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>421</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>422</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>423</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>424</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>425</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>426</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>427</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>428</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -3950,12 +3950,12 @@
         <v>52</v>
       </c>
       <c r="Z2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -4030,12 +4030,12 @@
         <v>52</v>
       </c>
       <c r="Z3" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -4047,7 +4047,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4098,24 +4098,24 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="W4" t="s">
         <v>108</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z4" t="s">
-        <v>74</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -4181,21 +4181,21 @@
         <v>106</v>
       </c>
       <c r="W5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4270,12 +4270,12 @@
         <v>52</v>
       </c>
       <c r="Z6" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4350,12 +4350,12 @@
         <v>52</v>
       </c>
       <c r="Z7" t="s">
-        <v>297</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4430,12 +4430,12 @@
         <v>52</v>
       </c>
       <c r="Z8" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4510,12 +4510,12 @@
         <v>52</v>
       </c>
       <c r="Z9" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -4590,12 +4590,12 @@
         <v>52</v>
       </c>
       <c r="Z10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4670,12 +4670,12 @@
         <v>52</v>
       </c>
       <c r="Z11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4750,12 +4750,12 @@
         <v>52</v>
       </c>
       <c r="Z12" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -4830,12 +4830,12 @@
         <v>52</v>
       </c>
       <c r="Z13" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4910,12 +4910,12 @@
         <v>52</v>
       </c>
       <c r="Z14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -4990,12 +4990,12 @@
         <v>52</v>
       </c>
       <c r="Z15" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -5070,12 +5070,12 @@
         <v>52</v>
       </c>
       <c r="Z16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -5150,12 +5150,12 @@
         <v>52</v>
       </c>
       <c r="Z17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -5230,12 +5230,12 @@
         <v>52</v>
       </c>
       <c r="Z18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5310,12 +5310,12 @@
         <v>52</v>
       </c>
       <c r="Z19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -5390,12 +5390,12 @@
         <v>52</v>
       </c>
       <c r="Z20" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5470,7 +5470,7 @@
         <v>52</v>
       </c>
       <c r="Z21" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5489,66 +5489,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" t="s">
         <v>442</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>443</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>444</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>445</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>446</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>447</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>448</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>449</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>450</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>451</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>452</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>453</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>454</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>455</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>456</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>457</v>
-      </c>
-      <c r="R1" t="s">
-        <v>458</v>
-      </c>
-      <c r="S1" t="s">
-        <v>459</v>
-      </c>
-      <c r="T1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5605,12 +5605,12 @@
         <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5729,12 +5729,12 @@
         <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5791,12 +5791,12 @@
         <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5853,12 +5853,12 @@
         <v>35</v>
       </c>
       <c r="T6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5915,12 +5915,12 @@
         <v>35</v>
       </c>
       <c r="T7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -6287,12 +6287,12 @@
         <v>35</v>
       </c>
       <c r="T13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -6411,7 +6411,7 @@
         <v>35</v>
       </c>
       <c r="T15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -6430,84 +6430,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" t="s">
         <v>467</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>468</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>469</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>471</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>472</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>473</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>474</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>475</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>476</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>477</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>478</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>479</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>480</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>481</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>482</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>483</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>484</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>485</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>486</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>487</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>488</v>
-      </c>
-      <c r="X1" t="s">
-        <v>489</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6573,21 +6573,21 @@
         <v>52</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6662,12 +6662,12 @@
         <v>38</v>
       </c>
       <c r="Z3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -6703,7 +6703,7 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
@@ -6730,24 +6730,24 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
         <v>42</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>115</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -6768,7 +6768,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -6810,24 +6810,24 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
         <v>51</v>
       </c>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>117</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6893,21 +6893,21 @@
         <v>52</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="X6" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6973,21 +6973,21 @@
         <v>108</v>
       </c>
       <c r="W7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X7" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -7053,21 +7053,21 @@
         <v>40</v>
       </c>
       <c r="W8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s">
-        <v>33</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -7112,7 +7112,7 @@
         <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -7130,24 +7130,24 @@
         <v>29</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="W9" t="s">
         <v>47</v>
       </c>
       <c r="X9" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7162,7 +7162,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -7210,24 +7210,24 @@
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="W10" t="s">
         <v>108</v>
       </c>
       <c r="X10" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>33</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7278,7 +7278,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S11" t="s">
         <v>29</v>
@@ -7290,24 +7290,24 @@
         <v>34</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
         <v>40</v>
       </c>
       <c r="X11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>115</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7453,21 +7453,21 @@
         <v>41</v>
       </c>
       <c r="W13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X13" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>199</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -7533,24 +7533,24 @@
         <v>108</v>
       </c>
       <c r="W14" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="X14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>121</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -7610,24 +7610,24 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W15" t="s">
         <v>65</v>
       </c>
       <c r="X15" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="Y15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s">
-        <v>70</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7693,21 +7693,21 @@
         <v>38</v>
       </c>
       <c r="W16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X16" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="Y16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7725,7 +7725,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -7770,24 +7770,24 @@
         <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="W17" t="s">
         <v>49</v>
       </c>
       <c r="X17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Y17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -7853,21 +7853,21 @@
         <v>47</v>
       </c>
       <c r="W18" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="X18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s">
-        <v>120</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -7927,27 +7927,27 @@
         <v>30</v>
       </c>
       <c r="U19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V19" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="W19" t="s">
         <v>41</v>
       </c>
       <c r="X19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s">
-        <v>68</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -7986,7 +7986,7 @@
         <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
@@ -8010,24 +8010,24 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s">
         <v>108</v>
       </c>
       <c r="X20" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="Y20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -8093,16 +8093,16 @@
         <v>46</v>
       </c>
       <c r="W21" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="X21" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="Y21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -8121,84 +8121,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="I1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="J1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="O1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="R1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="S1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="T1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="U1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="V1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="W1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="X1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Y1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="Z1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8518,7 +8518,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8735,30 +8735,30 @@
         <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s">
         <v>30</v>
       </c>
       <c r="V8" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="W8" t="s">
         <v>52</v>
       </c>
       <c r="X8" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8838,7 +8838,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -9144,21 +9144,21 @@
         <v>106</v>
       </c>
       <c r="W13" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="Y13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -9313,12 +9313,12 @@
         <v>38</v>
       </c>
       <c r="Z15" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9638,7 +9638,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9704,21 +9704,21 @@
         <v>40</v>
       </c>
       <c r="W20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="Y20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s">
-        <v>70</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9754,7 +9754,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N21" t="s">
         <v>29</v>
@@ -9781,19 +9781,19 @@
         <v>29</v>
       </c>
       <c r="V21" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s">
         <v>45</v>
       </c>
       <c r="X21" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="Y21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -9812,78 +9812,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="N1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="O1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Q1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="R1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="S1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="T1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="U1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="V1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="W1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="X1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9952,12 +9952,12 @@
         <v>41</v>
       </c>
       <c r="X2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10026,12 +10026,12 @@
         <v>38</v>
       </c>
       <c r="X3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10100,12 +10100,12 @@
         <v>41</v>
       </c>
       <c r="X4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10174,12 +10174,12 @@
         <v>38</v>
       </c>
       <c r="X5" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10322,12 +10322,12 @@
         <v>41</v>
       </c>
       <c r="X7" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10401,7 +10401,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -10470,12 +10470,12 @@
         <v>41</v>
       </c>
       <c r="X9" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10618,12 +10618,12 @@
         <v>41</v>
       </c>
       <c r="X11" t="s">
-        <v>401</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10692,12 +10692,12 @@
         <v>41</v>
       </c>
       <c r="X12" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10766,12 +10766,12 @@
         <v>41</v>
       </c>
       <c r="X13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -10840,12 +10840,12 @@
         <v>41</v>
       </c>
       <c r="X14" t="s">
-        <v>401</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10914,12 +10914,12 @@
         <v>41</v>
       </c>
       <c r="X15" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10988,12 +10988,12 @@
         <v>41</v>
       </c>
       <c r="X16" t="s">
-        <v>403</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -11062,12 +11062,12 @@
         <v>41</v>
       </c>
       <c r="X17" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11136,12 +11136,12 @@
         <v>41</v>
       </c>
       <c r="X18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -11210,7 +11210,7 @@
         <v>41</v>
       </c>
       <c r="X19" t="s">
-        <v>373</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -11229,78 +11229,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="I1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="N1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="O1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="P1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="Q1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="R1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="S1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="T1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="U1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="V1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="W1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="X1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11374,7 +11374,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11440,15 +11440,15 @@
         <v>40</v>
       </c>
       <c r="W3" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -11522,13 +11522,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -11588,15 +11588,15 @@
         <v>50</v>
       </c>
       <c r="W5" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11670,7 +11670,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -11789,7 +11789,7 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
         <v>29</v>
@@ -11801,24 +11801,24 @@
         <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
         <v>106</v>
       </c>
       <c r="V8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -12114,7 +12114,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -12183,12 +12183,12 @@
         <v>38</v>
       </c>
       <c r="X13" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -12262,7 +12262,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -12336,7 +12336,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12396,21 +12396,21 @@
         <v>51</v>
       </c>
       <c r="U16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" t="s">
         <v>38</v>
       </c>
-      <c r="V16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W16" t="s">
-        <v>106</v>
-      </c>
       <c r="X16" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12484,7 +12484,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12558,7 +12558,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12646,60 +12646,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="I1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="J1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="K1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="N1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="O1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="P1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="Q1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="R1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12741,21 +12741,21 @@
         <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>293</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12797,21 +12797,21 @@
         <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>401</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -12841,7 +12841,7 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
@@ -12850,24 +12850,24 @@
         <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R4" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12909,21 +12909,21 @@
         <v>106</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -12965,27 +12965,27 @@
         <v>65</v>
       </c>
       <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" t="s">
         <v>51</v>
       </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
       <c r="R6" t="s">
-        <v>607</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -13018,24 +13018,24 @@
         <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
         <v>52</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R7" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13047,7 +13047,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -13074,24 +13074,24 @@
         <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
         <v>108</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -13127,30 +13127,30 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
         <v>65</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R9" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -13186,24 +13186,24 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R10" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13245,21 +13245,21 @@
         <v>45</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R11" t="s">
-        <v>554</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13274,7 +13274,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -13298,24 +13298,24 @@
         <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O12" t="s">
         <v>33</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -13357,16 +13357,16 @@
         <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="R13" t="s">
-        <v>609</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -13385,54 +13385,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13468,21 +13468,21 @@
         <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>403</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -13500,7 +13500,7 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>37</v>
@@ -13515,24 +13515,24 @@
         <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>293</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13562,27 +13562,27 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
         <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13609,33 +13609,33 @@
         <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
         <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>628</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -13665,24 +13665,24 @@
         <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13718,21 +13718,21 @@
         <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -13756,7 +13756,7 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -13774,15 +13774,15 @@
         <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>373</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13824,15 +13824,15 @@
         <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>630</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13868,21 +13868,21 @@
         <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P10" t="s">
-        <v>293</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -13918,16 +13918,16 @@
         <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P11" t="s">
-        <v>401</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -13946,54 +13946,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1" t="s">
         <v>631</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>632</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>633</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>634</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>635</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>636</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>637</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>638</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>639</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>640</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>641</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>642</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>643</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>644</v>
-      </c>
-      <c r="P1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14043,7 +14043,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14143,7 +14143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -14238,12 +14238,12 @@
         <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -14288,12 +14288,12 @@
         <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14338,12 +14338,12 @@
         <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14393,7 +14393,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -14443,7 +14443,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -14507,54 +14507,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1" t="s">
         <v>653</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>654</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>655</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>656</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>657</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>658</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>659</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>660</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>661</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>662</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>663</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>664</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>665</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>666</v>
-      </c>
-      <c r="P1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14599,12 +14599,12 @@
         <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14649,12 +14649,12 @@
         <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14699,12 +14699,12 @@
         <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14749,12 +14749,12 @@
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14799,12 +14799,12 @@
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -14849,12 +14849,12 @@
         <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>607</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14904,7 +14904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14954,7 +14954,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14999,12 +14999,12 @@
         <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -16485,84 +16485,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1" t="s">
         <v>672</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>673</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>674</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>675</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>676</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>677</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>678</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>679</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>680</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>681</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>682</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>683</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>684</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>685</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>686</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>687</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>688</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>689</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>690</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>691</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>692</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>693</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>694</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>695</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16586,7 +16586,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -16625,24 +16625,24 @@
         <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="W2" t="s">
         <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>700</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -16708,21 +16708,21 @@
         <v>51</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>521</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16802,7 +16802,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -16868,21 +16868,21 @@
         <v>49</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16936,7 +16936,7 @@
         <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
         <v>34</v>
@@ -16945,24 +16945,24 @@
         <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W6" t="s">
         <v>65</v>
       </c>
       <c r="X6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="Y6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -17028,21 +17028,21 @@
         <v>51</v>
       </c>
       <c r="W7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y7" t="s">
         <v>51</v>
       </c>
-      <c r="X7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>41</v>
-      </c>
       <c r="Z7" t="s">
-        <v>701</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17108,21 +17108,21 @@
         <v>38</v>
       </c>
       <c r="W8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" t="s">
         <v>41</v>
       </c>
-      <c r="X8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>38</v>
-      </c>
       <c r="Z8" t="s">
-        <v>113</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17188,27 +17188,27 @@
         <v>38</v>
       </c>
       <c r="W9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" t="s">
         <v>51</v>
       </c>
-      <c r="X9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>41</v>
-      </c>
       <c r="Z9" t="s">
-        <v>31</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -17265,16 +17265,16 @@
         <v>37</v>
       </c>
       <c r="V10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="W10" t="s">
         <v>51</v>
       </c>
       <c r="X10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z10" t="s">
         <v>31</v>
@@ -17282,7 +17282,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17303,7 +17303,7 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -17345,24 +17345,24 @@
         <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s">
         <v>38</v>
       </c>
       <c r="X11" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>520</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17442,7 +17442,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17517,12 +17517,12 @@
         <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>403</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17570,7 +17570,7 @@
         <v>29</v>
       </c>
       <c r="Q14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R14" t="s">
         <v>29</v>
@@ -17585,24 +17585,24 @@
         <v>37</v>
       </c>
       <c r="V14" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="W14" t="s">
         <v>47</v>
       </c>
       <c r="X14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z14" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17674,15 +17674,15 @@
         <v>284</v>
       </c>
       <c r="Y15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z15" t="s">
-        <v>403</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17724,7 +17724,7 @@
         <v>35</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P16" t="s">
         <v>29</v>
@@ -17754,15 +17754,15 @@
         <v>57</v>
       </c>
       <c r="Y16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>493</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17828,21 +17828,21 @@
         <v>40</v>
       </c>
       <c r="W17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17917,12 +17917,12 @@
         <v>41</v>
       </c>
       <c r="Z18" t="s">
-        <v>607</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17988,21 +17988,21 @@
         <v>52</v>
       </c>
       <c r="W19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X19" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="Y19" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z19" t="s">
-        <v>555</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -18014,7 +18014,7 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
@@ -18065,24 +18065,24 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="W20" t="s">
         <v>47</v>
       </c>
       <c r="X20" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="Y20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z20" t="s">
-        <v>401</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18100,7 +18100,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -18145,19 +18145,19 @@
         <v>29</v>
       </c>
       <c r="V21" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="W21" t="s">
         <v>35</v>
       </c>
       <c r="X21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Y21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>700</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -18927,19 +18927,19 @@
         <v>32</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Y9" t="s">
         <v>38</v>
       </c>
       <c r="Z9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="s">
         <v>31</v>
@@ -19372,7 +19372,7 @@
         <v>65</v>
       </c>
       <c r="AB14" t="s">
-        <v>734</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15">
@@ -19458,7 +19458,7 @@
         <v>65</v>
       </c>
       <c r="AB15" t="s">
-        <v>436</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16">
@@ -19716,7 +19716,7 @@
         <v>65</v>
       </c>
       <c r="AB18" t="s">
-        <v>734</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19">
@@ -20137,16 +20137,16 @@
         <v>34</v>
       </c>
       <c r="Y23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="AA23" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="s">
-        <v>737</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -20165,84 +20165,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1" t="s">
         <v>738</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>739</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>740</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>741</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>742</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>743</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>744</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>745</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>746</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>747</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>748</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>749</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>750</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>751</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>752</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>753</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>754</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>755</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>756</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>757</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>758</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>759</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>760</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>761</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20397,12 +20397,12 @@
         <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>609</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20477,12 +20477,12 @@
         <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20557,12 +20557,12 @@
         <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>403</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -20586,7 +20586,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>29</v>
@@ -20625,24 +20625,24 @@
         <v>30</v>
       </c>
       <c r="V6" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="W6" t="s">
         <v>52</v>
       </c>
       <c r="X6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>121</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20717,12 +20717,12 @@
         <v>41</v>
       </c>
       <c r="Z7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20868,21 +20868,21 @@
         <v>106</v>
       </c>
       <c r="W9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="X9" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>198</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20957,12 +20957,12 @@
         <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21037,12 +21037,12 @@
         <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>606</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21117,12 +21117,12 @@
         <v>41</v>
       </c>
       <c r="Z12" t="s">
-        <v>607</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21197,12 +21197,12 @@
         <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>403</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -21277,12 +21277,12 @@
         <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21357,12 +21357,12 @@
         <v>41</v>
       </c>
       <c r="Z15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -21442,7 +21442,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21517,12 +21517,12 @@
         <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>607</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21602,7 +21602,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -21677,12 +21677,12 @@
         <v>41</v>
       </c>
       <c r="Z19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21757,12 +21757,12 @@
         <v>41</v>
       </c>
       <c r="Z20" t="s">
-        <v>401</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21837,7 +21837,7 @@
         <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -27810,16 +27810,16 @@
         <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="AC6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -27911,7 +27911,7 @@
         <v>42</v>
       </c>
       <c r="AD7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -28095,7 +28095,7 @@
         <v>42</v>
       </c>
       <c r="AD9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
@@ -28115,7 +28115,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -28175,19 +28175,19 @@
         <v>31</v>
       </c>
       <c r="Z10" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AA10" t="s">
         <v>43</v>
       </c>
       <c r="AB10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -28279,7 +28279,7 @@
         <v>52</v>
       </c>
       <c r="AD11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -28371,7 +28371,7 @@
         <v>47</v>
       </c>
       <c r="AD12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13">
@@ -28463,7 +28463,7 @@
         <v>42</v>
       </c>
       <c r="AD13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
@@ -28546,16 +28546,16 @@
         <v>47</v>
       </c>
       <c r="AA14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AD14" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">
@@ -28831,7 +28831,7 @@
         <v>42</v>
       </c>
       <c r="AD17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18">
@@ -28923,7 +28923,7 @@
         <v>47</v>
       </c>
       <c r="AD18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19">
@@ -29383,7 +29383,7 @@
         <v>52</v>
       </c>
       <c r="AD23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24">
@@ -29427,7 +29427,7 @@
         <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>30</v>
@@ -29463,19 +29463,19 @@
         <v>31</v>
       </c>
       <c r="Z24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AA24" t="s">
         <v>43</v>
       </c>
       <c r="AB24" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
@@ -29586,96 +29586,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>300</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>301</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>302</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>303</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>304</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>305</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>306</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>307</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>308</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>309</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>310</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>311</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>312</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>313</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>314</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>315</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>316</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>317</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>318</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>319</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>320</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>321</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>322</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>323</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>324</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29767,7 +29767,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -29859,7 +29859,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29946,12 +29946,12 @@
         <v>42</v>
       </c>
       <c r="AD4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -30043,7 +30043,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -30106,7 +30106,7 @@
         <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s">
         <v>29</v>
@@ -30118,24 +30118,24 @@
         <v>29</v>
       </c>
       <c r="Z6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AA6" t="s">
         <v>47</v>
       </c>
       <c r="AB6" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="AC6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -30227,7 +30227,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -30319,7 +30319,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -30411,7 +30411,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -30492,18 +30492,18 @@
         <v>49</v>
       </c>
       <c r="AB10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC10" t="s">
         <v>42</v>
       </c>
       <c r="AD10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30595,7 +30595,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30687,7 +30687,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -30779,7 +30779,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -30871,7 +30871,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -30963,7 +30963,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -31055,7 +31055,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -31147,7 +31147,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -31239,7 +31239,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31331,7 +31331,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31423,7 +31423,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -31515,7 +31515,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -31593,21 +31593,21 @@
         <v>49</v>
       </c>
       <c r="AA22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AD22" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31699,7 +31699,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31786,12 +31786,12 @@
         <v>42</v>
       </c>
       <c r="AD24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -31897,93 +31897,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
         <v>338</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>339</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>340</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>341</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>342</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>344</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>345</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>347</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>348</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>349</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>350</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>351</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>352</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>353</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>354</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>355</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>357</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>359</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>360</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>361</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -32043,7 +32043,7 @@
         <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
         <v>29</v>
@@ -32055,24 +32055,24 @@
         <v>30</v>
       </c>
       <c r="Y2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="Z2" t="s">
         <v>44</v>
       </c>
       <c r="AA2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AC2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -32117,7 +32117,7 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
         <v>29</v>
@@ -32144,24 +32144,24 @@
         <v>29</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
         <v>40</v>
       </c>
       <c r="AA3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AC3" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -32236,21 +32236,21 @@
         <v>108</v>
       </c>
       <c r="Z4" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="AA4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC4" t="s">
-        <v>67</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -32325,21 +32325,21 @@
         <v>65</v>
       </c>
       <c r="Z5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA5" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC5" t="s">
-        <v>72</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32414,21 +32414,21 @@
         <v>44</v>
       </c>
       <c r="Z6" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="AA6" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32455,7 +32455,7 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
@@ -32500,24 +32500,24 @@
         <v>29</v>
       </c>
       <c r="Y7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s">
         <v>108</v>
       </c>
       <c r="AA7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC7" t="s">
-        <v>69</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32592,21 +32592,21 @@
         <v>109</v>
       </c>
       <c r="Z8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB8" t="s">
         <v>52</v>
       </c>
-      <c r="AA8" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>65</v>
-      </c>
       <c r="AC8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -32695,7 +32695,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32770,21 +32770,21 @@
         <v>46</v>
       </c>
       <c r="Z10" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB10" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AC10" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32859,21 +32859,21 @@
         <v>50</v>
       </c>
       <c r="Z11" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="AB11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC11" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -32894,7 +32894,7 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
@@ -32945,24 +32945,24 @@
         <v>29</v>
       </c>
       <c r="Y12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s">
         <v>65</v>
       </c>
       <c r="AA12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AB12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC12" t="s">
-        <v>74</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -32974,7 +32974,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -33034,24 +33034,24 @@
         <v>29</v>
       </c>
       <c r="Y13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z13" t="s">
         <v>49</v>
       </c>
       <c r="AA13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AB13" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AC13" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -33117,30 +33117,30 @@
         <v>34</v>
       </c>
       <c r="W14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X14" t="s">
         <v>29</v>
       </c>
       <c r="Y14" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="Z14" t="s">
         <v>41</v>
       </c>
       <c r="AA14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AB14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AC14" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -33155,7 +33155,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -33212,24 +33212,24 @@
         <v>29</v>
       </c>
       <c r="Y15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z15" t="s">
         <v>40</v>
       </c>
       <c r="AA15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC15" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33304,21 +33304,21 @@
         <v>46</v>
       </c>
       <c r="Z16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AA16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC16" t="s">
-        <v>75</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -33407,7 +33407,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -33416,7 +33416,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -33479,24 +33479,24 @@
         <v>30</v>
       </c>
       <c r="Y18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="s">
         <v>65</v>
       </c>
       <c r="AA18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AB18" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AC18" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33585,7 +33585,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -33615,7 +33615,7 @@
         <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
         <v>29</v>
@@ -33657,24 +33657,24 @@
         <v>29</v>
       </c>
       <c r="Y20" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="Z20" t="s">
         <v>44</v>
       </c>
       <c r="AA20" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="AB20" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC20" t="s">
-        <v>239</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33749,21 +33749,21 @@
         <v>47</v>
       </c>
       <c r="Z21" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="AA21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB21" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC21" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33838,21 +33838,21 @@
         <v>51</v>
       </c>
       <c r="Z22" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="AA22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC22" t="s">
-        <v>372</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -33927,21 +33927,21 @@
         <v>36</v>
       </c>
       <c r="Z23" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="AA23" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AB23" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC23" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -34004,7 +34004,7 @@
         <v>29</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W24" t="s">
         <v>29</v>
@@ -34013,19 +34013,19 @@
         <v>29</v>
       </c>
       <c r="Y24" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="Z24" t="s">
         <v>51</v>
       </c>
       <c r="AA24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC24" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -34044,84 +34044,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="U1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="W1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="X1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -34201,7 +34201,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -34281,7 +34281,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -34361,7 +34361,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34441,7 +34441,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34521,7 +34521,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -34601,7 +34601,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34681,7 +34681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34761,7 +34761,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34827,21 +34827,21 @@
         <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="X10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z10" t="s">
-        <v>401</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34921,7 +34921,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -35001,7 +35001,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -35081,7 +35081,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -35161,7 +35161,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -35188,7 +35188,7 @@
         <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K15" t="s">
         <v>29</v>
@@ -35224,24 +35224,24 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="W15" t="s">
         <v>51</v>
       </c>
       <c r="X15" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="Y15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z15" t="s">
-        <v>403</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -35321,7 +35321,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35401,7 +35401,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35476,12 +35476,12 @@
         <v>51</v>
       </c>
       <c r="Z18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -35561,7 +35561,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -35641,7 +35641,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>

--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="764">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -1502,303 +1502,306 @@
     <t>i1_avg_totalgoals</t>
   </si>
   <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hgtotals</t>
+  </si>
+  <si>
+    <t>n1_agtotals</t>
+  </si>
+  <si>
+    <t>n1_totalgoals</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
     <t>3.7778</t>
   </si>
   <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>1.8</t>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.2222</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hgtotals</t>
+  </si>
+  <si>
+    <t>p1_agtotals</t>
+  </si>
+  <si>
+    <t>p1_totalgoals</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>1.8889</t>
   </si>
   <si>
     <t>1.5556</t>
   </si>
   <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hgtotals</t>
-  </si>
-  <si>
-    <t>n1_agtotals</t>
-  </si>
-  <si>
-    <t>n1_totalgoals</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.2222</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hgtotals</t>
-  </si>
-  <si>
-    <t>p1_agtotals</t>
-  </si>
-  <si>
-    <t>p1_totalgoals</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>1.8889</t>
-  </si>
-  <si>
     <t>Aberdeen</t>
   </si>
   <si>
@@ -2132,13 +2135,7 @@
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>2.2</t>
-  </si>
-  <si>
-    <t>1.9</t>
   </si>
   <si>
     <t>Alcorcon</t>
@@ -6653,13 +6650,13 @@
         <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X3" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s">
         <v>489</v>
@@ -6982,7 +6979,7 @@
         <v>41</v>
       </c>
       <c r="Z7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8">
@@ -7062,7 +7059,7 @@
         <v>41</v>
       </c>
       <c r="Z8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9">
@@ -7142,7 +7139,7 @@
         <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10">
@@ -7222,7 +7219,7 @@
         <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11">
@@ -7302,7 +7299,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12">
@@ -7313,7 +7310,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -7370,19 +7367,19 @@
         <v>29</v>
       </c>
       <c r="V12" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="W12" t="s">
         <v>42</v>
       </c>
       <c r="X12" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
@@ -7462,7 +7459,7 @@
         <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14">
@@ -7542,7 +7539,7 @@
         <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15">
@@ -7702,7 +7699,7 @@
         <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17">
@@ -7862,7 +7859,7 @@
         <v>41</v>
       </c>
       <c r="Z18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19">
@@ -8102,7 +8099,7 @@
         <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -8121,84 +8118,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" t="s">
         <v>498</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>499</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>500</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>501</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>502</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>503</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>504</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>505</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>506</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>507</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>508</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>509</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>510</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>511</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>512</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>513</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>514</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>515</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>516</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>517</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>518</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>519</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>520</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>521</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8228,7 +8225,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -8261,24 +8258,24 @@
         <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="W2" t="s">
         <v>43</v>
       </c>
       <c r="X2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8332,7 +8329,7 @@
         <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
         <v>29</v>
@@ -8341,24 +8338,24 @@
         <v>29</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="W3" t="s">
         <v>40</v>
       </c>
       <c r="X3" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>30</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -8424,21 +8421,21 @@
         <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8471,7 +8468,7 @@
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -8501,24 +8498,24 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
         <v>108</v>
       </c>
       <c r="X5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8557,7 +8554,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -8581,24 +8578,24 @@
         <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W6" t="s">
         <v>38</v>
       </c>
       <c r="X6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>116</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -8646,7 +8643,7 @@
         <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -8661,24 +8658,24 @@
         <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="W7" t="s">
         <v>108</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8758,7 +8755,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8803,7 +8800,7 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -8821,16 +8818,16 @@
         <v>29</v>
       </c>
       <c r="V9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="W9" t="s">
         <v>36</v>
       </c>
       <c r="X9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
         <v>31</v>
@@ -8838,7 +8835,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8847,7 +8844,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -8901,24 +8898,24 @@
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="W10" t="s">
         <v>65</v>
       </c>
       <c r="X10" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8984,13 +8981,13 @@
         <v>65</v>
       </c>
       <c r="W11" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="X11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s">
         <v>31</v>
@@ -8998,7 +8995,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9064,21 +9061,21 @@
         <v>41</v>
       </c>
       <c r="W12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="s">
-        <v>119</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -9153,12 +9150,12 @@
         <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9224,21 +9221,21 @@
         <v>36</v>
       </c>
       <c r="W14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="X14" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>199</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -9289,7 +9286,7 @@
         <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S15" t="s">
         <v>29</v>
@@ -9301,24 +9298,24 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="W15" t="s">
         <v>33</v>
       </c>
       <c r="X15" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="Y15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -9384,21 +9381,21 @@
         <v>41</v>
       </c>
       <c r="W16" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>68</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9464,21 +9461,21 @@
         <v>40</v>
       </c>
       <c r="W17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="X17" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="Y17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9544,13 +9541,13 @@
         <v>51</v>
       </c>
       <c r="W18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s">
         <v>31</v>
@@ -9558,7 +9555,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9624,21 +9621,21 @@
         <v>43</v>
       </c>
       <c r="W19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="X19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9718,7 +9715,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9812,78 +9809,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" t="s">
         <v>525</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>526</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>527</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>528</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>529</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>530</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>531</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>532</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>533</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>534</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>535</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>536</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>537</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>538</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>539</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>540</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>541</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>542</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>543</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>544</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>545</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>546</v>
-      </c>
-      <c r="X1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9952,12 +9949,12 @@
         <v>41</v>
       </c>
       <c r="X2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10026,12 +10023,12 @@
         <v>38</v>
       </c>
       <c r="X3" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10105,7 +10102,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10179,7 +10176,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -10253,7 +10250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10322,12 +10319,12 @@
         <v>41</v>
       </c>
       <c r="X7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10401,7 +10398,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -10470,12 +10467,12 @@
         <v>41</v>
       </c>
       <c r="X9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10549,7 +10546,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10623,7 +10620,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10692,12 +10689,12 @@
         <v>41</v>
       </c>
       <c r="X12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10771,7 +10768,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -10845,7 +10842,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10914,12 +10911,12 @@
         <v>41</v>
       </c>
       <c r="X15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10988,12 +10985,12 @@
         <v>41</v>
       </c>
       <c r="X16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -11062,12 +11059,12 @@
         <v>41</v>
       </c>
       <c r="X17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11141,7 +11138,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -12183,7 +12180,7 @@
         <v>38</v>
       </c>
       <c r="X13" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14">
@@ -12646,60 +12643,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12755,7 +12752,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12811,7 +12808,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -12867,7 +12864,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12918,12 +12915,12 @@
         <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -12979,7 +12976,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13035,7 +13032,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13091,7 +13088,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -13147,7 +13144,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -13203,7 +13200,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13259,7 +13256,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13310,12 +13307,12 @@
         <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -13385,54 +13382,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13482,7 +13479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -13532,7 +13529,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13582,7 +13579,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13632,7 +13629,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -13677,12 +13674,12 @@
         <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13727,12 +13724,12 @@
         <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -13777,12 +13774,12 @@
         <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13832,7 +13829,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13882,7 +13879,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -13946,54 +13943,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14043,7 +14040,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14093,7 +14090,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14143,7 +14140,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -14193,7 +14190,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -14238,12 +14235,12 @@
         <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -14288,12 +14285,12 @@
         <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14338,12 +14335,12 @@
         <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14393,7 +14390,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -14443,7 +14440,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -14507,54 +14504,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14604,7 +14601,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14649,12 +14646,12 @@
         <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14699,12 +14696,12 @@
         <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14754,7 +14751,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14804,7 +14801,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -14849,12 +14846,12 @@
         <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14904,7 +14901,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14954,7 +14951,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14999,12 +14996,12 @@
         <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -16485,84 +16482,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="P1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="R1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="S1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="U1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="V1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="W1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16637,12 +16634,12 @@
         <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -16717,12 +16714,12 @@
         <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>699</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16788,21 +16785,21 @@
         <v>51</v>
       </c>
       <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y4" t="s">
         <v>41</v>
       </c>
-      <c r="X4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>38</v>
-      </c>
       <c r="Z4" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -16882,7 +16879,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16962,7 +16959,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -17042,7 +17039,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17093,7 +17090,7 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s">
         <v>29</v>
@@ -17105,24 +17102,24 @@
         <v>29</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="W8" t="s">
         <v>52</v>
       </c>
       <c r="X8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z8" t="s">
-        <v>700</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17197,12 +17194,12 @@
         <v>51</v>
       </c>
       <c r="Z9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -17282,7 +17279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17348,21 +17345,21 @@
         <v>41</v>
       </c>
       <c r="W11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="X11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Y11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z11" t="s">
-        <v>701</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17392,7 +17389,7 @@
         <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -17425,24 +17422,24 @@
         <v>29</v>
       </c>
       <c r="V12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W12" t="s">
         <v>38</v>
       </c>
       <c r="X12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="s">
-        <v>116</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17451,7 +17448,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -17505,24 +17502,24 @@
         <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W13" t="s">
         <v>40</v>
       </c>
       <c r="X13" t="s">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="Y13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z13" t="s">
-        <v>493</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17602,7 +17599,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17677,12 +17674,12 @@
         <v>51</v>
       </c>
       <c r="Z15" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17762,7 +17759,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17842,7 +17839,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17908,21 +17905,21 @@
         <v>33</v>
       </c>
       <c r="W18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X18" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="Y18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z18" t="s">
-        <v>496</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -18002,7 +17999,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -18082,7 +18079,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18157,7 +18154,7 @@
         <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -18176,90 +18173,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" t="s">
         <v>702</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>703</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>704</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>705</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>706</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>707</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>708</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>709</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>710</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>711</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>712</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>713</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>714</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>715</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>716</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>717</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>718</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>719</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>720</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>721</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>722</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>723</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>724</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>725</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>726</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>727</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18345,7 +18342,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18431,7 +18428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18517,7 +18514,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18598,12 +18595,12 @@
         <v>65</v>
       </c>
       <c r="AB5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18689,7 +18686,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18775,7 +18772,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18856,12 +18853,12 @@
         <v>65</v>
       </c>
       <c r="AB8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -18947,7 +18944,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19033,7 +19030,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19119,7 +19116,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -19205,7 +19202,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19291,7 +19288,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19377,7 +19374,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -19458,12 +19455,12 @@
         <v>65</v>
       </c>
       <c r="AB15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19549,7 +19546,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19630,12 +19627,12 @@
         <v>65</v>
       </c>
       <c r="AB17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -19721,7 +19718,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19802,12 +19799,12 @@
         <v>65</v>
       </c>
       <c r="AB19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -19888,12 +19885,12 @@
         <v>65</v>
       </c>
       <c r="AB20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19974,12 +19971,12 @@
         <v>65</v>
       </c>
       <c r="AB21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -20060,12 +20057,12 @@
         <v>65</v>
       </c>
       <c r="AB22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20165,84 +20162,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1" t="s">
         <v>737</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>738</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>739</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>740</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>741</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>742</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>743</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>744</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>745</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>746</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>747</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>748</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>749</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>750</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>751</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>752</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>753</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>754</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>755</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>756</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>757</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>758</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>759</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>760</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20322,7 +20319,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20397,12 +20394,12 @@
         <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20477,12 +20474,12 @@
         <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20557,12 +20554,12 @@
         <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -20637,12 +20634,12 @@
         <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20722,7 +20719,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20802,7 +20799,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20882,7 +20879,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20962,7 +20959,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21037,12 +21034,12 @@
         <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>699</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21117,12 +21114,12 @@
         <v>41</v>
       </c>
       <c r="Z12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21197,12 +21194,12 @@
         <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -21277,12 +21274,12 @@
         <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21362,7 +21359,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -21442,7 +21439,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21517,12 +21514,12 @@
         <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21602,7 +21599,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -21682,7 +21679,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21762,7 +21759,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21837,7 +21834,7 @@
         <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="801">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -935,1315 +935,1327 @@
     <t>59</t>
   </si>
   <si>
+    <t>3.0625</t>
+  </si>
+  <si>
     <t>2.9333</t>
   </si>
   <si>
+    <t>2.9375</t>
+  </si>
+  <si>
+    <t>2.5294</t>
+  </si>
+  <si>
+    <t>3.5333</t>
+  </si>
+  <si>
+    <t>3.4706</t>
+  </si>
+  <si>
+    <t>3.3125</t>
+  </si>
+  <si>
+    <t>3.4375</t>
+  </si>
+  <si>
+    <t>2.6875</t>
+  </si>
+  <si>
+    <t>2.7647</t>
+  </si>
+  <si>
+    <t>2.5625</t>
+  </si>
+  <si>
     <t>2.3125</t>
   </si>
   <si>
+    <t>3.0667</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hgtotals</t>
+  </si>
+  <si>
+    <t>e3_agtotals</t>
+  </si>
+  <si>
+    <t>e3_totalgoals</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>2.1875</t>
+  </si>
+  <si>
+    <t>2.0667</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.6667</t>
+  </si>
+  <si>
+    <t>3.1875</t>
+  </si>
+  <si>
     <t>2.875</t>
   </si>
   <si>
-    <t>2.8125</t>
-  </si>
-  <si>
-    <t>2.9375</t>
-  </si>
-  <si>
-    <t>2.5625</t>
-  </si>
-  <si>
-    <t>3.5333</t>
+    <t>2.125</t>
   </si>
   <si>
     <t>2.25</t>
   </si>
   <si>
-    <t>3.6875</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.4375</t>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>2.625</t>
+  </si>
+  <si>
+    <t>2.4667</t>
+  </si>
+  <si>
+    <t>1.375</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hgtotals</t>
+  </si>
+  <si>
+    <t>ec_agtotals</t>
+  </si>
+  <si>
+    <t>ec_totalgoals</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>2.2</t>
   </si>
   <si>
     <t>2.8667</t>
   </si>
   <si>
-    <t>2.625</t>
-  </si>
-  <si>
-    <t>2.1875</t>
-  </si>
-  <si>
-    <t>3.0667</t>
-  </si>
-  <si>
-    <t>2.6875</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hgtotals</t>
-  </si>
-  <si>
-    <t>e3_agtotals</t>
-  </si>
-  <si>
-    <t>e3_totalgoals</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>2.6667</t>
-  </si>
-  <si>
-    <t>2.6</t>
+    <t>2.2857</t>
+  </si>
+  <si>
+    <t>3.1429</t>
+  </si>
+  <si>
+    <t>2.5333</t>
+  </si>
+  <si>
+    <t>2.4286</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hgtotals</t>
+  </si>
+  <si>
+    <t>f1_agtotals</t>
+  </si>
+  <si>
+    <t>f1_totalgoals</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>3.4615</t>
+  </si>
+  <si>
+    <t>3.2308</t>
+  </si>
+  <si>
+    <t>2.5385</t>
+  </si>
+  <si>
+    <t>2.6154</t>
+  </si>
+  <si>
+    <t>2.3846</t>
+  </si>
+  <si>
+    <t>3.3077</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hgtotals</t>
+  </si>
+  <si>
+    <t>f2_agtotals</t>
+  </si>
+  <si>
+    <t>f2_totalgoals</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>1.6667</t>
+  </si>
+  <si>
+    <t>1.8667</t>
+  </si>
+  <si>
+    <t>2.1333</t>
   </si>
   <si>
     <t>2.3333</t>
   </si>
   <si>
-    <t>2.0667</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>3.1333</t>
-  </si>
-  <si>
-    <t>2.4667</t>
+    <t>1.4667</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
   <si>
     <t>2.2667</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.5333</t>
-  </si>
-  <si>
-    <t>2.7333</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hgtotals</t>
-  </si>
-  <si>
-    <t>ec_agtotals</t>
-  </si>
-  <si>
-    <t>ec_totalgoals</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>3.3077</t>
-  </si>
-  <si>
-    <t>3.1429</t>
-  </si>
-  <si>
-    <t>2.2143</t>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hgtotals</t>
+  </si>
+  <si>
+    <t>g1_agtotals</t>
+  </si>
+  <si>
+    <t>g1_totalgoals</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>3.3333</t>
+  </si>
+  <si>
+    <t>2.1111</t>
+  </si>
+  <si>
+    <t>1.4444</t>
+  </si>
+  <si>
+    <t>2.5556</t>
+  </si>
+  <si>
+    <t>1.8889</t>
+  </si>
+  <si>
+    <t>2.2222</t>
+  </si>
+  <si>
+    <t>3.2222</t>
+  </si>
+  <si>
+    <t>3.4444</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hgtotals</t>
+  </si>
+  <si>
+    <t>i1_agtotals</t>
+  </si>
+  <si>
+    <t>i1_totalgoals</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>3.0833</t>
+  </si>
+  <si>
+    <t>3.4167</t>
+  </si>
+  <si>
+    <t>2.5833</t>
+  </si>
+  <si>
+    <t>3.6667</t>
+  </si>
+  <si>
+    <t>3.8333</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>2.1667</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.8333</t>
+  </si>
+  <si>
+    <t>2.4167</t>
+  </si>
+  <si>
+    <t>2.8333</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hgtotals</t>
+  </si>
+  <si>
+    <t>n1_agtotals</t>
+  </si>
+  <si>
+    <t>n1_totalgoals</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>3.6364</t>
+  </si>
+  <si>
+    <t>3.9167</t>
+  </si>
+  <si>
+    <t>3.4545</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hgtotals</t>
+  </si>
+  <si>
+    <t>p1_agtotals</t>
+  </si>
+  <si>
+    <t>p1_totalgoals</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>1.7273</t>
+  </si>
+  <si>
+    <t>2.7273</t>
+  </si>
+  <si>
+    <t>1.9091</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hgtotals</t>
+  </si>
+  <si>
+    <t>sc0_agtotals</t>
+  </si>
+  <si>
+    <t>sc0_totalgoals</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>3.5833</t>
+  </si>
+  <si>
+    <t>1.5385</t>
+  </si>
+  <si>
+    <t>2.7692</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hgtotals</t>
+  </si>
+  <si>
+    <t>sc1_agtotals</t>
+  </si>
+  <si>
+    <t>sc1_totalgoals</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>2.7143</t>
+  </si>
+  <si>
+    <t>1.8571</t>
+  </si>
+  <si>
+    <t>2.0714</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
   </si>
   <si>
     <t>3.4286</t>
   </si>
   <si>
-    <t>2.7692</t>
-  </si>
-  <si>
-    <t>2.2857</t>
-  </si>
-  <si>
-    <t>2.5385</t>
-  </si>
-  <si>
-    <t>3.2308</t>
-  </si>
-  <si>
-    <t>2.3846</t>
-  </si>
-  <si>
-    <t>2.75</t>
+    <t>2.6429</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Ath.Bilbao</t>
+  </si>
+  <si>
+    <t>Ath.Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Real.Madrid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>sp1_hgtotals</t>
+  </si>
+  <si>
+    <t>sp1_agtotals</t>
+  </si>
+  <si>
+    <t>sp1_totalgoals</t>
+  </si>
+  <si>
+    <t>sp1_games_played</t>
+  </si>
+  <si>
+    <t>sp1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
   </si>
   <si>
     <t>1.9167</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hgtotals</t>
-  </si>
-  <si>
-    <t>f1_agtotals</t>
-  </si>
-  <si>
-    <t>f1_totalgoals</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>3.4615</t>
-  </si>
-  <si>
-    <t>2.6154</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hgtotals</t>
-  </si>
-  <si>
-    <t>f2_agtotals</t>
-  </si>
-  <si>
-    <t>f2_totalgoals</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>1.6667</t>
-  </si>
-  <si>
-    <t>1.8667</t>
-  </si>
-  <si>
-    <t>2.1333</t>
-  </si>
-  <si>
-    <t>1.4667</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hgtotals</t>
-  </si>
-  <si>
-    <t>g1_agtotals</t>
-  </si>
-  <si>
-    <t>g1_totalgoals</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>3.3333</t>
-  </si>
-  <si>
-    <t>2.1111</t>
-  </si>
-  <si>
-    <t>1.4444</t>
-  </si>
-  <si>
-    <t>2.5556</t>
-  </si>
-  <si>
-    <t>1.8889</t>
-  </si>
-  <si>
-    <t>2.2222</t>
-  </si>
-  <si>
-    <t>3.2222</t>
-  </si>
-  <si>
-    <t>3.4444</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hgtotals</t>
-  </si>
-  <si>
-    <t>i1_agtotals</t>
-  </si>
-  <si>
-    <t>i1_totalgoals</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>3.0833</t>
-  </si>
-  <si>
-    <t>3.4167</t>
-  </si>
-  <si>
-    <t>2.5833</t>
-  </si>
-  <si>
-    <t>3.6667</t>
-  </si>
-  <si>
-    <t>3.8333</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>2.1667</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>1.8333</t>
-  </si>
-  <si>
-    <t>2.4167</t>
-  </si>
-  <si>
-    <t>2.8333</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hgtotals</t>
-  </si>
-  <si>
-    <t>n1_agtotals</t>
-  </si>
-  <si>
-    <t>n1_totalgoals</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>3.6364</t>
-  </si>
-  <si>
-    <t>3.9167</t>
-  </si>
-  <si>
-    <t>3.4545</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hgtotals</t>
-  </si>
-  <si>
-    <t>p1_agtotals</t>
-  </si>
-  <si>
-    <t>p1_totalgoals</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>1.7273</t>
-  </si>
-  <si>
-    <t>2.7273</t>
-  </si>
-  <si>
-    <t>1.9091</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hgtotals</t>
-  </si>
-  <si>
-    <t>sc0_agtotals</t>
-  </si>
-  <si>
-    <t>sc0_totalgoals</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>3.5833</t>
-  </si>
-  <si>
-    <t>1.5385</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Ayr</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Partick</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hgtotals</t>
-  </si>
-  <si>
-    <t>sc1_agtotals</t>
-  </si>
-  <si>
-    <t>sc1_totalgoals</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Inverness C</t>
-  </si>
-  <si>
-    <t>Queen of Sth</t>
-  </si>
-  <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>1.7692</t>
+    <t>1.5833</t>
   </si>
   <si>
     <t>2.0769</t>
   </si>
   <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
+    <t>1.9231</t>
+  </si>
+  <si>
+    <t>2.2308</t>
   </si>
   <si>
     <t>3.1538</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Ath.Bilbao</t>
-  </si>
-  <si>
-    <t>Ath.Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Elche</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real.Madrid</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>sp1_hgtotals</t>
-  </si>
-  <si>
-    <t>sp1_agtotals</t>
-  </si>
-  <si>
-    <t>sp1_totalgoals</t>
-  </si>
-  <si>
-    <t>sp1_games_played</t>
-  </si>
-  <si>
-    <t>sp1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>1.5833</t>
-  </si>
-  <si>
-    <t>1.9231</t>
-  </si>
-  <si>
-    <t>2.2308</t>
   </si>
   <si>
     <t>Alcorcon</t>
@@ -3894,84 +3906,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" t="s">
         <v>436</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>437</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>438</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>439</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>440</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>441</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>442</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>443</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>444</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>445</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>446</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>447</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>448</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>449</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>450</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>451</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>452</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>453</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>454</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>455</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>456</v>
-      </c>
-      <c r="W1" t="s">
-        <v>457</v>
-      </c>
-      <c r="X1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -4046,12 +4058,12 @@
         <v>43</v>
       </c>
       <c r="Z2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -4131,7 +4143,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -4211,7 +4223,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -4286,12 +4298,12 @@
         <v>43</v>
       </c>
       <c r="Z5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4366,12 +4378,12 @@
         <v>43</v>
       </c>
       <c r="Z6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4446,12 +4458,12 @@
         <v>43</v>
       </c>
       <c r="Z7" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4526,12 +4538,12 @@
         <v>43</v>
       </c>
       <c r="Z8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4606,12 +4618,12 @@
         <v>43</v>
       </c>
       <c r="Z9" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -4686,12 +4698,12 @@
         <v>43</v>
       </c>
       <c r="Z10" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4766,12 +4778,12 @@
         <v>43</v>
       </c>
       <c r="Z11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4846,12 +4858,12 @@
         <v>43</v>
       </c>
       <c r="Z12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -4926,12 +4938,12 @@
         <v>43</v>
       </c>
       <c r="Z13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -5006,12 +5018,12 @@
         <v>43</v>
       </c>
       <c r="Z14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -5086,12 +5098,12 @@
         <v>43</v>
       </c>
       <c r="Z15" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -5166,12 +5178,12 @@
         <v>43</v>
       </c>
       <c r="Z16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -5246,12 +5258,12 @@
         <v>43</v>
       </c>
       <c r="Z17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -5326,12 +5338,12 @@
         <v>43</v>
       </c>
       <c r="Z18" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5406,12 +5418,12 @@
         <v>43</v>
       </c>
       <c r="Z19" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -5491,7 +5503,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5566,7 +5578,7 @@
         <v>43</v>
       </c>
       <c r="Z21" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -5585,66 +5597,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" t="s">
         <v>470</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>471</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>472</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>473</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>474</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>475</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>476</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>477</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>478</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>479</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>480</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>481</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>482</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>483</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>484</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>485</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>486</v>
-      </c>
-      <c r="S1" t="s">
-        <v>487</v>
-      </c>
-      <c r="T1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5701,12 +5713,12 @@
         <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -5768,7 +5780,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5825,12 +5837,12 @@
         <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5887,12 +5899,12 @@
         <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5949,12 +5961,12 @@
         <v>39</v>
       </c>
       <c r="T6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6011,12 +6023,12 @@
         <v>39</v>
       </c>
       <c r="T7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -6073,12 +6085,12 @@
         <v>39</v>
       </c>
       <c r="T8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6135,12 +6147,12 @@
         <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -6197,12 +6209,12 @@
         <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6259,12 +6271,12 @@
         <v>39</v>
       </c>
       <c r="T11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6326,7 +6338,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -6383,12 +6395,12 @@
         <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -6445,12 +6457,12 @@
         <v>39</v>
       </c>
       <c r="T14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -6526,84 +6538,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" t="s">
         <v>500</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>501</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>502</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>503</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>504</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>505</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>506</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>507</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>508</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>509</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>510</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>511</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>512</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>513</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>514</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>515</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>516</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>517</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>518</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>519</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>520</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>521</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>522</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>523</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6678,12 +6690,12 @@
         <v>117</v>
       </c>
       <c r="Z2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6763,7 +6775,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -6843,7 +6855,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -6918,12 +6930,12 @@
         <v>117</v>
       </c>
       <c r="Z5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -7003,7 +7015,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -7078,12 +7090,12 @@
         <v>117</v>
       </c>
       <c r="Z7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -7163,7 +7175,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -7238,12 +7250,12 @@
         <v>117</v>
       </c>
       <c r="Z9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7318,12 +7330,12 @@
         <v>117</v>
       </c>
       <c r="Z10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7398,12 +7410,12 @@
         <v>117</v>
       </c>
       <c r="Z11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -7478,12 +7490,12 @@
         <v>117</v>
       </c>
       <c r="Z12" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7563,7 +7575,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -7643,7 +7655,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -7718,12 +7730,12 @@
         <v>117</v>
       </c>
       <c r="Z15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7803,7 +7815,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7883,7 +7895,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -7958,12 +7970,12 @@
         <v>117</v>
       </c>
       <c r="Z18" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -8038,12 +8050,12 @@
         <v>117</v>
       </c>
       <c r="Z19" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -8123,7 +8135,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -8198,7 +8210,7 @@
         <v>117</v>
       </c>
       <c r="Z21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -8217,84 +8229,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" t="s">
         <v>530</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>531</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>532</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>533</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>534</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>535</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>536</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>537</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>538</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>539</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>540</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>541</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>542</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>543</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>544</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>545</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>546</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>547</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>548</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>549</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>550</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>551</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>552</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8369,12 +8381,12 @@
         <v>117</v>
       </c>
       <c r="Z2" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8449,12 +8461,12 @@
         <v>117</v>
       </c>
       <c r="Z3" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -8534,7 +8546,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8609,12 +8621,12 @@
         <v>117</v>
       </c>
       <c r="Z5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8689,12 +8701,12 @@
         <v>117</v>
       </c>
       <c r="Z6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8774,7 +8786,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8854,7 +8866,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8929,12 +8941,12 @@
         <v>117</v>
       </c>
       <c r="Z9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -9014,7 +9026,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -9089,12 +9101,12 @@
         <v>117</v>
       </c>
       <c r="Z11" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9169,12 +9181,12 @@
         <v>117</v>
       </c>
       <c r="Z12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -9249,12 +9261,12 @@
         <v>117</v>
       </c>
       <c r="Z13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9329,12 +9341,12 @@
         <v>117</v>
       </c>
       <c r="Z14" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -9414,7 +9426,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9494,7 +9506,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9574,7 +9586,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9649,12 +9661,12 @@
         <v>117</v>
       </c>
       <c r="Z18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9729,12 +9741,12 @@
         <v>117</v>
       </c>
       <c r="Z19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9814,7 +9826,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9889,7 +9901,7 @@
         <v>117</v>
       </c>
       <c r="Z21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -9908,78 +9920,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" t="s">
         <v>560</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>561</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>562</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>563</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>564</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>565</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>566</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>567</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>568</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>569</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>570</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>571</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>572</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>573</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>574</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>575</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>576</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>577</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>578</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>579</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>580</v>
-      </c>
-      <c r="W1" t="s">
-        <v>581</v>
-      </c>
-      <c r="X1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10053,7 +10065,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10122,12 +10134,12 @@
         <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10196,12 +10208,12 @@
         <v>117</v>
       </c>
       <c r="X4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10270,12 +10282,12 @@
         <v>56</v>
       </c>
       <c r="X5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -10344,12 +10356,12 @@
         <v>56</v>
       </c>
       <c r="X6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10423,7 +10435,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10497,7 +10509,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10566,12 +10578,12 @@
         <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -10645,7 +10657,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10714,12 +10726,12 @@
         <v>117</v>
       </c>
       <c r="X11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10788,12 +10800,12 @@
         <v>117</v>
       </c>
       <c r="X12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10867,7 +10879,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10936,12 +10948,12 @@
         <v>117</v>
       </c>
       <c r="X14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11010,12 +11022,12 @@
         <v>117</v>
       </c>
       <c r="X15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11084,12 +11096,12 @@
         <v>117</v>
       </c>
       <c r="X16" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -11158,12 +11170,12 @@
         <v>117</v>
       </c>
       <c r="X17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11237,7 +11249,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -11306,7 +11318,7 @@
         <v>117</v>
       </c>
       <c r="X19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -11325,78 +11337,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
         <v>593</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>594</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>595</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>596</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>597</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>598</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>599</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>600</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>601</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>602</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>603</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>604</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>605</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>606</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>607</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>608</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>609</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>610</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>611</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>612</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>613</v>
-      </c>
-      <c r="W1" t="s">
-        <v>614</v>
-      </c>
-      <c r="X1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11470,7 +11482,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11544,7 +11556,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -11618,7 +11630,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11692,7 +11704,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11766,7 +11778,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11840,7 +11852,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -11914,7 +11926,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11988,7 +12000,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -12062,7 +12074,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -12136,7 +12148,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -12210,7 +12222,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -12279,12 +12291,12 @@
         <v>56</v>
       </c>
       <c r="X13" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -12358,7 +12370,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -12427,12 +12439,12 @@
         <v>56</v>
       </c>
       <c r="X15" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12506,7 +12518,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12575,12 +12587,12 @@
         <v>56</v>
       </c>
       <c r="X17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12649,12 +12661,12 @@
         <v>56</v>
       </c>
       <c r="X18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12742,60 +12754,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" t="s">
         <v>624</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>625</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>626</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>627</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>628</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>629</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>630</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>631</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>632</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>633</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>634</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>635</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>636</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>637</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>638</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>639</v>
-      </c>
-      <c r="R1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12846,12 +12858,12 @@
         <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12907,7 +12919,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -12963,7 +12975,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13019,7 +13031,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -13075,7 +13087,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13126,12 +13138,12 @@
         <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -13182,12 +13194,12 @@
         <v>117</v>
       </c>
       <c r="R8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -13243,7 +13255,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -13294,12 +13306,12 @@
         <v>42</v>
       </c>
       <c r="R10" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13350,12 +13362,12 @@
         <v>117</v>
       </c>
       <c r="R11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13406,12 +13418,12 @@
         <v>42</v>
       </c>
       <c r="R12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -13462,7 +13474,7 @@
         <v>42</v>
       </c>
       <c r="R13" t="s">
-        <v>400</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -13481,54 +13493,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1" t="s">
         <v>647</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>648</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>649</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>650</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>651</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>652</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>653</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>654</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>655</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>656</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>657</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>658</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>659</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>660</v>
-      </c>
-      <c r="P1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13555,30 +13567,30 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
         <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>400</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -13602,7 +13614,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -13611,24 +13623,24 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
         <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -13664,21 +13676,21 @@
         <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13708,27 +13720,27 @@
         <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
         <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -13737,7 +13749,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -13761,16 +13773,16 @@
         <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
         <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
         <v>665</v>
@@ -13778,7 +13790,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13814,13 +13826,13 @@
         <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
@@ -13828,7 +13840,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -13846,7 +13858,7 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -13861,16 +13873,16 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
         <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P8" t="s">
         <v>666</v>
@@ -13878,7 +13890,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13914,21 +13926,21 @@
         <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -13964,21 +13976,21 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s">
-        <v>404</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -14014,16 +14026,16 @@
         <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P11" t="s">
-        <v>400</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -14125,16 +14137,16 @@
         <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -14163,7 +14175,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -14172,19 +14184,19 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>403</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -14231,10 +14243,10 @@
         <v>164</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
@@ -14266,25 +14278,25 @@
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
         <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
-        <v>686</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6">
@@ -14310,7 +14322,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -14322,19 +14334,19 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
-        <v>434</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7">
@@ -14342,7 +14354,7 @@
         <v>684</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -14372,19 +14384,19 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
         <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8">
@@ -14425,16 +14437,16 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P8" t="s">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -14475,16 +14487,16 @@
         <v>41</v>
       </c>
       <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
         <v>58</v>
       </c>
-      <c r="N9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
       <c r="P9" t="s">
-        <v>402</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10">
@@ -14525,16 +14537,16 @@
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -14548,7 +14560,7 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -14581,10 +14593,10 @@
         <v>71</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -14603,54 +14615,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14677,30 +14689,30 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>622</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14736,21 +14748,21 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>405</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14786,21 +14798,21 @@
         <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="O4" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -14830,27 +14842,27 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
         <v>116</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -14859,7 +14871,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -14883,24 +14895,24 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s">
         <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -14936,21 +14948,21 @@
         <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>527</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14968,7 +14980,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -14983,30 +14995,30 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s">
         <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -15033,24 +15045,24 @@
         <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
         <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -15086,21 +15098,21 @@
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>559</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -15136,16 +15148,16 @@
         <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>558</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -16581,84 +16593,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="R1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="S1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="T1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="U1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="V1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="W1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="X1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="Y1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Z1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16733,12 +16745,12 @@
         <v>117</v>
       </c>
       <c r="Z2" t="s">
-        <v>406</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -16813,12 +16825,12 @@
         <v>117</v>
       </c>
       <c r="Z3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16893,12 +16905,12 @@
         <v>117</v>
       </c>
       <c r="Z4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -16973,12 +16985,12 @@
         <v>117</v>
       </c>
       <c r="Z5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -17053,12 +17065,12 @@
         <v>42</v>
       </c>
       <c r="Z6" t="s">
-        <v>400</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -17133,12 +17145,12 @@
         <v>42</v>
       </c>
       <c r="Z7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17218,7 +17230,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17298,7 +17310,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -17373,12 +17385,12 @@
         <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>666</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17453,12 +17465,12 @@
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17533,12 +17545,12 @@
         <v>117</v>
       </c>
       <c r="Z12" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17618,7 +17630,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17698,7 +17710,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17773,12 +17785,12 @@
         <v>42</v>
       </c>
       <c r="Z15" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17853,12 +17865,12 @@
         <v>117</v>
       </c>
       <c r="Z16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17933,12 +17945,12 @@
         <v>117</v>
       </c>
       <c r="Z17" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -18013,12 +18025,12 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -18093,12 +18105,12 @@
         <v>42</v>
       </c>
       <c r="Z19" t="s">
-        <v>686</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -18173,12 +18185,12 @@
         <v>42</v>
       </c>
       <c r="Z20" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18253,7 +18265,7 @@
         <v>117</v>
       </c>
       <c r="Z21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -18272,90 +18284,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="E1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="F1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="G1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="H1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="I1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="J1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="K1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="L1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="M1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="N1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="O1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="P1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="Q1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="R1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="S1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="T1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="U1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="V1" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="W1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="X1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="Y1" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="Z1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AA1" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="AB1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18436,12 +18448,12 @@
         <v>43</v>
       </c>
       <c r="AB2" t="s">
-        <v>311</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18527,7 +18539,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18613,7 +18625,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18699,7 +18711,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18780,12 +18792,12 @@
         <v>43</v>
       </c>
       <c r="AB6" t="s">
-        <v>311</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18866,12 +18878,12 @@
         <v>43</v>
       </c>
       <c r="AB7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18952,12 +18964,12 @@
         <v>43</v>
       </c>
       <c r="AB8" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -19038,12 +19050,12 @@
         <v>43</v>
       </c>
       <c r="AB9" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19124,12 +19136,12 @@
         <v>43</v>
       </c>
       <c r="AB10" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19210,12 +19222,12 @@
         <v>43</v>
       </c>
       <c r="AB11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -19296,12 +19308,12 @@
         <v>43</v>
       </c>
       <c r="AB12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19382,12 +19394,12 @@
         <v>43</v>
       </c>
       <c r="AB13" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19468,12 +19480,12 @@
         <v>43</v>
       </c>
       <c r="AB14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -19554,12 +19566,12 @@
         <v>43</v>
       </c>
       <c r="AB15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19640,12 +19652,12 @@
         <v>43</v>
       </c>
       <c r="AB16" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19726,12 +19738,12 @@
         <v>43</v>
       </c>
       <c r="AB17" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -19812,12 +19824,12 @@
         <v>43</v>
       </c>
       <c r="AB18" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19898,12 +19910,12 @@
         <v>43</v>
       </c>
       <c r="AB19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -19984,12 +19996,12 @@
         <v>43</v>
       </c>
       <c r="AB20" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -20070,12 +20082,12 @@
         <v>43</v>
       </c>
       <c r="AB21" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -20156,12 +20168,12 @@
         <v>43</v>
       </c>
       <c r="AB22" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20242,7 +20254,7 @@
         <v>43</v>
       </c>
       <c r="AB23" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -20261,84 +20273,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C1" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D1" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E1" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="F1" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="G1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="H1" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="I1" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="J1" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="K1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="L1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="M1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="N1" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="O1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="Q1" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="R1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="S1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="T1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="U1" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="V1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="W1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="X1" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="Y1" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="Z1" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20413,12 +20425,12 @@
         <v>117</v>
       </c>
       <c r="Z2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20493,12 +20505,12 @@
         <v>117</v>
       </c>
       <c r="Z3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20578,7 +20590,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -20653,12 +20665,12 @@
         <v>117</v>
       </c>
       <c r="Z5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -20738,7 +20750,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -20813,12 +20825,12 @@
         <v>117</v>
       </c>
       <c r="Z7" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20898,7 +20910,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20973,12 +20985,12 @@
         <v>117</v>
       </c>
       <c r="Z9" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21058,7 +21070,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21133,12 +21145,12 @@
         <v>117</v>
       </c>
       <c r="Z11" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21213,12 +21225,12 @@
         <v>117</v>
       </c>
       <c r="Z12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21293,12 +21305,12 @@
         <v>117</v>
       </c>
       <c r="Z13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -21373,12 +21385,12 @@
         <v>117</v>
       </c>
       <c r="Z14" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21458,7 +21470,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21533,12 +21545,12 @@
         <v>117</v>
       </c>
       <c r="Z16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21613,12 +21625,12 @@
         <v>117</v>
       </c>
       <c r="Z17" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21698,7 +21710,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -21773,12 +21785,12 @@
         <v>117</v>
       </c>
       <c r="Z19" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21858,7 +21870,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21933,7 +21945,7 @@
         <v>117</v>
       </c>
       <c r="Z21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -27511,7 +27523,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
         <v>33</v>
@@ -27535,16 +27547,16 @@
         <v>29</v>
       </c>
       <c r="Z2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s">
         <v>115</v>
       </c>
       <c r="AB2" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="AC2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="s">
         <v>300</v>
@@ -27639,7 +27651,7 @@
         <v>43</v>
       </c>
       <c r="AD3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
@@ -27668,7 +27680,7 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -27719,19 +27731,19 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="s">
         <v>54</v>
       </c>
       <c r="AB4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AC4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD4" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
@@ -27754,7 +27766,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -27811,19 +27823,19 @@
         <v>29</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="s">
         <v>58</v>
       </c>
       <c r="AB5" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="AC5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD5" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6">
@@ -27906,16 +27918,16 @@
         <v>47</v>
       </c>
       <c r="AA6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AB6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD6" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -27998,16 +28010,16 @@
         <v>115</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD7" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
@@ -28099,7 +28111,7 @@
         <v>57</v>
       </c>
       <c r="AD8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -28182,16 +28194,16 @@
         <v>48</v>
       </c>
       <c r="AA9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>57</v>
-      </c>
       <c r="AD9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10">
@@ -28375,7 +28387,7 @@
         <v>43</v>
       </c>
       <c r="AD11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12">
@@ -28458,16 +28470,16 @@
         <v>50</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB12" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="AC12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD12" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
@@ -28520,7 +28532,7 @@
         <v>33</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s">
         <v>29</v>
@@ -28556,10 +28568,10 @@
         <v>299</v>
       </c>
       <c r="AC13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14">
@@ -28671,7 +28683,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -28731,19 +28743,19 @@
         <v>32</v>
       </c>
       <c r="Z15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AA15" t="s">
         <v>55</v>
       </c>
       <c r="AB15" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="AC15" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16">
@@ -28835,7 +28847,7 @@
         <v>57</v>
       </c>
       <c r="AD16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17">
@@ -28924,10 +28936,10 @@
         <v>62</v>
       </c>
       <c r="AC17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18">
@@ -29010,16 +29022,16 @@
         <v>45</v>
       </c>
       <c r="AA18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AB18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC18" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19">
@@ -29102,16 +29114,16 @@
         <v>46</v>
       </c>
       <c r="AA19" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AC19" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD19" t="s">
-        <v>75</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20">
@@ -29203,7 +29215,7 @@
         <v>57</v>
       </c>
       <c r="AD20" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21">
@@ -29241,7 +29253,7 @@
         <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
         <v>29</v>
@@ -29283,19 +29295,19 @@
         <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA21" t="s">
         <v>46</v>
       </c>
       <c r="AB21" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="AC21" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD21" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
@@ -29387,7 +29399,7 @@
         <v>57</v>
       </c>
       <c r="AD22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23">
@@ -29479,7 +29491,7 @@
         <v>43</v>
       </c>
       <c r="AD23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24">
@@ -29571,7 +29583,7 @@
         <v>57</v>
       </c>
       <c r="AD24" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25">
@@ -29630,7 +29642,7 @@
         <v>29</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T25" t="s">
         <v>29</v>
@@ -29651,19 +29663,19 @@
         <v>29</v>
       </c>
       <c r="Z25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA25" t="s">
         <v>45</v>
       </c>
       <c r="AB25" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AC25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AD25" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -29682,96 +29694,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" t="s">
         <v>316</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>317</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>318</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>319</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>320</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>321</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>322</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>323</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>324</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>325</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>326</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>327</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>328</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>329</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>330</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>331</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>332</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>333</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>334</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>335</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>336</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>337</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>338</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>339</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>340</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>341</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29855,15 +29867,15 @@
         <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="s">
-        <v>351</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -29941,21 +29953,21 @@
         <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29997,7 +30009,7 @@
         <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
         <v>32</v>
@@ -30030,27 +30042,27 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s">
         <v>46</v>
       </c>
       <c r="AB4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD4" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -30131,15 +30143,15 @@
         <v>61</v>
       </c>
       <c r="AC5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -30226,12 +30238,12 @@
         <v>43</v>
       </c>
       <c r="AD6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -30318,12 +30330,12 @@
         <v>43</v>
       </c>
       <c r="AD7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -30368,7 +30380,7 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
         <v>29</v>
@@ -30398,24 +30410,24 @@
         <v>33</v>
       </c>
       <c r="Z8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s">
         <v>45</v>
       </c>
       <c r="AB8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD8" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -30507,7 +30519,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -30585,21 +30597,21 @@
         <v>54</v>
       </c>
       <c r="AA10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AC10" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30638,7 +30650,7 @@
         <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
@@ -30674,24 +30686,24 @@
         <v>30</v>
       </c>
       <c r="Z11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="s">
         <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="AC11" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD11" t="s">
-        <v>357</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30769,21 +30781,21 @@
         <v>50</v>
       </c>
       <c r="AA12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AB12" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="AC12" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD12" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -30861,21 +30873,21 @@
         <v>45</v>
       </c>
       <c r="AA13" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="AB13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC13" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD13" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -30953,21 +30965,21 @@
         <v>51</v>
       </c>
       <c r="AA14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB14" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AC14" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD14" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -31045,13 +31057,13 @@
         <v>41</v>
       </c>
       <c r="AA15" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="AB15" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="AC15" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD15" t="s">
         <v>354</v>
@@ -31059,7 +31071,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -31137,27 +31149,27 @@
         <v>46</v>
       </c>
       <c r="AA16" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="AB16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD16" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -31226,24 +31238,24 @@
         <v>29</v>
       </c>
       <c r="Z17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="s">
         <v>49</v>
       </c>
       <c r="AB17" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="AC17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -31276,7 +31288,7 @@
         <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s">
         <v>29</v>
@@ -31318,24 +31330,24 @@
         <v>29</v>
       </c>
       <c r="Z18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA18" t="s">
         <v>47</v>
       </c>
       <c r="AB18" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="AC18" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31413,21 +31425,21 @@
         <v>57</v>
       </c>
       <c r="AA19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AC19" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD19" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31481,7 +31493,7 @@
         <v>29</v>
       </c>
       <c r="S20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T20" t="s">
         <v>29</v>
@@ -31502,24 +31514,24 @@
         <v>29</v>
       </c>
       <c r="Z20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s">
         <v>49</v>
       </c>
       <c r="AB20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AC20" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD20" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -31555,7 +31567,7 @@
         <v>37</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N21" t="s">
         <v>29</v>
@@ -31594,24 +31606,24 @@
         <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="s">
         <v>45</v>
       </c>
       <c r="AB21" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="AC21" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD21" t="s">
-        <v>357</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -31689,21 +31701,21 @@
         <v>45</v>
       </c>
       <c r="AA22" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AC22" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31790,12 +31802,12 @@
         <v>43</v>
       </c>
       <c r="AD23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31858,7 +31870,7 @@
         <v>29</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W24" t="s">
         <v>29</v>
@@ -31870,24 +31882,24 @@
         <v>32</v>
       </c>
       <c r="Z24" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AA24" t="s">
         <v>39</v>
       </c>
       <c r="AB24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -31914,7 +31926,7 @@
         <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K25" t="s">
         <v>29</v>
@@ -31962,19 +31974,19 @@
         <v>29</v>
       </c>
       <c r="Z25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA25" t="s">
         <v>44</v>
       </c>
       <c r="AB25" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="AC25" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AD25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -31993,93 +32005,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" t="s">
         <v>363</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>364</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>366</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>367</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>368</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>369</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>370</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>371</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>372</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>373</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>374</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>375</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>376</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>377</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>378</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>379</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>380</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>381</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>382</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>383</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>384</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>385</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>386</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>387</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -32109,7 +32121,7 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -32145,30 +32157,30 @@
         <v>29</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
         <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
         <v>45</v>
       </c>
       <c r="AA2" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC2" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -32180,7 +32192,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -32240,24 +32252,24 @@
         <v>29</v>
       </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
         <v>45</v>
       </c>
       <c r="AA3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s">
-        <v>396</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -32332,21 +32344,21 @@
         <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AA4" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="AB4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AC4" t="s">
-        <v>397</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -32421,21 +32433,21 @@
         <v>42</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="AB5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AC5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32510,21 +32522,21 @@
         <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AA6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC6" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32584,7 +32596,7 @@
         <v>30</v>
       </c>
       <c r="U7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s">
         <v>29</v>
@@ -32596,24 +32608,24 @@
         <v>29</v>
       </c>
       <c r="Y7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="s">
         <v>51</v>
       </c>
       <c r="AA7" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="AB7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AC7" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32688,21 +32700,21 @@
         <v>119</v>
       </c>
       <c r="Z8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="AB8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AC8" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -32777,21 +32789,21 @@
         <v>43</v>
       </c>
       <c r="Z9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AA9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AB9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC9" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32866,21 +32878,21 @@
         <v>48</v>
       </c>
       <c r="Z10" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="AA10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC10" t="s">
-        <v>400</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32955,21 +32967,21 @@
         <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AB11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AC11" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -33053,12 +33065,12 @@
         <v>58</v>
       </c>
       <c r="AC12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -33124,30 +33136,30 @@
         <v>29</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s">
         <v>29</v>
       </c>
       <c r="Y13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s">
         <v>45</v>
       </c>
       <c r="AA13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC13" t="s">
-        <v>402</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -33168,7 +33180,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
@@ -33219,24 +33231,24 @@
         <v>29</v>
       </c>
       <c r="Y14" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Z14" t="s">
         <v>56</v>
       </c>
       <c r="AA14" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC14" t="s">
-        <v>31</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -33281,7 +33293,7 @@
         <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q15" t="s">
         <v>29</v>
@@ -33308,24 +33320,24 @@
         <v>29</v>
       </c>
       <c r="Y15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z15" t="s">
         <v>50</v>
       </c>
       <c r="AA15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AC15" t="s">
-        <v>74</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33400,21 +33412,21 @@
         <v>49</v>
       </c>
       <c r="Z16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA16" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="AB16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AC16" t="s">
-        <v>79</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -33477,7 +33489,7 @@
         <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W17" t="s">
         <v>33</v>
@@ -33486,24 +33498,24 @@
         <v>29</v>
       </c>
       <c r="Y17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s">
         <v>117</v>
       </c>
       <c r="AA17" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="AB17" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC17" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -33518,7 +33530,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
@@ -33575,24 +33587,24 @@
         <v>31</v>
       </c>
       <c r="Y18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z18" t="s">
         <v>41</v>
       </c>
       <c r="AA18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AB18" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC18" t="s">
-        <v>402</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33616,7 +33628,7 @@
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>29</v>
@@ -33664,24 +33676,24 @@
         <v>29</v>
       </c>
       <c r="Y19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z19" t="s">
         <v>45</v>
       </c>
       <c r="AA19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB19" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC19" t="s">
-        <v>403</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -33690,7 +33702,7 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -33753,24 +33765,24 @@
         <v>29</v>
       </c>
       <c r="Y20" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s">
         <v>41</v>
       </c>
       <c r="AA20" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="AB20" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC20" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33845,21 +33857,21 @@
         <v>57</v>
       </c>
       <c r="Z21" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AB21" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AC21" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33934,21 +33946,21 @@
         <v>50</v>
       </c>
       <c r="Z22" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="AA22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB22" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC22" t="s">
-        <v>396</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -34023,21 +34035,21 @@
         <v>38</v>
       </c>
       <c r="Z23" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="AA23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="AC23" t="s">
-        <v>405</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -34064,7 +34076,7 @@
         <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K24" t="s">
         <v>29</v>
@@ -34109,19 +34121,19 @@
         <v>29</v>
       </c>
       <c r="Y24" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>56</v>
       </c>
       <c r="AA24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB24" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AC24" t="s">
-        <v>406</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -34140,84 +34152,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" t="s">
         <v>407</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>408</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>409</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>410</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>411</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>412</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>413</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>414</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>415</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>416</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>417</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>418</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>419</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>420</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>421</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>422</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>423</v>
-      </c>
-      <c r="S1" t="s">
-        <v>424</v>
-      </c>
-      <c r="T1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U1" t="s">
-        <v>426</v>
-      </c>
-      <c r="V1" t="s">
-        <v>427</v>
-      </c>
-      <c r="W1" t="s">
-        <v>428</v>
-      </c>
-      <c r="X1" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>430</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -34297,7 +34309,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -34372,12 +34384,12 @@
         <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -34457,7 +34469,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34532,12 +34544,12 @@
         <v>42</v>
       </c>
       <c r="Z5" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34617,7 +34629,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -34697,7 +34709,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34772,12 +34784,12 @@
         <v>42</v>
       </c>
       <c r="Z8" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34852,12 +34864,12 @@
         <v>42</v>
       </c>
       <c r="Z9" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34937,7 +34949,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -35017,7 +35029,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -35092,12 +35104,12 @@
         <v>42</v>
       </c>
       <c r="Z12" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -35177,7 +35189,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -35252,12 +35264,12 @@
         <v>42</v>
       </c>
       <c r="Z14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -35332,12 +35344,12 @@
         <v>42</v>
       </c>
       <c r="Z15" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -35412,12 +35424,12 @@
         <v>42</v>
       </c>
       <c r="Z16" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35492,12 +35504,12 @@
         <v>42</v>
       </c>
       <c r="Z17" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35572,12 +35584,12 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -35652,12 +35664,12 @@
         <v>42</v>
       </c>
       <c r="Z19" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -35732,12 +35744,12 @@
         <v>42</v>
       </c>
       <c r="Z20" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -35812,7 +35824,7 @@
         <v>42</v>
       </c>
       <c r="Z21" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="841">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -977,1489 +977,1498 @@
     <t>Sheffield Weds</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>66</t>
+    <t>73</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>3.0526</t>
+  </si>
+  <si>
+    <t>2.9048</t>
+  </si>
+  <si>
+    <t>2.619</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>3.2381</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>2.7895</t>
+  </si>
+  <si>
+    <t>2.7619</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hgtotals</t>
+  </si>
+  <si>
+    <t>e3_agtotals</t>
+  </si>
+  <si>
+    <t>e3_totalgoals</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>2.3158</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.6316</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.1579</t>
+  </si>
+  <si>
+    <t>2.4737</t>
+  </si>
+  <si>
+    <t>2.6842</t>
+  </si>
+  <si>
+    <t>1.5789</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hgtotals</t>
+  </si>
+  <si>
+    <t>ec_agtotals</t>
+  </si>
+  <si>
+    <t>ec_totalgoals</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>2.8889</t>
+  </si>
+  <si>
+    <t>3.3889</t>
+  </si>
+  <si>
+    <t>2.2941</t>
+  </si>
+  <si>
+    <t>3.1111</t>
+  </si>
+  <si>
+    <t>2.9412</t>
+  </si>
+  <si>
+    <t>3.3158</t>
+  </si>
+  <si>
+    <t>3.0556</t>
+  </si>
+  <si>
+    <t>2.625</t>
+  </si>
+  <si>
+    <t>2.8333</t>
+  </si>
+  <si>
+    <t>3.0588</t>
+  </si>
+  <si>
+    <t>2.7778</t>
+  </si>
+  <si>
+    <t>2.4444</t>
+  </si>
+  <si>
+    <t>2.3529</t>
+  </si>
+  <si>
+    <t>3.1667</t>
+  </si>
+  <si>
+    <t>2.6111</t>
+  </si>
+  <si>
+    <t>3.2222</t>
+  </si>
+  <si>
+    <t>2.8421</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hgtotals</t>
+  </si>
+  <si>
+    <t>f1_agtotals</t>
+  </si>
+  <si>
+    <t>f1_totalgoals</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>2.3125</t>
+  </si>
+  <si>
+    <t>2.4706</t>
+  </si>
+  <si>
+    <t>3.2941</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hgtotals</t>
+  </si>
+  <si>
+    <t>f2_agtotals</t>
+  </si>
+  <si>
+    <t>f2_totalgoals</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1.5294</t>
+  </si>
+  <si>
+    <t>2.0588</t>
+  </si>
+  <si>
+    <t>1.8235</t>
+  </si>
+  <si>
+    <t>2.1765</t>
+  </si>
+  <si>
+    <t>2.1176</t>
+  </si>
+  <si>
+    <t>2.6471</t>
+  </si>
+  <si>
+    <t>1.5882</t>
+  </si>
+  <si>
+    <t>2.2353</t>
+  </si>
+  <si>
+    <t>1.7647</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hgtotals</t>
+  </si>
+  <si>
+    <t>g1_agtotals</t>
+  </si>
+  <si>
+    <t>g1_totalgoals</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
   </si>
   <si>
     <t>3.25</t>
   </si>
   <si>
-    <t>3.1111</t>
-  </si>
-  <si>
-    <t>2.9</t>
+    <t>2.1667</t>
   </si>
   <si>
     <t>2.25</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>2.9474</t>
-  </si>
-  <si>
-    <t>2.3684</t>
-  </si>
-  <si>
-    <t>3.6842</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>2.3158</t>
-  </si>
-  <si>
-    <t>3.2105</t>
-  </si>
-  <si>
-    <t>3.4737</t>
-  </si>
-  <si>
-    <t>2.5789</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.4737</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>2.2632</t>
-  </si>
-  <si>
-    <t>2.8947</t>
-  </si>
-  <si>
-    <t>2.7778</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hgtotals</t>
-  </si>
-  <si>
-    <t>e3_agtotals</t>
-  </si>
-  <si>
-    <t>e3_totalgoals</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
+    <t>2.0833</t>
+  </si>
+  <si>
+    <t>2.5833</t>
+  </si>
+  <si>
+    <t>2.9167</t>
+  </si>
+  <si>
+    <t>3.6667</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hgtotals</t>
+  </si>
+  <si>
+    <t>i1_agtotals</t>
+  </si>
+  <si>
+    <t>i1_totalgoals</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>3.375</t>
+  </si>
+  <si>
+    <t>3.0625</t>
+  </si>
+  <si>
+    <t>2.375</t>
+  </si>
+  <si>
+    <t>3.875</t>
+  </si>
+  <si>
+    <t>3.3125</t>
+  </si>
+  <si>
+    <t>2.6875</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>2.1875</t>
+  </si>
+  <si>
+    <t>2.125</t>
+  </si>
+  <si>
+    <t>1.9375</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hgtotals</t>
+  </si>
+  <si>
+    <t>n1_agtotals</t>
+  </si>
+  <si>
+    <t>n1_totalgoals</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>4.1333</t>
+  </si>
+  <si>
+    <t>3.4667</t>
+  </si>
+  <si>
+    <t>2.5333</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hgtotals</t>
+  </si>
+  <si>
+    <t>p1_agtotals</t>
+  </si>
+  <si>
+    <t>p1_totalgoals</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>2.6154</t>
+  </si>
+  <si>
+    <t>2.4167</t>
+  </si>
+  <si>
+    <t>3.4615</t>
+  </si>
+  <si>
+    <t>2.3846</t>
+  </si>
+  <si>
+    <t>3.0769</t>
+  </si>
+  <si>
+    <t>2.2308</t>
+  </si>
+  <si>
+    <t>2.1538</t>
+  </si>
+  <si>
+    <t>1.9231</t>
+  </si>
+  <si>
+    <t>3.1538</t>
+  </si>
+  <si>
+    <t>2.8462</t>
+  </si>
+  <si>
+    <t>2.9231</t>
+  </si>
+  <si>
+    <t>2.0769</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hgtotals</t>
+  </si>
+  <si>
+    <t>sc0_agtotals</t>
+  </si>
+  <si>
+    <t>sc0_totalgoals</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>1.9412</t>
+  </si>
+  <si>
+    <t>3.0667</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hgtotals</t>
+  </si>
+  <si>
+    <t>sc1_agtotals</t>
+  </si>
+  <si>
+    <t>sc1_totalgoals</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>1.875</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>2.2143</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Ath.Bilbao</t>
+  </si>
+  <si>
+    <t>Ath.Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Real.Madrid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>sp1_hgtotals</t>
+  </si>
+  <si>
+    <t>sp1_agtotals</t>
+  </si>
+  <si>
+    <t>sp1_totalgoals</t>
+  </si>
+  <si>
+    <t>sp1_games_played</t>
+  </si>
+  <si>
+    <t>sp1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.8667</t>
+  </si>
+  <si>
+    <t>1.8125</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Las.Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>Sociedad.B</t>
+  </si>
+  <si>
+    <t>Sp.Gijon</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>sp2_hgtotals</t>
+  </si>
+  <si>
+    <t>sp2_agtotals</t>
+  </si>
+  <si>
+    <t>sp2_totalgoals</t>
+  </si>
+  <si>
+    <t>sp2_games_played</t>
+  </si>
+  <si>
+    <t>sp2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>1.8947</t>
+  </si>
+  <si>
+    <t>1.8421</t>
   </si>
   <si>
     <t>2.5263</t>
   </si>
   <si>
-    <t>2.6842</t>
-  </si>
-  <si>
-    <t>2.1579</t>
-  </si>
-  <si>
-    <t>2.1111</t>
+    <t>2.1053</t>
+  </si>
+  <si>
+    <t>2.4211</t>
+  </si>
+  <si>
+    <t>2.2105</t>
+  </si>
+  <si>
+    <t>2.0526</t>
   </si>
   <si>
     <t>2.7368</t>
-  </si>
-  <si>
-    <t>2.6316</t>
-  </si>
-  <si>
-    <t>2.4211</t>
-  </si>
-  <si>
-    <t>2.7895</t>
-  </si>
-  <si>
-    <t>2.1053</t>
-  </si>
-  <si>
-    <t>2.5556</t>
-  </si>
-  <si>
-    <t>1.6111</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hgtotals</t>
-  </si>
-  <si>
-    <t>ec_agtotals</t>
-  </si>
-  <si>
-    <t>ec_totalgoals</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>2.8889</t>
-  </si>
-  <si>
-    <t>3.3889</t>
-  </si>
-  <si>
-    <t>2.2941</t>
-  </si>
-  <si>
-    <t>2.9412</t>
-  </si>
-  <si>
-    <t>3.3158</t>
-  </si>
-  <si>
-    <t>3.0556</t>
-  </si>
-  <si>
-    <t>2.625</t>
-  </si>
-  <si>
-    <t>2.8333</t>
-  </si>
-  <si>
-    <t>3.0588</t>
-  </si>
-  <si>
-    <t>2.4444</t>
-  </si>
-  <si>
-    <t>2.375</t>
-  </si>
-  <si>
-    <t>3.1667</t>
-  </si>
-  <si>
-    <t>2.6111</t>
-  </si>
-  <si>
-    <t>3.2222</t>
-  </si>
-  <si>
-    <t>2.8421</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hgtotals</t>
-  </si>
-  <si>
-    <t>f1_agtotals</t>
-  </si>
-  <si>
-    <t>f1_totalgoals</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>2.3125</t>
-  </si>
-  <si>
-    <t>2.4706</t>
-  </si>
-  <si>
-    <t>2.3529</t>
-  </si>
-  <si>
-    <t>3.2941</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hgtotals</t>
-  </si>
-  <si>
-    <t>f2_agtotals</t>
-  </si>
-  <si>
-    <t>f2_totalgoals</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1.5294</t>
-  </si>
-  <si>
-    <t>2.0588</t>
-  </si>
-  <si>
-    <t>1.8235</t>
-  </si>
-  <si>
-    <t>2.1765</t>
-  </si>
-  <si>
-    <t>2.1176</t>
-  </si>
-  <si>
-    <t>2.6471</t>
-  </si>
-  <si>
-    <t>1.5882</t>
-  </si>
-  <si>
-    <t>2.2353</t>
-  </si>
-  <si>
-    <t>1.7647</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hgtotals</t>
-  </si>
-  <si>
-    <t>g1_agtotals</t>
-  </si>
-  <si>
-    <t>g1_totalgoals</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>2.1667</t>
-  </si>
-  <si>
-    <t>2.0833</t>
-  </si>
-  <si>
-    <t>2.5833</t>
-  </si>
-  <si>
-    <t>2.9167</t>
-  </si>
-  <si>
-    <t>3.6667</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hgtotals</t>
-  </si>
-  <si>
-    <t>i1_agtotals</t>
-  </si>
-  <si>
-    <t>i1_totalgoals</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>3.375</t>
-  </si>
-  <si>
-    <t>3.0625</t>
-  </si>
-  <si>
-    <t>3.875</t>
-  </si>
-  <si>
-    <t>3.3125</t>
-  </si>
-  <si>
-    <t>2.6875</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>2.1875</t>
-  </si>
-  <si>
-    <t>2.125</t>
-  </si>
-  <si>
-    <t>1.9375</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hgtotals</t>
-  </si>
-  <si>
-    <t>n1_agtotals</t>
-  </si>
-  <si>
-    <t>n1_totalgoals</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>4.1333</t>
-  </si>
-  <si>
-    <t>3.4667</t>
-  </si>
-  <si>
-    <t>2.5333</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hgtotals</t>
-  </si>
-  <si>
-    <t>p1_agtotals</t>
-  </si>
-  <si>
-    <t>p1_totalgoals</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>2.6154</t>
-  </si>
-  <si>
-    <t>2.4167</t>
-  </si>
-  <si>
-    <t>3.4615</t>
-  </si>
-  <si>
-    <t>2.3846</t>
-  </si>
-  <si>
-    <t>3.0769</t>
-  </si>
-  <si>
-    <t>2.2308</t>
-  </si>
-  <si>
-    <t>2.1538</t>
-  </si>
-  <si>
-    <t>1.9231</t>
-  </si>
-  <si>
-    <t>3.1538</t>
-  </si>
-  <si>
-    <t>2.8462</t>
-  </si>
-  <si>
-    <t>2.9231</t>
-  </si>
-  <si>
-    <t>2.0769</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hgtotals</t>
-  </si>
-  <si>
-    <t>sc0_agtotals</t>
-  </si>
-  <si>
-    <t>sc0_totalgoals</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>1.9412</t>
-  </si>
-  <si>
-    <t>3.0667</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Ayr</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Partick</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hgtotals</t>
-  </si>
-  <si>
-    <t>sc1_agtotals</t>
-  </si>
-  <si>
-    <t>sc1_totalgoals</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Inverness C</t>
-  </si>
-  <si>
-    <t>Queen of Sth</t>
-  </si>
-  <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>1.875</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>2.8667</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
-    <t>2.2143</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Ath.Bilbao</t>
-  </si>
-  <si>
-    <t>Ath.Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Elche</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real.Madrid</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>sp1_hgtotals</t>
-  </si>
-  <si>
-    <t>sp1_agtotals</t>
-  </si>
-  <si>
-    <t>sp1_totalgoals</t>
-  </si>
-  <si>
-    <t>sp1_games_played</t>
-  </si>
-  <si>
-    <t>sp1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.8125</t>
-  </si>
-  <si>
-    <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Amorebieta</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>Las.Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Sociedad.B</t>
-  </si>
-  <si>
-    <t>Sp.Gijon</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>sp2_hgtotals</t>
-  </si>
-  <si>
-    <t>sp2_agtotals</t>
-  </si>
-  <si>
-    <t>sp2_totalgoals</t>
-  </si>
-  <si>
-    <t>sp2_games_played</t>
-  </si>
-  <si>
-    <t>sp2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Sociedad B</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
-  </si>
-  <si>
-    <t>1.8947</t>
-  </si>
-  <si>
-    <t>1.8421</t>
-  </si>
-  <si>
-    <t>2.2105</t>
-  </si>
-  <si>
-    <t>2.0526</t>
   </si>
   <si>
     <t>1.7368</t>
@@ -4017,84 +4026,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" t="s">
         <v>463</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>464</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>465</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>466</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>467</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>468</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>469</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>470</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>471</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>472</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>473</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>474</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>475</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>476</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>477</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>478</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>479</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>480</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>481</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>482</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>483</v>
-      </c>
-      <c r="W1" t="s">
-        <v>484</v>
-      </c>
-      <c r="X1" t="s">
-        <v>485</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>486</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -4169,12 +4178,12 @@
         <v>72</v>
       </c>
       <c r="Z2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -4249,12 +4258,12 @@
         <v>72</v>
       </c>
       <c r="Z3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -4334,7 +4343,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -4397,7 +4406,7 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="W5" t="s">
         <v>43</v>
@@ -4409,12 +4418,12 @@
         <v>72</v>
       </c>
       <c r="Z5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4489,12 +4498,12 @@
         <v>72</v>
       </c>
       <c r="Z6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4574,7 +4583,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -4649,12 +4658,12 @@
         <v>72</v>
       </c>
       <c r="Z8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4729,12 +4738,12 @@
         <v>72</v>
       </c>
       <c r="Z9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -4809,12 +4818,12 @@
         <v>72</v>
       </c>
       <c r="Z10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4889,12 +4898,12 @@
         <v>72</v>
       </c>
       <c r="Z11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4974,7 +4983,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -5049,12 +5058,12 @@
         <v>72</v>
       </c>
       <c r="Z13" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -5129,12 +5138,12 @@
         <v>72</v>
       </c>
       <c r="Z14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -5209,12 +5218,12 @@
         <v>72</v>
       </c>
       <c r="Z15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -5289,12 +5298,12 @@
         <v>72</v>
       </c>
       <c r="Z16" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -5369,12 +5378,12 @@
         <v>72</v>
       </c>
       <c r="Z17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -5449,12 +5458,12 @@
         <v>72</v>
       </c>
       <c r="Z18" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5529,12 +5538,12 @@
         <v>72</v>
       </c>
       <c r="Z19" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -5614,7 +5623,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5689,7 +5698,7 @@
         <v>72</v>
       </c>
       <c r="Z21" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5708,66 +5717,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" t="s">
         <v>502</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>503</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>504</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>505</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>506</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>507</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>508</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>509</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>510</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>511</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>512</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>513</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>514</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>515</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>516</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>517</v>
-      </c>
-      <c r="R1" t="s">
-        <v>518</v>
-      </c>
-      <c r="S1" t="s">
-        <v>519</v>
-      </c>
-      <c r="T1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5824,12 +5833,12 @@
         <v>119</v>
       </c>
       <c r="T2" t="s">
-        <v>316</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -5874,7 +5883,7 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q3" t="s">
         <v>121</v>
@@ -5891,7 +5900,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5948,12 +5957,12 @@
         <v>119</v>
       </c>
       <c r="T4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -6015,7 +6024,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6072,12 +6081,12 @@
         <v>119</v>
       </c>
       <c r="T6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -6125,7 +6134,7 @@
         <v>120</v>
       </c>
       <c r="Q7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="R7" t="s">
         <v>50</v>
@@ -6139,7 +6148,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -6196,12 +6205,12 @@
         <v>119</v>
       </c>
       <c r="T8" t="s">
-        <v>319</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6258,12 +6267,12 @@
         <v>119</v>
       </c>
       <c r="T9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -6320,12 +6329,12 @@
         <v>119</v>
       </c>
       <c r="T10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6387,7 +6396,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6435,7 +6444,7 @@
         <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="R12" t="s">
         <v>174</v>
@@ -6444,12 +6453,12 @@
         <v>119</v>
       </c>
       <c r="T12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -6506,12 +6515,12 @@
         <v>119</v>
       </c>
       <c r="T13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -6568,12 +6577,12 @@
         <v>119</v>
       </c>
       <c r="T14" t="s">
-        <v>316</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -6630,7 +6639,7 @@
         <v>119</v>
       </c>
       <c r="T15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -6649,84 +6658,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1" t="s">
         <v>529</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>530</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>531</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>532</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>533</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>534</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>535</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>536</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>537</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>538</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>539</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>540</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>541</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>542</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>543</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>544</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>545</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>546</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>547</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>548</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>549</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>550</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>551</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>552</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6801,12 +6810,12 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6886,7 +6895,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -6966,7 +6975,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -7046,7 +7055,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -7121,12 +7130,12 @@
         <v>42</v>
       </c>
       <c r="Z6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -7206,7 +7215,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -7281,12 +7290,12 @@
         <v>42</v>
       </c>
       <c r="Z8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -7361,12 +7370,12 @@
         <v>42</v>
       </c>
       <c r="Z9" t="s">
-        <v>427</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7441,12 +7450,12 @@
         <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7521,12 +7530,12 @@
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7606,7 +7615,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7681,12 +7690,12 @@
         <v>42</v>
       </c>
       <c r="Z13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -7766,7 +7775,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -7841,12 +7850,12 @@
         <v>42</v>
       </c>
       <c r="Z15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7926,7 +7935,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -8001,12 +8010,12 @@
         <v>42</v>
       </c>
       <c r="Z17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -8081,12 +8090,12 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -8166,7 +8175,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -8246,7 +8255,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -8321,7 +8330,7 @@
         <v>42</v>
       </c>
       <c r="Z21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -8340,84 +8349,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" t="s">
         <v>560</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>561</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>562</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>563</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>564</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>565</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>566</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>567</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>568</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>569</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>570</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>571</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>572</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>573</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>574</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>575</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>576</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>577</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>578</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>579</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>580</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>581</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>582</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>583</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8492,12 +8501,12 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8577,7 +8586,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -8652,12 +8661,12 @@
         <v>42</v>
       </c>
       <c r="Z4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8737,7 +8746,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8812,12 +8821,12 @@
         <v>42</v>
       </c>
       <c r="Z6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8897,7 +8906,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8977,7 +8986,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -9052,12 +9061,12 @@
         <v>42</v>
       </c>
       <c r="Z9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -9132,12 +9141,12 @@
         <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -9212,12 +9221,12 @@
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>319</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9292,12 +9301,12 @@
         <v>42</v>
       </c>
       <c r="Z12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -9372,12 +9381,12 @@
         <v>42</v>
       </c>
       <c r="Z13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9440,7 +9449,7 @@
         <v>33</v>
       </c>
       <c r="V14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="W14" t="s">
         <v>54</v>
@@ -9452,12 +9461,12 @@
         <v>42</v>
       </c>
       <c r="Z14" t="s">
-        <v>427</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -9532,12 +9541,12 @@
         <v>42</v>
       </c>
       <c r="Z15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9612,12 +9621,12 @@
         <v>42</v>
       </c>
       <c r="Z16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -9697,7 +9706,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9772,12 +9781,12 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -9852,12 +9861,12 @@
         <v>42</v>
       </c>
       <c r="Z19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9937,7 +9946,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -10031,78 +10040,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" t="s">
         <v>588</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>589</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>590</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>591</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>592</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>593</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>594</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>595</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>596</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>597</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>598</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>599</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>600</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>601</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>602</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>603</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>604</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>605</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>606</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>607</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>608</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>609</v>
-      </c>
-      <c r="X1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10176,7 +10185,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10250,7 +10259,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10319,12 +10328,12 @@
         <v>56</v>
       </c>
       <c r="X4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10393,12 +10402,12 @@
         <v>56</v>
       </c>
       <c r="X5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -10467,12 +10476,12 @@
         <v>56</v>
       </c>
       <c r="X6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10546,7 +10555,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10615,12 +10624,12 @@
         <v>56</v>
       </c>
       <c r="X8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10694,7 +10703,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -10763,12 +10772,12 @@
         <v>56</v>
       </c>
       <c r="X10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10842,7 +10851,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10916,7 +10925,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -10985,12 +10994,12 @@
         <v>56</v>
       </c>
       <c r="X13" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11064,7 +11073,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11138,7 +11147,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11207,12 +11216,12 @@
         <v>56</v>
       </c>
       <c r="X16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -11286,7 +11295,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11360,7 +11369,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -11417,7 +11426,7 @@
         <v>29</v>
       </c>
       <c r="T19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="U19" t="s">
         <v>45</v>
@@ -11448,78 +11457,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" t="s">
         <v>621</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>622</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>623</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>624</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>625</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>626</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>627</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>628</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>629</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>630</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>631</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>632</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>633</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>634</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>635</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>636</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>637</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>638</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>639</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>640</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>641</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>642</v>
-      </c>
-      <c r="X1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11588,12 +11597,12 @@
         <v>117</v>
       </c>
       <c r="X2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11653,7 +11662,7 @@
         <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="V3" t="s">
         <v>46</v>
@@ -11662,12 +11671,12 @@
         <v>119</v>
       </c>
       <c r="X3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -11736,12 +11745,12 @@
         <v>117</v>
       </c>
       <c r="X4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11815,7 +11824,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11884,12 +11893,12 @@
         <v>117</v>
       </c>
       <c r="X6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11958,12 +11967,12 @@
         <v>117</v>
       </c>
       <c r="X7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12032,12 +12041,12 @@
         <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -12106,12 +12115,12 @@
         <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -12180,12 +12189,12 @@
         <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -12259,7 +12268,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -12328,12 +12337,12 @@
         <v>117</v>
       </c>
       <c r="X12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -12402,12 +12411,12 @@
         <v>117</v>
       </c>
       <c r="X13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -12476,12 +12485,12 @@
         <v>117</v>
       </c>
       <c r="X14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -12550,12 +12559,12 @@
         <v>117</v>
       </c>
       <c r="X15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12624,12 +12633,12 @@
         <v>117</v>
       </c>
       <c r="X16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12698,12 +12707,12 @@
         <v>117</v>
       </c>
       <c r="X17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12777,7 +12786,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12865,60 +12874,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C1" t="s">
         <v>661</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>662</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>663</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>664</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>665</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>666</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>667</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>668</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>669</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>670</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>671</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>672</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>673</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>674</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>675</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>676</v>
-      </c>
-      <c r="R1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12974,7 +12983,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -13030,7 +13039,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -13086,7 +13095,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -13137,12 +13146,12 @@
         <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -13198,7 +13207,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13240,21 +13249,21 @@
         <v>121</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>223</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -13272,7 +13281,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -13293,24 +13302,24 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O8" t="s">
         <v>121</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>585</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -13366,7 +13375,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -13422,7 +13431,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13473,12 +13482,12 @@
         <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13529,12 +13538,12 @@
         <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -13585,7 +13594,7 @@
         <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -13604,54 +13613,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1" t="s">
         <v>685</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>686</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>687</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>688</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>689</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>690</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>691</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>692</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>693</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>694</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>695</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>696</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>697</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>698</v>
-      </c>
-      <c r="P1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13701,7 +13710,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -13746,12 +13755,12 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -13801,7 +13810,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13846,12 +13855,12 @@
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -13896,12 +13905,12 @@
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -13946,12 +13955,12 @@
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -13996,12 +14005,12 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>319</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14046,12 +14055,12 @@
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14096,12 +14105,12 @@
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>319</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -14146,7 +14155,7 @@
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -14165,54 +14174,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1" t="s">
         <v>704</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>705</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>706</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>707</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>708</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>709</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>710</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>711</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>712</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>713</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>714</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>715</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>716</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>717</v>
-      </c>
-      <c r="P1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14248,21 +14257,21 @@
         <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>723</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -14312,7 +14321,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14357,12 +14366,12 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>316</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -14412,7 +14421,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -14457,12 +14466,12 @@
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -14507,12 +14516,12 @@
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -14557,15 +14566,15 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -14595,24 +14604,24 @@
         <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
         <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>619</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -14662,7 +14671,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -14726,54 +14735,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1" t="s">
         <v>724</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>725</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>726</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>727</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>728</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>729</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>730</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>731</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>732</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>733</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>734</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>735</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>736</v>
-      </c>
-      <c r="O1" t="s">
-        <v>737</v>
-      </c>
-      <c r="P1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14818,12 +14827,12 @@
         <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -14868,12 +14877,12 @@
         <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14923,7 +14932,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -14968,12 +14977,12 @@
         <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -15018,12 +15027,12 @@
         <v>120</v>
       </c>
       <c r="P6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -15073,7 +15082,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -15123,7 +15132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -15168,12 +15177,12 @@
         <v>56</v>
       </c>
       <c r="P9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -15223,7 +15232,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -16704,84 +16713,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1" t="s">
         <v>744</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>745</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>746</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>747</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>748</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>749</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>750</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>751</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>752</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>753</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>754</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>755</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>756</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>757</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>758</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>759</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>760</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>761</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>762</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>763</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>764</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>765</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>766</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>767</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16856,12 +16865,12 @@
         <v>56</v>
       </c>
       <c r="Z2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -16936,12 +16945,12 @@
         <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -17016,12 +17025,12 @@
         <v>56</v>
       </c>
       <c r="Z4" t="s">
-        <v>723</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -17101,7 +17110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -17181,7 +17190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -17261,7 +17270,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17336,12 +17345,12 @@
         <v>42</v>
       </c>
       <c r="Z8" t="s">
-        <v>427</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17416,12 +17425,12 @@
         <v>42</v>
       </c>
       <c r="Z9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -17496,12 +17505,12 @@
         <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17576,12 +17585,12 @@
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -17661,7 +17670,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17741,7 +17750,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17821,7 +17830,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17896,12 +17905,12 @@
         <v>42</v>
       </c>
       <c r="Z15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17976,12 +17985,12 @@
         <v>42</v>
       </c>
       <c r="Z16" t="s">
-        <v>316</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -18056,12 +18065,12 @@
         <v>56</v>
       </c>
       <c r="Z17" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -18141,7 +18150,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -18221,7 +18230,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -18301,7 +18310,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18376,7 +18385,7 @@
         <v>56</v>
       </c>
       <c r="Z21" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -18395,90 +18404,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C1" t="s">
         <v>775</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>776</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>777</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>778</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>779</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>780</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>781</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>782</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>783</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>784</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>785</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>786</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>787</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>788</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>789</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>790</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>791</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>792</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>793</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>794</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>795</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>796</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>797</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>798</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>799</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>800</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18559,12 +18568,12 @@
         <v>47</v>
       </c>
       <c r="AB2" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18645,12 +18654,12 @@
         <v>47</v>
       </c>
       <c r="AB3" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18731,12 +18740,12 @@
         <v>47</v>
       </c>
       <c r="AB4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18817,12 +18826,12 @@
         <v>47</v>
       </c>
       <c r="AB5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18903,12 +18912,12 @@
         <v>47</v>
       </c>
       <c r="AB6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -18989,12 +18998,12 @@
         <v>47</v>
       </c>
       <c r="AB7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -19075,12 +19084,12 @@
         <v>47</v>
       </c>
       <c r="AB8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -19161,12 +19170,12 @@
         <v>47</v>
       </c>
       <c r="AB9" t="s">
-        <v>372</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19247,12 +19256,12 @@
         <v>47</v>
       </c>
       <c r="AB10" t="s">
-        <v>380</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19338,7 +19347,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -19419,12 +19428,12 @@
         <v>47</v>
       </c>
       <c r="AB12" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19505,12 +19514,12 @@
         <v>47</v>
       </c>
       <c r="AB13" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19591,12 +19600,12 @@
         <v>47</v>
       </c>
       <c r="AB14" t="s">
-        <v>378</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -19677,12 +19686,12 @@
         <v>47</v>
       </c>
       <c r="AB15" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -19768,7 +19777,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -19849,12 +19858,12 @@
         <v>47</v>
       </c>
       <c r="AB17" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -19935,12 +19944,12 @@
         <v>47</v>
       </c>
       <c r="AB18" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -20021,12 +20030,12 @@
         <v>47</v>
       </c>
       <c r="AB19" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -20107,12 +20116,12 @@
         <v>47</v>
       </c>
       <c r="AB20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -20193,12 +20202,12 @@
         <v>47</v>
       </c>
       <c r="AB21" t="s">
-        <v>380</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -20279,12 +20288,12 @@
         <v>47</v>
       </c>
       <c r="AB22" t="s">
-        <v>376</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20365,7 +20374,7 @@
         <v>47</v>
       </c>
       <c r="AB23" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -20384,84 +20393,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="E1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="F1" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="G1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="H1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="I1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="J1" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="K1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="L1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="M1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="N1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="O1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="P1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="Q1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="R1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="S1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="T1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="U1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="V1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="W1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="X1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="Y1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="Z1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20541,7 +20550,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20616,12 +20625,12 @@
         <v>56</v>
       </c>
       <c r="Z3" t="s">
-        <v>723</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -20696,12 +20705,12 @@
         <v>56</v>
       </c>
       <c r="Z4" t="s">
-        <v>723</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -20781,7 +20790,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -20861,7 +20870,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -20941,7 +20950,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -21021,7 +21030,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -21101,7 +21110,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21181,7 +21190,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21256,12 +21265,12 @@
         <v>56</v>
       </c>
       <c r="Z11" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21336,12 +21345,12 @@
         <v>56</v>
       </c>
       <c r="Z12" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21421,7 +21430,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -21496,12 +21505,12 @@
         <v>56</v>
       </c>
       <c r="Z14" t="s">
-        <v>723</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21576,12 +21585,12 @@
         <v>56</v>
       </c>
       <c r="Z15" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21656,12 +21665,12 @@
         <v>56</v>
       </c>
       <c r="Z16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21736,12 +21745,12 @@
         <v>56</v>
       </c>
       <c r="Z17" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21816,12 +21825,12 @@
         <v>56</v>
       </c>
       <c r="Z18" t="s">
-        <v>723</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -21896,12 +21905,12 @@
         <v>56</v>
       </c>
       <c r="Z19" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -21976,12 +21985,12 @@
         <v>56</v>
       </c>
       <c r="Z20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -22047,7 +22056,7 @@
         <v>45</v>
       </c>
       <c r="W21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X21" t="s">
         <v>118</v>
@@ -27589,7 +27598,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -27658,19 +27667,19 @@
         <v>29</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="AA2" t="s">
         <v>53</v>
       </c>
       <c r="AB2" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="AC2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD2" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
@@ -27753,16 +27762,16 @@
         <v>52</v>
       </c>
       <c r="AA3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB3" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="AC3" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AD3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
@@ -27845,16 +27854,16 @@
         <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AB4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AC4" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
@@ -27937,16 +27946,16 @@
         <v>52</v>
       </c>
       <c r="AA5" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="AB5" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="AC5" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD5" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
@@ -28029,16 +28038,16 @@
         <v>53</v>
       </c>
       <c r="AA6" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="AB6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC6" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD6" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
@@ -28079,7 +28088,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
         <v>29</v>
@@ -28118,19 +28127,19 @@
         <v>29</v>
       </c>
       <c r="Z7" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="AA7" t="s">
         <v>50</v>
       </c>
       <c r="AB7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC7" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
@@ -28150,7 +28159,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -28210,19 +28219,19 @@
         <v>32</v>
       </c>
       <c r="Z8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s">
         <v>53</v>
       </c>
       <c r="AB8" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="AC8" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9">
@@ -28266,7 +28275,7 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
         <v>34</v>
@@ -28302,19 +28311,19 @@
         <v>29</v>
       </c>
       <c r="Z9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AA9" t="s">
         <v>44</v>
       </c>
       <c r="AB9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC9" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
@@ -28367,7 +28376,7 @@
         <v>33</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
         <v>29</v>
@@ -28394,19 +28403,19 @@
         <v>30</v>
       </c>
       <c r="Z10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AA10" t="s">
         <v>46</v>
       </c>
       <c r="AB10" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="AC10" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
@@ -28420,7 +28429,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -28486,7 +28495,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="s">
         <v>123</v>
@@ -28495,10 +28504,10 @@
         <v>314</v>
       </c>
       <c r="AC11" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12">
@@ -28581,16 +28590,16 @@
         <v>43</v>
       </c>
       <c r="AA12" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="AB12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC12" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD12" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13">
@@ -28673,16 +28682,16 @@
         <v>124</v>
       </c>
       <c r="AA13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB13" t="s">
         <v>315</v>
       </c>
       <c r="AC13" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14">
@@ -28765,16 +28774,16 @@
         <v>43</v>
       </c>
       <c r="AA14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC14" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15">
@@ -28830,7 +28839,7 @@
         <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S15" t="s">
         <v>33</v>
@@ -28854,19 +28863,19 @@
         <v>33</v>
       </c>
       <c r="Z15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="s">
         <v>266</v>
       </c>
       <c r="AB15" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="AC15" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16">
@@ -28949,16 +28958,16 @@
         <v>174</v>
       </c>
       <c r="AA16" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="AB16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AC16" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17">
@@ -29041,16 +29050,16 @@
         <v>52</v>
       </c>
       <c r="AA17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="AC17" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18">
@@ -29133,16 +29142,16 @@
         <v>54</v>
       </c>
       <c r="AA18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AC18" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD18" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19">
@@ -29207,7 +29216,7 @@
         <v>29</v>
       </c>
       <c r="U19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s">
         <v>33</v>
@@ -29231,10 +29240,10 @@
         <v>58</v>
       </c>
       <c r="AC19" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD19" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20">
@@ -29272,7 +29281,7 @@
         <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
         <v>29</v>
@@ -29314,19 +29323,19 @@
         <v>37</v>
       </c>
       <c r="Z20" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="AA20" t="s">
         <v>56</v>
       </c>
       <c r="AB20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AC20" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21">
@@ -29415,10 +29424,10 @@
         <v>66</v>
       </c>
       <c r="AC21" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD21" t="s">
-        <v>333</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
@@ -29501,16 +29510,16 @@
         <v>50</v>
       </c>
       <c r="AA22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AC22" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD22" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23">
@@ -29560,7 +29569,7 @@
         <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="s">
         <v>30</v>
@@ -29590,19 +29599,19 @@
         <v>32</v>
       </c>
       <c r="Z23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA23" t="s">
         <v>55</v>
       </c>
       <c r="AB23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC23" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD23" t="s">
-        <v>335</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -29670,7 +29679,7 @@
         <v>31</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W24" t="s">
         <v>29</v>
@@ -29682,19 +29691,19 @@
         <v>30</v>
       </c>
       <c r="Z24" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="AA24" t="s">
         <v>52</v>
       </c>
       <c r="AB24" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="AC24" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AD24" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25">
@@ -29711,7 +29720,7 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
@@ -29774,19 +29783,19 @@
         <v>29</v>
       </c>
       <c r="Z25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AA25" t="s">
         <v>46</v>
       </c>
       <c r="AB25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AC25" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="AD25" t="s">
-        <v>182</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -29805,96 +29814,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" t="s">
         <v>337</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>338</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>339</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>340</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>341</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>342</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>343</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>344</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>346</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>347</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>348</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>349</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>350</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>351</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>352</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>353</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>354</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>355</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>356</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>357</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>358</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>359</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29981,12 +29990,12 @@
         <v>47</v>
       </c>
       <c r="AD2" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -30001,7 +30010,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -30070,15 +30079,15 @@
         <v>58</v>
       </c>
       <c r="AC3" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD3" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -30126,7 +30135,7 @@
         <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
         <v>29</v>
@@ -30153,24 +30162,24 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s">
         <v>45</v>
       </c>
       <c r="AB4" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="AC4" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -30248,21 +30257,21 @@
         <v>56</v>
       </c>
       <c r="AA5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AB5" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="AC5" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -30346,15 +30355,15 @@
         <v>124</v>
       </c>
       <c r="AC6" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AD6" t="s">
-        <v>375</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -30432,21 +30441,21 @@
         <v>54</v>
       </c>
       <c r="AA7" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AD7" t="s">
-        <v>221</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -30488,7 +30497,7 @@
         <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -30521,24 +30530,24 @@
         <v>32</v>
       </c>
       <c r="Z8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="s">
         <v>54</v>
       </c>
       <c r="AB8" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AC8" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD8" t="s">
-        <v>376</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -30616,21 +30625,21 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AC9" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AD9" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -30654,7 +30663,7 @@
         <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -30705,24 +30714,24 @@
         <v>29</v>
       </c>
       <c r="Z10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="s">
         <v>46</v>
       </c>
       <c r="AB10" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="AC10" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD10" t="s">
-        <v>31</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30773,7 +30782,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S11" t="s">
         <v>29</v>
@@ -30797,24 +30806,24 @@
         <v>30</v>
       </c>
       <c r="Z11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="s">
         <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="AC11" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD11" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30880,7 +30889,7 @@
         <v>34</v>
       </c>
       <c r="W12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X12" t="s">
         <v>29</v>
@@ -30889,24 +30898,24 @@
         <v>37</v>
       </c>
       <c r="Z12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AA12" t="s">
         <v>51</v>
       </c>
       <c r="AB12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC12" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD12" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -30918,7 +30927,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -30981,24 +30990,24 @@
         <v>29</v>
       </c>
       <c r="Z13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="s">
         <v>121</v>
       </c>
       <c r="AB13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD13" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -31061,7 +31070,7 @@
         <v>34</v>
       </c>
       <c r="V14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W14" t="s">
         <v>31</v>
@@ -31073,24 +31082,24 @@
         <v>31</v>
       </c>
       <c r="Z14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AA14" t="s">
         <v>52</v>
       </c>
       <c r="AB14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AC14" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -31168,21 +31177,21 @@
         <v>49</v>
       </c>
       <c r="AA15" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="AB15" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="AC15" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD15" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -31251,30 +31260,30 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Y16" t="s">
         <v>32</v>
       </c>
       <c r="Z16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AA16" t="s">
         <v>121</v>
       </c>
       <c r="AB16" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC16" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD16" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -31352,21 +31361,21 @@
         <v>50</v>
       </c>
       <c r="AA17" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="AB17" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AC17" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s">
-        <v>376</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -31444,21 +31453,21 @@
         <v>49</v>
       </c>
       <c r="AA18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AB18" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="AC18" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31545,12 +31554,12 @@
         <v>47</v>
       </c>
       <c r="AD19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31628,21 +31637,21 @@
         <v>49</v>
       </c>
       <c r="AA20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="AC20" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD20" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -31699,7 +31708,7 @@
         <v>29</v>
       </c>
       <c r="T21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U21" t="s">
         <v>29</v>
@@ -31717,24 +31726,24 @@
         <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AA21" t="s">
         <v>51</v>
       </c>
       <c r="AB21" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="AC21" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AD21" t="s">
-        <v>142</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -31812,21 +31821,21 @@
         <v>45</v>
       </c>
       <c r="AA22" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AB22" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="AC22" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD22" t="s">
-        <v>377</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31904,21 +31913,21 @@
         <v>43</v>
       </c>
       <c r="AA23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AB23" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="AC23" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AD23" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31996,21 +32005,21 @@
         <v>42</v>
       </c>
       <c r="AA24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AC24" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AD24" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -32028,7 +32037,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -32085,19 +32094,19 @@
         <v>29</v>
       </c>
       <c r="Z25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s">
         <v>47</v>
       </c>
       <c r="AB25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC25" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AD25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -32116,93 +32125,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
         <v>383</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>384</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>385</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>386</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>387</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>388</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>389</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>390</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>391</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>392</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>393</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>394</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>396</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>398</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>399</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>400</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>401</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>402</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>403</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>404</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>405</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>406</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -32286,12 +32295,12 @@
         <v>173</v>
       </c>
       <c r="AC2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -32375,12 +32384,12 @@
         <v>173</v>
       </c>
       <c r="AC3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -32469,7 +32478,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -32553,12 +32562,12 @@
         <v>72</v>
       </c>
       <c r="AC5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32642,12 +32651,12 @@
         <v>173</v>
       </c>
       <c r="AC6" t="s">
-        <v>317</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32731,12 +32740,12 @@
         <v>72</v>
       </c>
       <c r="AC7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32814,18 +32823,18 @@
         <v>41</v>
       </c>
       <c r="AA8" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="AB8" t="s">
         <v>47</v>
       </c>
       <c r="AC8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -32909,12 +32918,12 @@
         <v>173</v>
       </c>
       <c r="AC9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32998,12 +33007,12 @@
         <v>42</v>
       </c>
       <c r="AC10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -33087,12 +33096,12 @@
         <v>173</v>
       </c>
       <c r="AC11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -33181,7 +33190,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -33265,12 +33274,12 @@
         <v>72</v>
       </c>
       <c r="AC13" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -33345,21 +33354,21 @@
         <v>55</v>
       </c>
       <c r="Z14" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="AA14" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="AB14" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -33443,12 +33452,12 @@
         <v>173</v>
       </c>
       <c r="AC15" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33532,12 +33541,12 @@
         <v>173</v>
       </c>
       <c r="AC16" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -33576,7 +33585,7 @@
         <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
         <v>29</v>
@@ -33609,24 +33618,24 @@
         <v>29</v>
       </c>
       <c r="Y17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Z17" t="s">
         <v>42</v>
       </c>
       <c r="AA17" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="AB17" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -33715,7 +33724,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33799,12 +33808,12 @@
         <v>173</v>
       </c>
       <c r="AC19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -33888,12 +33897,12 @@
         <v>173</v>
       </c>
       <c r="AC20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33977,12 +33986,12 @@
         <v>173</v>
       </c>
       <c r="AC21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -34066,12 +34075,12 @@
         <v>173</v>
       </c>
       <c r="AC22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -34155,12 +34164,12 @@
         <v>47</v>
       </c>
       <c r="AC23" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -34263,84 +34272,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" t="s">
         <v>432</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>433</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>434</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>435</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>436</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>437</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>438</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>439</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>440</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>441</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>442</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>443</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>444</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>445</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>446</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>447</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>448</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>449</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>450</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>451</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>452</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>453</v>
-      </c>
-      <c r="X1" t="s">
-        <v>454</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -34420,7 +34429,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -34500,7 +34509,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -34580,7 +34589,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34660,7 +34669,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -34740,7 +34749,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -34820,7 +34829,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34895,12 +34904,12 @@
         <v>72</v>
       </c>
       <c r="Z8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34980,7 +34989,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -35055,12 +35064,12 @@
         <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -35140,7 +35149,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -35220,7 +35229,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -35300,7 +35309,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -35375,12 +35384,12 @@
         <v>72</v>
       </c>
       <c r="Z14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -35455,12 +35464,12 @@
         <v>72</v>
       </c>
       <c r="Z15" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -35535,12 +35544,12 @@
         <v>72</v>
       </c>
       <c r="Z16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -35615,12 +35624,12 @@
         <v>72</v>
       </c>
       <c r="Z17" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35700,7 +35709,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -35780,7 +35789,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -35855,12 +35864,12 @@
         <v>72</v>
       </c>
       <c r="Z20" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>

--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="849">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -1538,186 +1538,186 @@
     <t>1.5556</t>
   </si>
   <si>
-    <t>2.0588</t>
+    <t>2.0556</t>
   </si>
   <si>
     <t>1.8889</t>
   </si>
   <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hgtotals</t>
+  </si>
+  <si>
+    <t>g1_agtotals</t>
+  </si>
+  <si>
+    <t>g1_totalgoals</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2.0769</t>
+  </si>
+  <si>
+    <t>1.8462</t>
+  </si>
+  <si>
+    <t>3.0769</t>
+  </si>
+  <si>
+    <t>2.2308</t>
+  </si>
+  <si>
+    <t>2.3846</t>
+  </si>
+  <si>
+    <t>2.1538</t>
+  </si>
+  <si>
+    <t>2.5385</t>
+  </si>
+  <si>
+    <t>3.2308</t>
+  </si>
+  <si>
+    <t>3.7692</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hgtotals</t>
+  </si>
+  <si>
+    <t>i1_agtotals</t>
+  </si>
+  <si>
+    <t>i1_totalgoals</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalgoals</t>
+  </si>
+  <si>
     <t>3.1176</t>
   </si>
   <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hgtotals</t>
-  </si>
-  <si>
-    <t>g1_agtotals</t>
-  </si>
-  <si>
-    <t>g1_totalgoals</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2.0769</t>
-  </si>
-  <si>
-    <t>1.8462</t>
-  </si>
-  <si>
-    <t>3.0769</t>
-  </si>
-  <si>
-    <t>2.2308</t>
-  </si>
-  <si>
-    <t>2.3846</t>
-  </si>
-  <si>
-    <t>2.1538</t>
-  </si>
-  <si>
-    <t>2.5385</t>
-  </si>
-  <si>
-    <t>3.2308</t>
-  </si>
-  <si>
-    <t>3.7692</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hgtotals</t>
-  </si>
-  <si>
-    <t>i1_agtotals</t>
-  </si>
-  <si>
-    <t>i1_totalgoals</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalgoals</t>
-  </si>
-  <si>
     <t>3.2941</t>
   </si>
   <si>
@@ -1733,186 +1733,186 @@
     <t>3.1765</t>
   </si>
   <si>
+    <t>2.7059</t>
+  </si>
+  <si>
+    <t>3.7059</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>2.1765</t>
+  </si>
+  <si>
+    <t>1.9412</t>
+  </si>
+  <si>
+    <t>2.2353</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hgtotals</t>
+  </si>
+  <si>
+    <t>n1_agtotals</t>
+  </si>
+  <si>
+    <t>n1_totalgoals</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
     <t>3.3125</t>
   </si>
   <si>
-    <t>2.7059</t>
-  </si>
-  <si>
-    <t>3.7059</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>2.1765</t>
-  </si>
-  <si>
-    <t>1.9412</t>
-  </si>
-  <si>
-    <t>2.2353</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hgtotals</t>
-  </si>
-  <si>
-    <t>n1_agtotals</t>
-  </si>
-  <si>
-    <t>n1_totalgoals</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
     <t>4.125</t>
   </si>
   <si>
@@ -2012,7 +2012,7 @@
     <t>Sp Lisbon</t>
   </si>
   <si>
-    <t>2.6154</t>
+    <t>2.7857</t>
   </si>
   <si>
     <t>2.3077</t>
@@ -2042,12 +2042,12 @@
     <t>1.8571</t>
   </si>
   <si>
-    <t>2.7857</t>
-  </si>
-  <si>
     <t>3.6154</t>
   </si>
   <si>
+    <t>2.6923</t>
+  </si>
+  <si>
     <t>Aberdeen</t>
   </si>
   <si>
@@ -2111,9 +2111,6 @@
     <t>St Mirren</t>
   </si>
   <si>
-    <t>2.0556</t>
-  </si>
-  <si>
     <t>1.5625</t>
   </si>
   <si>
@@ -2492,7 +2489,7 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>2.0526</t>
+    <t>2.95</t>
   </si>
   <si>
     <t>2.15</t>
@@ -5476,13 +5473,13 @@
         <v>212</v>
       </c>
       <c r="W18" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="X18" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="Z18" t="s">
         <v>501</v>
@@ -5621,7 +5618,7 @@
         <v>29</v>
       </c>
       <c r="R20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S20" t="s">
         <v>34</v>
@@ -5633,19 +5630,19 @@
         <v>33</v>
       </c>
       <c r="V20" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="W20" t="s">
         <v>43</v>
       </c>
       <c r="X20" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="Y20" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="Z20" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21">
@@ -5744,66 +5741,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" t="s">
         <v>504</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>505</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>506</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>507</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>508</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>509</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>510</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>511</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>512</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>513</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>514</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>515</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>516</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>517</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>518</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>519</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>520</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>521</v>
-      </c>
-      <c r="T1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5865,7 +5862,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5984,12 +5981,12 @@
         <v>114</v>
       </c>
       <c r="T4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -6046,12 +6043,12 @@
         <v>114</v>
       </c>
       <c r="T5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6108,12 +6105,12 @@
         <v>114</v>
       </c>
       <c r="T6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -6170,12 +6167,12 @@
         <v>114</v>
       </c>
       <c r="T7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -6232,12 +6229,12 @@
         <v>114</v>
       </c>
       <c r="T8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6285,7 +6282,7 @@
         <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R9" t="s">
         <v>53</v>
@@ -6294,12 +6291,12 @@
         <v>114</v>
       </c>
       <c r="T9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -6361,7 +6358,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6418,12 +6415,12 @@
         <v>114</v>
       </c>
       <c r="T11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6480,12 +6477,12 @@
         <v>114</v>
       </c>
       <c r="T12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -6547,7 +6544,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -6604,12 +6601,12 @@
         <v>114</v>
       </c>
       <c r="T14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -6666,7 +6663,7 @@
         <v>114</v>
       </c>
       <c r="T15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -6685,84 +6682,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1" t="s">
         <v>536</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>537</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>538</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>539</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>540</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>541</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>542</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>543</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>544</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>545</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>546</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>547</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>548</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>549</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>550</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>551</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>552</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>553</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>554</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>555</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>556</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>557</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>558</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>559</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6842,7 +6839,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6917,12 +6914,12 @@
         <v>113</v>
       </c>
       <c r="Z3" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -7002,7 +6999,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -7082,7 +7079,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -7157,12 +7154,12 @@
         <v>113</v>
       </c>
       <c r="Z6" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -7242,7 +7239,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -7402,7 +7399,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7482,7 +7479,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7562,7 +7559,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7642,7 +7639,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7690,7 +7687,7 @@
         <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R13" t="s">
         <v>33</v>
@@ -7705,24 +7702,24 @@
         <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W13" t="s">
         <v>45</v>
       </c>
       <c r="X13" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="Y13" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="Z13" t="s">
-        <v>217</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -7802,7 +7799,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -7882,7 +7879,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7962,7 +7959,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -8028,21 +8025,21 @@
         <v>112</v>
       </c>
       <c r="W17" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="X17" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="Y17" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="Z17" t="s">
-        <v>566</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -8122,7 +8119,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -8202,7 +8199,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -8277,12 +8274,12 @@
         <v>113</v>
       </c>
       <c r="Z20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -8357,7 +8354,7 @@
         <v>113</v>
       </c>
       <c r="Z21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -8376,84 +8373,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" t="s">
         <v>569</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>570</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>571</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>572</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>573</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>574</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>575</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>576</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>577</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>578</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>579</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>580</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>581</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>582</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>583</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>584</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>585</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>586</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>587</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>588</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>589</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>590</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>591</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>592</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8528,12 +8525,12 @@
         <v>113</v>
       </c>
       <c r="Z2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8613,7 +8610,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -8693,7 +8690,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8773,7 +8770,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8848,12 +8845,12 @@
         <v>113</v>
       </c>
       <c r="Z6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8933,7 +8930,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -9013,7 +9010,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -9093,7 +9090,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -9173,7 +9170,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -9253,7 +9250,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9333,7 +9330,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -9413,7 +9410,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9493,7 +9490,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -9568,12 +9565,12 @@
         <v>113</v>
       </c>
       <c r="Z15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9653,7 +9650,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -9733,7 +9730,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -9808,12 +9805,12 @@
         <v>113</v>
       </c>
       <c r="Z18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -9893,7 +9890,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9973,7 +9970,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -10067,78 +10064,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1" t="s">
         <v>597</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>598</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>599</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>600</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>601</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>602</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>603</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>604</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>605</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>606</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>607</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>608</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>609</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>610</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>611</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>612</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>613</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>614</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>615</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>616</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>617</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>618</v>
-      </c>
-      <c r="X1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10207,12 +10204,12 @@
         <v>42</v>
       </c>
       <c r="X2" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10286,7 +10283,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10360,7 +10357,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10434,7 +10431,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -10508,7 +10505,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10582,7 +10579,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10656,7 +10653,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10730,7 +10727,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -10804,7 +10801,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10878,7 +10875,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10952,7 +10949,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -11026,7 +11023,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11100,7 +11097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11174,7 +11171,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11248,7 +11245,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -11322,7 +11319,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11396,7 +11393,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -11453,7 +11450,7 @@
         <v>29</v>
       </c>
       <c r="T19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="U19" t="s">
         <v>51</v>
@@ -11609,19 +11606,19 @@
         <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
         <v>113</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="W2" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="X2" t="s">
         <v>659</v>
@@ -12660,7 +12657,7 @@
         <v>212</v>
       </c>
       <c r="X16" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17">
@@ -12808,7 +12805,7 @@
         <v>114</v>
       </c>
       <c r="X18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19">
@@ -12873,16 +12870,16 @@
         <v>162</v>
       </c>
       <c r="U19" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="V19" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="W19" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="X19" t="s">
-        <v>74</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -13341,7 +13338,7 @@
         <v>68</v>
       </c>
       <c r="R8" t="s">
-        <v>692</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9">
@@ -13565,7 +13562,7 @@
         <v>42</v>
       </c>
       <c r="R12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13">
@@ -13640,54 +13637,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" t="s">
         <v>694</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>695</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>696</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>697</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>698</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>699</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>700</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>701</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>702</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>703</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>704</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>705</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>706</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>707</v>
-      </c>
-      <c r="P1" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13737,7 +13734,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -13787,7 +13784,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -13832,12 +13829,12 @@
         <v>113</v>
       </c>
       <c r="P4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13887,7 +13884,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -13932,12 +13929,12 @@
         <v>113</v>
       </c>
       <c r="P6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -13982,12 +13979,12 @@
         <v>113</v>
       </c>
       <c r="P7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -14032,12 +14029,12 @@
         <v>113</v>
       </c>
       <c r="P8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -14087,7 +14084,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14137,7 +14134,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -14182,7 +14179,7 @@
         <v>113</v>
       </c>
       <c r="P11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -14201,54 +14198,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1" t="s">
         <v>714</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>715</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>716</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>717</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>718</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>719</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>720</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>721</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>722</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>723</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>724</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>725</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>726</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>727</v>
-      </c>
-      <c r="P1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14298,7 +14295,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -14348,7 +14345,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14393,12 +14390,12 @@
         <v>113</v>
       </c>
       <c r="P4" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -14448,7 +14445,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -14498,7 +14495,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -14548,7 +14545,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -14593,12 +14590,12 @@
         <v>113</v>
       </c>
       <c r="P8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -14648,7 +14645,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -14698,7 +14695,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -14762,54 +14759,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1" t="s">
         <v>733</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>734</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>735</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>736</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>737</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>738</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>739</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>740</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>741</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>742</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>743</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>744</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>745</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>746</v>
-      </c>
-      <c r="P1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14859,7 +14856,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -14909,7 +14906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14954,12 +14951,12 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -15009,7 +15006,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -15054,12 +15051,12 @@
         <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -15109,7 +15106,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -15159,7 +15156,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -15209,7 +15206,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -15254,12 +15251,12 @@
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -15304,7 +15301,7 @@
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -16740,84 +16737,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" t="s">
         <v>755</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>756</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>757</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>758</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>759</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>760</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>761</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>762</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>763</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>764</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>765</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>766</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>767</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>768</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>769</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>770</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>771</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>772</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>773</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>774</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>775</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>776</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>777</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>778</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16892,12 +16889,12 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -16972,12 +16969,12 @@
         <v>113</v>
       </c>
       <c r="Z3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -17057,7 +17054,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -17137,7 +17134,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -17217,7 +17214,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -17250,7 +17247,7 @@
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
@@ -17280,24 +17277,24 @@
         <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="W7" t="s">
         <v>45</v>
       </c>
       <c r="X7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Y7" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="Z7" t="s">
-        <v>221</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17372,12 +17369,12 @@
         <v>113</v>
       </c>
       <c r="Z8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17457,7 +17454,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -17532,12 +17529,12 @@
         <v>113</v>
       </c>
       <c r="Z10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17612,12 +17609,12 @@
         <v>113</v>
       </c>
       <c r="Z11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -17683,21 +17680,21 @@
         <v>163</v>
       </c>
       <c r="W12" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="X12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="s">
-        <v>123</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17777,7 +17774,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17857,7 +17854,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17932,12 +17929,12 @@
         <v>113</v>
       </c>
       <c r="Z15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -18017,7 +18014,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -18092,12 +18089,12 @@
         <v>42</v>
       </c>
       <c r="Z17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -18177,7 +18174,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -18257,7 +18254,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -18337,7 +18334,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18412,7 +18409,7 @@
         <v>42</v>
       </c>
       <c r="Z21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -18431,90 +18428,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1" t="s">
         <v>785</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>786</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>787</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>788</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>789</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>790</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>791</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>792</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>793</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>794</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>795</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>796</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>797</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>798</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>799</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>800</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>801</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>802</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>803</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>804</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>805</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>806</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>807</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>808</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>809</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>810</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18600,7 +18597,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18686,7 +18683,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18772,7 +18769,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18853,12 +18850,12 @@
         <v>112</v>
       </c>
       <c r="AB5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18944,7 +18941,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -19025,12 +19022,12 @@
         <v>112</v>
       </c>
       <c r="AB7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -19111,12 +19108,12 @@
         <v>112</v>
       </c>
       <c r="AB8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -19202,7 +19199,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19283,12 +19280,12 @@
         <v>112</v>
       </c>
       <c r="AB10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19374,7 +19371,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -19460,7 +19457,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19546,7 +19543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19627,12 +19624,12 @@
         <v>112</v>
       </c>
       <c r="AB14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -19718,7 +19715,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -19772,7 +19769,7 @@
         <v>29</v>
       </c>
       <c r="S16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T16" t="s">
         <v>29</v>
@@ -19787,24 +19784,24 @@
         <v>29</v>
       </c>
       <c r="X16" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="Y16" t="s">
         <v>112</v>
       </c>
       <c r="Z16" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="AA16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB16" t="s">
-        <v>31</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -19885,12 +19882,12 @@
         <v>112</v>
       </c>
       <c r="AB17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -19976,7 +19973,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -20048,21 +20045,21 @@
         <v>68</v>
       </c>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="Z19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB19" t="s">
-        <v>819</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -20143,12 +20140,12 @@
         <v>112</v>
       </c>
       <c r="AB20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -20229,12 +20226,12 @@
         <v>112</v>
       </c>
       <c r="AB21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -20320,7 +20317,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20401,7 +20398,7 @@
         <v>112</v>
       </c>
       <c r="AB23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -20420,84 +20417,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C1" t="s">
         <v>822</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>823</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>824</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>825</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>826</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>827</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>828</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>829</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>830</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>831</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>832</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>833</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>834</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>835</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>836</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>837</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>838</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>839</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>840</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>841</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>842</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>843</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>844</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>845</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20572,12 +20569,12 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20657,7 +20654,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -20737,7 +20734,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -20817,7 +20814,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -20897,7 +20894,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -20977,7 +20974,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -21043,21 +21040,21 @@
         <v>163</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="Y8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -21123,21 +21120,21 @@
         <v>113</v>
       </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X9" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="s">
-        <v>284</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21158,7 +21155,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
@@ -21200,24 +21197,24 @@
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="W10" t="s">
         <v>49</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="Y10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21292,12 +21289,12 @@
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21377,7 +21374,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21457,7 +21454,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -21537,7 +21534,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21617,7 +21614,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21697,7 +21694,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21772,12 +21769,12 @@
         <v>42</v>
       </c>
       <c r="Z17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21857,7 +21854,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -21881,7 +21878,7 @@
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
@@ -21920,24 +21917,24 @@
         <v>29</v>
       </c>
       <c r="V19" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="W19" t="s">
         <v>54</v>
       </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -22017,7 +22014,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>

--- a/GoalTotalsV2.xlsx
+++ b/GoalTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="840">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -884,162 +884,162 @@
     <t>1.7727</t>
   </si>
   <si>
+    <t>3.0435</t>
+  </si>
+  <si>
+    <t>2.3913</t>
+  </si>
+  <si>
+    <t>2.087</t>
+  </si>
+  <si>
+    <t>2.6364</t>
+  </si>
+  <si>
+    <t>2.1818</t>
+  </si>
+  <si>
+    <t>2.7826</t>
+  </si>
+  <si>
+    <t>2.3636</t>
+  </si>
+  <si>
+    <t>2.8571</t>
+  </si>
+  <si>
+    <t>2.7727</t>
+  </si>
+  <si>
+    <t>2.5909</t>
+  </si>
+  <si>
+    <t>2.1364</t>
+  </si>
+  <si>
+    <t>2.0435</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>AFC.Wimbledon</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Fleetwood.Town</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Milton.Keynes.Dons</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Sheffield.Weds</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>e2_hgtotals</t>
+  </si>
+  <si>
+    <t>e2_agtotals</t>
+  </si>
+  <si>
+    <t>e2_totalgoals</t>
+  </si>
+  <si>
+    <t>e2_games_played</t>
+  </si>
+  <si>
+    <t>e2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>3.0909</t>
+  </si>
+  <si>
+    <t>2.8182</t>
+  </si>
+  <si>
+    <t>2.5217</t>
+  </si>
+  <si>
     <t>3.1364</t>
   </si>
   <si>
-    <t>2.3913</t>
-  </si>
-  <si>
-    <t>2.087</t>
-  </si>
-  <si>
-    <t>2.6364</t>
-  </si>
-  <si>
-    <t>2.1818</t>
-  </si>
-  <si>
-    <t>2.7826</t>
-  </si>
-  <si>
-    <t>2.3636</t>
-  </si>
-  <si>
-    <t>2.8571</t>
-  </si>
-  <si>
-    <t>2.7727</t>
-  </si>
-  <si>
-    <t>2.1364</t>
-  </si>
-  <si>
-    <t>2.5909</t>
-  </si>
-  <si>
-    <t>2.0435</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>AFC.Wimbledon</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Fleetwood.Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Milton.Keynes.Dons</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Sheffield.Weds</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>e2_hgtotals</t>
-  </si>
-  <si>
-    <t>e2_agtotals</t>
-  </si>
-  <si>
-    <t>e2_totalgoals</t>
-  </si>
-  <si>
-    <t>e2_games_played</t>
-  </si>
-  <si>
-    <t>e2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>3.0909</t>
-  </si>
-  <si>
-    <t>2.8182</t>
-  </si>
-  <si>
-    <t>3.0435</t>
-  </si>
-  <si>
-    <t>2.5217</t>
-  </si>
-  <si>
     <t>3.4545</t>
   </si>
   <si>
@@ -1607,862 +1607,856 @@
     <t>Volos NFC</t>
   </si>
   <si>
-    <t>2.0714</t>
+    <t>2.8667</t>
   </si>
   <si>
     <t>3.0667</t>
   </si>
   <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.2143</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.7857</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hgtotals</t>
+  </si>
+  <si>
+    <t>i1_agtotals</t>
+  </si>
+  <si>
+    <t>i1_totalgoals</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>3.4444</t>
+  </si>
+  <si>
+    <t>3.8333</t>
+  </si>
+  <si>
+    <t>3.5556</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>2.5556</t>
+  </si>
+  <si>
+    <t>2.6471</t>
+  </si>
+  <si>
+    <t>2.3529</t>
+  </si>
+  <si>
+    <t>2.7647</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hgtotals</t>
+  </si>
+  <si>
+    <t>n1_agtotals</t>
+  </si>
+  <si>
+    <t>n1_totalgoals</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>3.3529</t>
+  </si>
+  <si>
+    <t>4.0588</t>
+  </si>
+  <si>
+    <t>3.2941</t>
+  </si>
+  <si>
+    <t>3.5294</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hgtotals</t>
+  </si>
+  <si>
+    <t>p1_agtotals</t>
+  </si>
+  <si>
+    <t>p1_totalgoals</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2.7333</t>
+  </si>
+  <si>
+    <t>3.8667</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>3.2667</t>
+  </si>
+  <si>
+    <t>2.5333</t>
+  </si>
+  <si>
+    <t>2.9333</t>
+  </si>
+  <si>
+    <t>1.8667</t>
+  </si>
+  <si>
+    <t>2.1333</t>
+  </si>
+  <si>
+    <t>3.4286</t>
+  </si>
+  <si>
+    <t>2.7857</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hgtotals</t>
+  </si>
+  <si>
+    <t>sc0_agtotals</t>
+  </si>
+  <si>
+    <t>sc0_totalgoals</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>1.8421</t>
+  </si>
+  <si>
+    <t>2.3158</t>
+  </si>
+  <si>
+    <t>2.0526</t>
+  </si>
+  <si>
+    <t>1.6111</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hgtotals</t>
+  </si>
+  <si>
+    <t>sc1_agtotals</t>
+  </si>
+  <si>
+    <t>sc1_totalgoals</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>1.8235</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>2.875</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hgtotals</t>
+  </si>
+  <si>
+    <t>sc3_agtotals</t>
+  </si>
+  <si>
+    <t>sc3_totalgoals</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>2.1765</t>
+  </si>
+  <si>
+    <t>2.9375</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Ath.Bilbao</t>
+  </si>
+  <si>
+    <t>Ath.Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Real.Madrid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>sp1_hgtotals</t>
+  </si>
+  <si>
+    <t>sp1_agtotals</t>
+  </si>
+  <si>
+    <t>sp1_totalgoals</t>
+  </si>
+  <si>
+    <t>sp1_games_played</t>
+  </si>
+  <si>
+    <t>sp1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>1.6667</t>
+  </si>
+  <si>
+    <t>1.7778</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Las.Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>Sociedad.B</t>
+  </si>
+  <si>
+    <t>Sp.Gijon</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>sp2_hgtotals</t>
+  </si>
+  <si>
+    <t>sp2_agtotals</t>
+  </si>
+  <si>
+    <t>sp2_totalgoals</t>
+  </si>
+  <si>
+    <t>sp2_games_played</t>
+  </si>
+  <si>
+    <t>sp2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>2.619</t>
+  </si>
+  <si>
+    <t>1.7619</t>
+  </si>
+  <si>
+    <t>2.5714</t>
+  </si>
+  <si>
     <t>2.2857</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.1538</t>
-  </si>
-  <si>
-    <t>2.8667</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.7857</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hgtotals</t>
-  </si>
-  <si>
-    <t>i1_agtotals</t>
-  </si>
-  <si>
-    <t>i1_totalgoals</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>3.4444</t>
-  </si>
-  <si>
-    <t>3.8333</t>
-  </si>
-  <si>
-    <t>3.5556</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>2.5556</t>
-  </si>
-  <si>
-    <t>2.6471</t>
-  </si>
-  <si>
-    <t>2.3529</t>
-  </si>
-  <si>
-    <t>2.7647</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hgtotals</t>
-  </si>
-  <si>
-    <t>n1_agtotals</t>
-  </si>
-  <si>
-    <t>n1_totalgoals</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>3.3529</t>
-  </si>
-  <si>
-    <t>4.0588</t>
-  </si>
-  <si>
-    <t>3.2941</t>
-  </si>
-  <si>
-    <t>3.5294</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hgtotals</t>
-  </si>
-  <si>
-    <t>p1_agtotals</t>
-  </si>
-  <si>
-    <t>p1_totalgoals</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2.7333</t>
-  </si>
-  <si>
-    <t>2.2143</t>
-  </si>
-  <si>
-    <t>3.8667</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>3.2667</t>
-  </si>
-  <si>
-    <t>2.5333</t>
-  </si>
-  <si>
-    <t>2.9333</t>
-  </si>
-  <si>
-    <t>1.8667</t>
-  </si>
-  <si>
-    <t>2.1333</t>
-  </si>
-  <si>
-    <t>3.4286</t>
-  </si>
-  <si>
-    <t>2.7857</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hgtotals</t>
-  </si>
-  <si>
-    <t>sc0_agtotals</t>
-  </si>
-  <si>
-    <t>sc0_totalgoals</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>1.8421</t>
-  </si>
-  <si>
-    <t>2.3158</t>
-  </si>
-  <si>
-    <t>2.0526</t>
-  </si>
-  <si>
-    <t>1.6111</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Ayr</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Partick</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hgtotals</t>
-  </si>
-  <si>
-    <t>sc1_agtotals</t>
-  </si>
-  <si>
-    <t>sc1_totalgoals</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Inverness C</t>
-  </si>
-  <si>
-    <t>Queen of Sth</t>
-  </si>
-  <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>1.8235</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>2.875</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hgtotals</t>
-  </si>
-  <si>
-    <t>sc3_agtotals</t>
-  </si>
-  <si>
-    <t>sc3_totalgoals</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
-    <t>2.1765</t>
-  </si>
-  <si>
-    <t>2.9375</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Ath.Bilbao</t>
-  </si>
-  <si>
-    <t>Ath.Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Elche</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real.Madrid</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>sp1_hgtotals</t>
-  </si>
-  <si>
-    <t>sp1_agtotals</t>
-  </si>
-  <si>
-    <t>sp1_totalgoals</t>
-  </si>
-  <si>
-    <t>sp1_games_played</t>
-  </si>
-  <si>
-    <t>sp1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>1.6667</t>
-  </si>
-  <si>
-    <t>1.7778</t>
-  </si>
-  <si>
-    <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Amorebieta</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>Las.Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Sociedad.B</t>
-  </si>
-  <si>
-    <t>Sp.Gijon</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>sp2_hgtotals</t>
-  </si>
-  <si>
-    <t>sp2_agtotals</t>
-  </si>
-  <si>
-    <t>sp2_totalgoals</t>
-  </si>
-  <si>
-    <t>sp2_games_played</t>
-  </si>
-  <si>
-    <t>sp2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Sociedad B</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
-  </si>
-  <si>
-    <t>2.619</t>
-  </si>
-  <si>
-    <t>1.7619</t>
-  </si>
-  <si>
-    <t>2.5714</t>
   </si>
   <si>
     <t>2.9524</t>
@@ -5806,7 +5800,7 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>34</v>
@@ -5824,19 +5818,19 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
         <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S2" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="T2" t="s">
-        <v>290</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3">
@@ -5924,7 +5918,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -5948,19 +5942,19 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>424</v>
+        <v>225</v>
       </c>
       <c r="Q4" t="s">
         <v>118</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="T4" t="s">
-        <v>524</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -6199,13 +6193,13 @@
         <v>225</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="T8" t="s">
         <v>526</v>
@@ -6270,7 +6264,7 @@
         <v>122</v>
       </c>
       <c r="T9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10">
@@ -6323,16 +6317,16 @@
         <v>55</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>379</v>
       </c>
       <c r="R10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>424</v>
+        <v>225</v>
       </c>
       <c r="T10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11">
@@ -6518,7 +6512,7 @@
         <v>122</v>
       </c>
       <c r="T13" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14">
@@ -6580,7 +6574,7 @@
         <v>122</v>
       </c>
       <c r="T14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15">
@@ -6642,7 +6636,7 @@
         <v>225</v>
       </c>
       <c r="T15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -6661,84 +6655,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1" t="s">
         <v>532</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>533</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>534</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>535</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>536</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>537</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>538</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>539</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>540</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>541</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>542</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>543</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>544</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>545</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>546</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>547</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>548</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>549</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>550</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>551</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>552</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>553</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>554</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6813,12 +6807,12 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6898,7 +6892,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -6978,7 +6972,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -7058,7 +7052,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -7138,7 +7132,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -7218,7 +7212,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -7298,7 +7292,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -7378,7 +7372,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7453,12 +7447,12 @@
         <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7538,7 +7532,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7618,7 +7612,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7698,7 +7692,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -7778,7 +7772,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -7858,7 +7852,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7938,7 +7932,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -8018,7 +8012,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -8098,7 +8092,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -8178,7 +8172,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -8258,7 +8252,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -8333,7 +8327,7 @@
         <v>42</v>
       </c>
       <c r="Z21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -8352,84 +8346,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" t="s">
         <v>560</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>561</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>562</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>563</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>564</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>565</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>566</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>567</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>568</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>569</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>570</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>571</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>572</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>573</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>574</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>575</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>576</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>577</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>578</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>579</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>580</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>581</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>582</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>583</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8509,7 +8503,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8584,12 +8578,12 @@
         <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -8664,12 +8658,12 @@
         <v>130</v>
       </c>
       <c r="Z4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8749,7 +8743,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8829,7 +8823,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8909,7 +8903,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8989,7 +8983,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -9069,7 +9063,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -9149,7 +9143,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -9229,7 +9223,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9309,7 +9303,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -9384,12 +9378,12 @@
         <v>130</v>
       </c>
       <c r="Z13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9469,7 +9463,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -9549,7 +9543,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9629,7 +9623,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -9709,7 +9703,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -9789,7 +9783,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -9869,7 +9863,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9949,7 +9943,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -10024,7 +10018,7 @@
         <v>130</v>
       </c>
       <c r="Z21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -10043,78 +10037,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" t="s">
         <v>589</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>590</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>591</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>592</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>593</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>594</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>595</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>596</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>597</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>598</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>599</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>600</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>601</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>602</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>603</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>604</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>605</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>606</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>607</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>608</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>609</v>
-      </c>
-      <c r="W1" t="s">
-        <v>610</v>
-      </c>
-      <c r="X1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10188,7 +10182,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10257,12 +10251,12 @@
         <v>130</v>
       </c>
       <c r="X3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10331,12 +10325,12 @@
         <v>130</v>
       </c>
       <c r="X4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -10405,12 +10399,12 @@
         <v>130</v>
       </c>
       <c r="X5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -10479,12 +10473,12 @@
         <v>130</v>
       </c>
       <c r="X6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10558,7 +10552,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10632,7 +10626,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10706,7 +10700,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -10775,12 +10769,12 @@
         <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10854,7 +10848,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10928,7 +10922,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -10997,12 +10991,12 @@
         <v>130</v>
       </c>
       <c r="X13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11076,7 +11070,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11150,7 +11144,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11224,7 +11218,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -11293,12 +11287,12 @@
         <v>130</v>
       </c>
       <c r="X17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11372,7 +11366,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -11441,7 +11435,7 @@
         <v>130</v>
       </c>
       <c r="X19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -11460,78 +11454,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" t="s">
         <v>622</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>623</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>624</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>625</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>626</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>627</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>628</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>629</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>630</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>631</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>632</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>633</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>634</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>635</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>636</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>637</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>638</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>639</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>640</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>641</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>642</v>
-      </c>
-      <c r="W1" t="s">
-        <v>643</v>
-      </c>
-      <c r="X1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11600,12 +11594,12 @@
         <v>122</v>
       </c>
       <c r="X2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11665,7 +11659,7 @@
         <v>71</v>
       </c>
       <c r="U3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="V3" t="s">
         <v>49</v>
@@ -11674,12 +11668,12 @@
         <v>225</v>
       </c>
       <c r="X3" t="s">
-        <v>652</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -11748,12 +11742,12 @@
         <v>122</v>
       </c>
       <c r="X4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11822,12 +11816,12 @@
         <v>122</v>
       </c>
       <c r="X5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11901,7 +11895,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11970,12 +11964,12 @@
         <v>122</v>
       </c>
       <c r="X7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12044,12 +12038,12 @@
         <v>122</v>
       </c>
       <c r="X8" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -12123,7 +12117,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -12192,12 +12186,12 @@
         <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -12271,7 +12265,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -12345,7 +12339,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -12414,12 +12408,12 @@
         <v>122</v>
       </c>
       <c r="X13" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -12493,7 +12487,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -12562,12 +12556,12 @@
         <v>122</v>
       </c>
       <c r="X15" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12641,7 +12635,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12710,12 +12704,12 @@
         <v>122</v>
       </c>
       <c r="X17" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12784,12 +12778,12 @@
         <v>225</v>
       </c>
       <c r="X18" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12858,7 +12852,7 @@
         <v>225</v>
       </c>
       <c r="X19" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -12877,60 +12871,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1" t="s">
         <v>662</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>663</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>664</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>665</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>666</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>667</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>668</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>669</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>670</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>671</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>672</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>673</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>674</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>675</v>
-      </c>
-      <c r="P1" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>677</v>
-      </c>
-      <c r="R1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12986,7 +12980,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -13042,7 +13036,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -13098,7 +13092,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -13149,12 +13143,12 @@
         <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -13205,12 +13199,12 @@
         <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13266,7 +13260,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -13317,12 +13311,12 @@
         <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -13378,7 +13372,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -13434,7 +13428,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13490,7 +13484,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -13541,12 +13535,12 @@
         <v>42</v>
       </c>
       <c r="R12" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -13616,54 +13610,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E1" t="s">
         <v>687</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>688</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>689</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>690</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>691</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>692</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>693</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>694</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>695</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>696</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>697</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>698</v>
-      </c>
-      <c r="N1" t="s">
-        <v>699</v>
-      </c>
-      <c r="O1" t="s">
-        <v>700</v>
-      </c>
-      <c r="P1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13713,7 +13707,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -13763,7 +13757,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -13813,7 +13807,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13863,7 +13857,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -13913,7 +13907,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -13958,12 +13952,12 @@
         <v>130</v>
       </c>
       <c r="P7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -14008,12 +14002,12 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -14058,12 +14052,12 @@
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14113,7 +14107,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -14177,54 +14171,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E1" t="s">
         <v>706</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>707</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>708</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>709</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>710</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>711</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>712</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>713</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>714</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>715</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>716</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>717</v>
-      </c>
-      <c r="N1" t="s">
-        <v>718</v>
-      </c>
-      <c r="O1" t="s">
-        <v>719</v>
-      </c>
-      <c r="P1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14269,12 +14263,12 @@
         <v>118</v>
       </c>
       <c r="P2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -14324,7 +14318,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14374,7 +14368,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -14424,7 +14418,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -14469,12 +14463,12 @@
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -14519,12 +14513,12 @@
         <v>130</v>
       </c>
       <c r="P7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -14574,7 +14568,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -14624,7 +14618,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -14674,7 +14668,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -14738,54 +14732,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E1" t="s">
         <v>726</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>727</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>728</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>729</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>730</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>731</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>732</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>733</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>734</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>735</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>736</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>737</v>
-      </c>
-      <c r="N1" t="s">
-        <v>738</v>
-      </c>
-      <c r="O1" t="s">
-        <v>739</v>
-      </c>
-      <c r="P1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14835,7 +14829,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -14885,7 +14879,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -14930,12 +14924,12 @@
         <v>130</v>
       </c>
       <c r="P4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -14985,7 +14979,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -15035,7 +15029,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -15085,7 +15079,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -15130,12 +15124,12 @@
         <v>118</v>
       </c>
       <c r="P8" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -15185,7 +15179,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -15235,7 +15229,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -15280,7 +15274,7 @@
         <v>130</v>
       </c>
       <c r="P11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -16716,84 +16710,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E1" t="s">
         <v>747</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>748</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>749</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>750</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>751</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>752</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>753</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>754</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>755</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>756</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>757</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>758</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>759</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>760</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>761</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>762</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>763</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>764</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>765</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>766</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>767</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>768</v>
-      </c>
-      <c r="X1" t="s">
-        <v>769</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>770</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16868,12 +16862,12 @@
         <v>130</v>
       </c>
       <c r="Z2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -16948,12 +16942,12 @@
         <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -17033,7 +17027,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -17113,7 +17107,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -17193,7 +17187,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -17268,12 +17262,12 @@
         <v>42</v>
       </c>
       <c r="Z7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17353,7 +17347,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17433,7 +17427,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -17513,7 +17507,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17588,12 +17582,12 @@
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -17673,7 +17667,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17727,7 +17721,7 @@
         <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="T13" t="s">
         <v>30</v>
@@ -17736,24 +17730,24 @@
         <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="W13" t="s">
         <v>49</v>
       </c>
       <c r="X13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s">
-        <v>229</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17833,7 +17827,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17913,7 +17907,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17993,7 +17987,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -18068,12 +18062,12 @@
         <v>130</v>
       </c>
       <c r="Z17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -18153,7 +18147,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -18219,21 +18213,21 @@
         <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="X19" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -18313,7 +18307,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18407,90 +18401,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E1" t="s">
         <v>777</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>778</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>779</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>780</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>781</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>782</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>783</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>784</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>785</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>786</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>787</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>788</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>789</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>790</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>791</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>792</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>793</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>794</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>795</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>796</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>797</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>798</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>799</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>800</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>801</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>802</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18571,12 +18565,12 @@
         <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18662,7 +18656,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18743,12 +18737,12 @@
         <v>55</v>
       </c>
       <c r="AB4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18834,7 +18828,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18915,12 +18909,12 @@
         <v>55</v>
       </c>
       <c r="AB6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -19001,12 +18995,12 @@
         <v>55</v>
       </c>
       <c r="AB7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -19087,12 +19081,12 @@
         <v>55</v>
       </c>
       <c r="AB8" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -19173,12 +19167,12 @@
         <v>55</v>
       </c>
       <c r="AB9" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -19264,7 +19258,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19350,7 +19344,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -19431,12 +19425,12 @@
         <v>55</v>
       </c>
       <c r="AB12" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19517,12 +19511,12 @@
         <v>55</v>
       </c>
       <c r="AB13" t="s">
-        <v>526</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19608,7 +19602,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -19689,12 +19683,12 @@
         <v>55</v>
       </c>
       <c r="AB15" t="s">
-        <v>526</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -19775,12 +19769,12 @@
         <v>55</v>
       </c>
       <c r="AB16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -19866,7 +19860,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -19952,7 +19946,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -20033,12 +20027,12 @@
         <v>55</v>
       </c>
       <c r="AB19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -20124,7 +20118,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -20210,7 +20204,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -20296,7 +20290,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20377,7 +20371,7 @@
         <v>55</v>
       </c>
       <c r="AB23" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -20396,84 +20390,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D1" t="s">
         <v>813</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>814</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>815</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>816</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>817</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>818</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>819</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>820</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>821</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>822</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>823</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>824</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>825</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>826</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>827</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>828</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>829</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>830</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>831</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>832</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>833</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>834</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>835</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>836</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20548,12 +20542,12 @@
         <v>130</v>
       </c>
       <c r="Z2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -20633,7 +20627,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -20713,7 +20707,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -20793,7 +20787,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -20873,7 +20867,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -20953,7 +20947,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -21033,7 +21027,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -21113,7 +21107,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21193,7 +21187,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21268,12 +21262,12 @@
         <v>130</v>
       </c>
       <c r="Z11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21348,12 +21342,12 @@
         <v>130</v>
       </c>
       <c r="Z12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21428,12 +21422,12 @@
         <v>130</v>
       </c>
       <c r="Z13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -21513,7 +21507,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21593,7 +21587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21673,7 +21667,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21753,7 +21747,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21833,7 +21827,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -21908,12 +21902,12 @@
         <v>130</v>
       </c>
       <c r="Z19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -21988,12 +21982,12 @@
         <v>130</v>
       </c>
       <c r="Z20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -22059,7 +22053,7 @@
         <v>41</v>
       </c>
       <c r="W21" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="X21" t="s">
         <v>51</v>
@@ -26175,7 +26169,7 @@
         <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s">
         <v>31</v>
@@ -26187,16 +26181,16 @@
         <v>31</v>
       </c>
       <c r="Z11" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="AA11" t="s">
         <v>119</v>
       </c>
       <c r="AB11" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AC11" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AD11" t="s">
         <v>283</v>
@@ -27202,16 +27196,16 @@
         <v>54</v>
       </c>
       <c r="AA22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AD22" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23">
@@ -27303,7 +27297,7 @@
         <v>44</v>
       </c>
       <c r="AD23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24">
@@ -27395,7 +27389,7 @@
         <v>44</v>
       </c>
       <c r="AD24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25">
@@ -28050,7 +28044,7 @@
         <v>120</v>
       </c>
       <c r="AD6" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7">
@@ -28142,7 +28136,7 @@
         <v>120</v>
       </c>
       <c r="AD7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
@@ -28234,7 +28228,7 @@
         <v>44</v>
       </c>
       <c r="AD8" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
@@ -28326,7 +28320,7 @@
         <v>44</v>
       </c>
       <c r="AD9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
